--- a/Code/Results/Cases/Case_4_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_3/res_bus/vm_pu.xlsx
@@ -436,13 +436,13 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042560128615417</v>
+        <v>1.042560128615416</v>
       </c>
       <c r="J2">
         <v>1.017705837515287</v>
       </c>
       <c r="K2">
-        <v>1.024872619902719</v>
+        <v>1.02487261990272</v>
       </c>
       <c r="L2">
         <v>1.016282699843104</v>
@@ -477,16 +477,16 @@
         <v>1.045603813603176</v>
       </c>
       <c r="J3">
-        <v>1.024199632396232</v>
+        <v>1.024199632396233</v>
       </c>
       <c r="K3">
         <v>1.030419275971891</v>
       </c>
       <c r="L3">
-        <v>1.023342783837425</v>
+        <v>1.023342783837426</v>
       </c>
       <c r="M3">
-        <v>1.022704047971924</v>
+        <v>1.022704047971923</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009075578511245</v>
+        <v>1.009075578511248</v>
       </c>
       <c r="D4">
-        <v>1.024059003925216</v>
+        <v>1.024059003925218</v>
       </c>
       <c r="E4">
-        <v>1.01786303162125</v>
+        <v>1.017863031621253</v>
       </c>
       <c r="F4">
-        <v>1.017618032552358</v>
+        <v>1.017618032552361</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047488980285795</v>
+        <v>1.047488980285796</v>
       </c>
       <c r="J4">
-        <v>1.028249945079024</v>
+        <v>1.028249945079027</v>
       </c>
       <c r="K4">
-        <v>1.033875476991271</v>
+        <v>1.033875476991273</v>
       </c>
       <c r="L4">
-        <v>1.027750541941291</v>
+        <v>1.027750541941294</v>
       </c>
       <c r="M4">
-        <v>1.027508373767007</v>
+        <v>1.02750837376701</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011245894520497</v>
+        <v>1.011245894520495</v>
       </c>
       <c r="D5">
-        <v>1.025717993488051</v>
+        <v>1.025717993488049</v>
       </c>
       <c r="E5">
-        <v>1.019922451317261</v>
+        <v>1.019922451317259</v>
       </c>
       <c r="F5">
-        <v>1.019843627800174</v>
+        <v>1.019843627800172</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04826242365504</v>
+        <v>1.048262423655039</v>
       </c>
       <c r="J5">
-        <v>1.029918623695433</v>
+        <v>1.029918623695431</v>
       </c>
       <c r="K5">
-        <v>1.035298550749709</v>
+        <v>1.035298550749707</v>
       </c>
       <c r="L5">
-        <v>1.029567506654915</v>
+        <v>1.029567506654913</v>
       </c>
       <c r="M5">
-        <v>1.029489566578361</v>
+        <v>1.029489566578358</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -597,7 +597,7 @@
         <v>1.035535788560345</v>
       </c>
       <c r="L6">
-        <v>1.029870533713707</v>
+        <v>1.029870533713708</v>
       </c>
       <c r="M6">
         <v>1.029820028031659</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009104741115218</v>
+        <v>1.009104741115219</v>
       </c>
       <c r="D7">
-        <v>1.024081294837374</v>
+        <v>1.024081294837375</v>
       </c>
       <c r="E7">
-        <v>1.017890698896626</v>
+        <v>1.017890698896627</v>
       </c>
       <c r="F7">
-        <v>1.017647930680306</v>
+        <v>1.017647930680307</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.047499388672546</v>
       </c>
       <c r="J7">
-        <v>1.028272373152491</v>
+        <v>1.028272373152492</v>
       </c>
       <c r="K7">
         <v>1.033894607346385</v>
       </c>
       <c r="L7">
-        <v>1.027774959008904</v>
+        <v>1.027774959008905</v>
       </c>
       <c r="M7">
-        <v>1.027534994775967</v>
+        <v>1.027534994775968</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,7 +649,7 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9982748846431755</v>
+        <v>0.9982748846431748</v>
       </c>
       <c r="D8">
         <v>1.015805803519302</v>
@@ -676,7 +676,7 @@
         <v>1.018703455004654</v>
       </c>
       <c r="M8">
-        <v>1.017649903037005</v>
+        <v>1.017649903037004</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9775946811489207</v>
+        <v>0.9775946811489188</v>
       </c>
       <c r="D9">
-        <v>1.000025025536613</v>
+        <v>1.000025025536612</v>
       </c>
       <c r="E9">
-        <v>0.988077092657954</v>
+        <v>0.9880770926579518</v>
       </c>
       <c r="F9">
-        <v>0.9854486218853555</v>
+        <v>0.9854486218853536</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036046103604446</v>
+        <v>1.036046103604445</v>
       </c>
       <c r="J9">
-        <v>1.003964217051327</v>
+        <v>1.003964217051325</v>
       </c>
       <c r="K9">
-        <v>1.013117696731932</v>
+        <v>1.013117696731931</v>
       </c>
       <c r="L9">
-        <v>1.001366618761672</v>
+        <v>1.00136661876167</v>
       </c>
       <c r="M9">
-        <v>0.9987822810166243</v>
+        <v>0.9987822810166223</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,19 +722,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9624921850471668</v>
+        <v>0.9624921850471663</v>
       </c>
       <c r="D10">
-        <v>0.9885270874745397</v>
+        <v>0.9885270874745394</v>
       </c>
       <c r="E10">
-        <v>0.9738439207289986</v>
+        <v>0.9738439207289981</v>
       </c>
       <c r="F10">
-        <v>0.9700830050631932</v>
+        <v>0.9700830050631928</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.030442630221503</v>
       </c>
       <c r="J10">
-        <v>0.9922772444668512</v>
+        <v>0.9922772444668509</v>
       </c>
       <c r="K10">
         <v>1.003106625379932</v>
       </c>
       <c r="L10">
-        <v>0.9887020549514756</v>
+        <v>0.9887020549514751</v>
       </c>
       <c r="M10">
-        <v>0.9850142784629271</v>
+        <v>0.9850142784629266</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9555738848010543</v>
+        <v>0.9555738848010559</v>
       </c>
       <c r="D11">
-        <v>0.9832694486479363</v>
+        <v>0.9832694486479376</v>
       </c>
       <c r="E11">
-        <v>0.9673359503847954</v>
+        <v>0.9673359503847967</v>
       </c>
       <c r="F11">
-        <v>0.9630572765748084</v>
+        <v>0.9630572765748101</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027857753931068</v>
+        <v>1.027857753931069</v>
       </c>
       <c r="J11">
-        <v>0.9869191930139332</v>
+        <v>0.9869191930139346</v>
       </c>
       <c r="K11">
-        <v>0.9985139294638573</v>
+        <v>0.9985139294638585</v>
       </c>
       <c r="L11">
-        <v>0.9829013209719966</v>
+        <v>0.9829013209719979</v>
       </c>
       <c r="M11">
-        <v>0.9787112068391958</v>
+        <v>0.9787112068391971</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9529403225153068</v>
+        <v>0.952940322515305</v>
       </c>
       <c r="D12">
-        <v>0.9812697764592836</v>
+        <v>0.9812697764592823</v>
       </c>
       <c r="E12">
-        <v>0.9648605932036293</v>
+        <v>0.9648605932036274</v>
       </c>
       <c r="F12">
-        <v>0.9603849023575559</v>
+        <v>0.9603849023575542</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026871226656411</v>
+        <v>1.02687122665641</v>
       </c>
       <c r="J12">
-        <v>0.9848790671037598</v>
+        <v>0.9848790671037585</v>
       </c>
       <c r="K12">
-        <v>0.9967648360129979</v>
+        <v>0.9967648360129964</v>
       </c>
       <c r="L12">
-        <v>0.9806934610796271</v>
+        <v>0.9806934610796252</v>
       </c>
       <c r="M12">
-        <v>0.9763125644223537</v>
+        <v>0.9763125644223521</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9535082412638176</v>
+        <v>0.9535082412638168</v>
       </c>
       <c r="D13">
-        <v>0.9817009153395068</v>
+        <v>0.981700915339506</v>
       </c>
       <c r="E13">
-        <v>0.9653943017668805</v>
+        <v>0.9653943017668795</v>
       </c>
       <c r="F13">
-        <v>0.9609610948764838</v>
+        <v>0.9609610948764833</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.027084080385303</v>
       </c>
       <c r="J13">
-        <v>0.985319032939477</v>
+        <v>0.9853190329394762</v>
       </c>
       <c r="K13">
-        <v>0.9971420550486568</v>
+        <v>0.9971420550486562</v>
       </c>
       <c r="L13">
-        <v>0.9811695628607142</v>
+        <v>0.9811695628607131</v>
       </c>
       <c r="M13">
-        <v>0.9768297884936435</v>
+        <v>0.976829788493643</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9553575392767113</v>
+        <v>0.9553575392767103</v>
       </c>
       <c r="D14">
-        <v>0.983105139784104</v>
+        <v>0.9831051397841029</v>
       </c>
       <c r="E14">
-        <v>0.9671325595243057</v>
+        <v>0.9671325595243047</v>
       </c>
       <c r="F14">
-        <v>0.9628376998201386</v>
+        <v>0.9628376998201372</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027776762050843</v>
+        <v>1.027776762050842</v>
       </c>
       <c r="J14">
-        <v>0.9867516069933341</v>
+        <v>0.986751606993333</v>
       </c>
       <c r="K14">
-        <v>0.9983702576453263</v>
+        <v>0.9983702576453253</v>
       </c>
       <c r="L14">
-        <v>0.9827199398683671</v>
+        <v>0.9827199398683658</v>
       </c>
       <c r="M14">
-        <v>0.9785141443492053</v>
+        <v>0.9785141443492039</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9564882727251848</v>
+        <v>0.9564882727251852</v>
       </c>
       <c r="D15">
-        <v>0.9839639749863516</v>
+        <v>0.9839639749863522</v>
       </c>
       <c r="E15">
-        <v>0.9681956677456085</v>
+        <v>0.9681956677456089</v>
       </c>
       <c r="F15">
-        <v>0.9639854064887967</v>
+        <v>0.9639854064887968</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028199964896797</v>
+        <v>1.028199964896798</v>
       </c>
       <c r="J15">
-        <v>0.9876274789282553</v>
+        <v>0.9876274789282556</v>
       </c>
       <c r="K15">
-        <v>0.9991211292033259</v>
+        <v>0.9991211292033264</v>
       </c>
       <c r="L15">
-        <v>0.9836679437146209</v>
+        <v>0.9836679437146212</v>
       </c>
       <c r="M15">
-        <v>0.9795441248794777</v>
+        <v>0.979544124879478</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9629427873920375</v>
+        <v>0.9629427873920384</v>
       </c>
       <c r="D16">
-        <v>0.9888697473949444</v>
+        <v>0.9888697473949453</v>
       </c>
       <c r="E16">
-        <v>0.9742680617276199</v>
+        <v>0.9742680617276211</v>
       </c>
       <c r="F16">
-        <v>0.9705408833205196</v>
+        <v>0.9705408833205206</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.030610630039096</v>
       </c>
       <c r="J16">
-        <v>0.9926261475877995</v>
+        <v>0.9926261475878004</v>
       </c>
       <c r="K16">
-        <v>1.003405634239417</v>
+        <v>1.003405634239418</v>
       </c>
       <c r="L16">
-        <v>0.9890798973218949</v>
+        <v>0.9890798973218961</v>
       </c>
       <c r="M16">
-        <v>0.985424901156527</v>
+        <v>0.9854249011565281</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9668856093575832</v>
+        <v>0.9668856093575824</v>
       </c>
       <c r="D17">
-        <v>0.9918691525930551</v>
+        <v>0.9918691525930543</v>
       </c>
       <c r="E17">
-        <v>0.9779807197175787</v>
+        <v>0.9779807197175779</v>
       </c>
       <c r="F17">
-        <v>0.9745488509393687</v>
+        <v>0.9745488509393679</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.032078647841109</v>
       </c>
       <c r="J17">
-        <v>0.9956786166023289</v>
+        <v>0.995678616602328</v>
       </c>
       <c r="K17">
-        <v>1.006021262945168</v>
+        <v>1.006021262945167</v>
       </c>
       <c r="L17">
-        <v>0.9923861651875674</v>
+        <v>0.9923861651875664</v>
       </c>
       <c r="M17">
-        <v>0.9890183489307564</v>
+        <v>0.9890183489307558</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.969149362161973</v>
+        <v>0.969149362161974</v>
       </c>
       <c r="D18">
-        <v>0.993592106132375</v>
+        <v>0.993592106132376</v>
       </c>
       <c r="E18">
-        <v>0.9801134400243678</v>
+        <v>0.9801134400243693</v>
       </c>
       <c r="F18">
-        <v>0.9768512207908525</v>
+        <v>0.9768512207908536</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032919816053983</v>
+        <v>1.032919816053984</v>
       </c>
       <c r="J18">
-        <v>0.9974307588204354</v>
+        <v>0.9974307588204365</v>
       </c>
       <c r="K18">
-        <v>1.007522372545572</v>
+        <v>1.007522372545573</v>
       </c>
       <c r="L18">
-        <v>0.9942845037826692</v>
+        <v>0.9942845037826704</v>
       </c>
       <c r="M18">
-        <v>0.9910818651945765</v>
+        <v>0.9910818651945776</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9699153227231816</v>
+        <v>0.9699153227231805</v>
       </c>
       <c r="D19">
-        <v>0.9941752197871616</v>
+        <v>0.9941752197871607</v>
       </c>
       <c r="E19">
-        <v>0.9808352486638257</v>
+        <v>0.9808352486638245</v>
       </c>
       <c r="F19">
-        <v>0.9776304506271039</v>
+        <v>0.9776304506271029</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.03320414239896</v>
       </c>
       <c r="J19">
-        <v>0.9980235361738274</v>
+        <v>0.9980235361738266</v>
       </c>
       <c r="K19">
-        <v>1.008030171881932</v>
+        <v>1.008030171881931</v>
       </c>
       <c r="L19">
-        <v>0.9949268289984912</v>
+        <v>0.9949268289984903</v>
       </c>
       <c r="M19">
-        <v>0.9917801305369165</v>
+        <v>0.9917801305369158</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.96646635449834</v>
+        <v>0.9664663544983414</v>
       </c>
       <c r="D20">
-        <v>0.9915501232789189</v>
+        <v>0.99155012327892</v>
       </c>
       <c r="E20">
-        <v>0.9775858217736002</v>
+        <v>0.9775858217736015</v>
       </c>
       <c r="F20">
-        <v>0.9741225418262784</v>
+        <v>0.9741225418262799</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03192272268027</v>
+        <v>1.031922722680271</v>
       </c>
       <c r="J20">
-        <v>0.9953540787894554</v>
+        <v>0.9953540787894568</v>
       </c>
       <c r="K20">
-        <v>1.00574319888788</v>
+        <v>1.005743198887882</v>
       </c>
       <c r="L20">
-        <v>0.9920345901116635</v>
+        <v>0.9920345901116649</v>
       </c>
       <c r="M20">
-        <v>0.9886362064901981</v>
+        <v>0.9886362064901997</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9548147895517913</v>
+        <v>0.9548147895517912</v>
       </c>
       <c r="D21">
-        <v>0.9826929642826026</v>
+        <v>0.9826929642826024</v>
       </c>
       <c r="E21">
-        <v>0.9666223422909306</v>
+        <v>0.9666223422909305</v>
       </c>
       <c r="F21">
-        <v>0.9622868777006154</v>
+        <v>0.9622868777006151</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.02757353589444</v>
       </c>
       <c r="J21">
-        <v>0.9863311736673266</v>
+        <v>0.9863311736673265</v>
       </c>
       <c r="K21">
-        <v>0.9980098134231449</v>
+        <v>0.9980098134231448</v>
       </c>
       <c r="L21">
-        <v>0.9822649111365848</v>
+        <v>0.9822649111365845</v>
       </c>
       <c r="M21">
-        <v>0.9780197824121513</v>
+        <v>0.9780197824121512</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9471155255154953</v>
+        <v>0.9471155255154946</v>
       </c>
       <c r="D22">
-        <v>0.9768505844828448</v>
+        <v>0.9768505844828446</v>
       </c>
       <c r="E22">
-        <v>0.9593896544958135</v>
+        <v>0.9593896544958125</v>
       </c>
       <c r="F22">
-        <v>0.9544782563927346</v>
+        <v>0.954478256392734</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024684732524545</v>
+        <v>1.024684732524544</v>
       </c>
       <c r="J22">
-        <v>0.9803660854247853</v>
+        <v>0.9803660854247847</v>
       </c>
       <c r="K22">
-        <v>0.9928950205837261</v>
+        <v>0.9928950205837256</v>
       </c>
       <c r="L22">
-        <v>0.9758109457650227</v>
+        <v>0.9758109457650219</v>
       </c>
       <c r="M22">
-        <v>0.971008860743464</v>
+        <v>0.9710088607434633</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,31 +1219,31 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9512350809822996</v>
+        <v>0.9512350809822999</v>
       </c>
       <c r="D23">
-        <v>0.97997551301471</v>
+        <v>0.9799755130147103</v>
       </c>
       <c r="E23">
-        <v>0.9632583820258187</v>
+        <v>0.9632583820258185</v>
       </c>
       <c r="F23">
-        <v>0.9586551328873334</v>
+        <v>0.9586551328873333</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02623174725114</v>
+        <v>1.026231747251141</v>
       </c>
       <c r="J23">
-        <v>0.9835579596596833</v>
+        <v>0.9835579596596836</v>
       </c>
       <c r="K23">
-        <v>0.9956320907952758</v>
+        <v>0.9956320907952765</v>
       </c>
       <c r="L23">
-        <v>0.9792639663513494</v>
+        <v>0.9792639663513493</v>
       </c>
       <c r="M23">
         <v>0.9747596571953313</v>
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9666559085556454</v>
+        <v>0.9666559085556435</v>
       </c>
       <c r="D24">
-        <v>0.991694360581196</v>
+        <v>0.9916943605811943</v>
       </c>
       <c r="E24">
-        <v>0.9777643600950638</v>
+        <v>0.9777643600950621</v>
       </c>
       <c r="F24">
-        <v>0.9743152814937852</v>
+        <v>0.9743152814937834</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031993225028385</v>
+        <v>1.031993225028384</v>
       </c>
       <c r="J24">
-        <v>0.9955008105649586</v>
+        <v>0.9955008105649569</v>
       </c>
       <c r="K24">
-        <v>1.005868919584081</v>
+        <v>1.005868919584079</v>
       </c>
       <c r="L24">
-        <v>0.9921935445206337</v>
+        <v>0.9921935445206319</v>
       </c>
       <c r="M24">
-        <v>0.9888089801373601</v>
+        <v>0.9888089801373581</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9831530396966345</v>
+        <v>0.9831530396966373</v>
       </c>
       <c r="D25">
-        <v>1.00426295244364</v>
+        <v>1.004262952443642</v>
       </c>
       <c r="E25">
-        <v>0.9933246167399439</v>
+        <v>0.9933246167399465</v>
       </c>
       <c r="F25">
-        <v>0.9911141840934766</v>
+        <v>0.9911141840934787</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038092513391872</v>
+        <v>1.038092513391874</v>
       </c>
       <c r="J25">
-        <v>1.008260983956337</v>
+        <v>1.008260983956339</v>
       </c>
       <c r="K25">
-        <v>1.016795450058115</v>
+        <v>1.016795450058117</v>
       </c>
       <c r="L25">
-        <v>1.006027450922245</v>
+        <v>1.006027450922247</v>
       </c>
       <c r="M25">
-        <v>1.003852025075685</v>
+        <v>1.003852025075687</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_3/res_bus/vm_pu.xlsx
@@ -436,13 +436,13 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042560128615416</v>
+        <v>1.042560128615417</v>
       </c>
       <c r="J2">
         <v>1.017705837515287</v>
       </c>
       <c r="K2">
-        <v>1.02487261990272</v>
+        <v>1.024872619902719</v>
       </c>
       <c r="L2">
         <v>1.016282699843104</v>
@@ -477,16 +477,16 @@
         <v>1.045603813603176</v>
       </c>
       <c r="J3">
-        <v>1.024199632396233</v>
+        <v>1.024199632396232</v>
       </c>
       <c r="K3">
         <v>1.030419275971891</v>
       </c>
       <c r="L3">
-        <v>1.023342783837426</v>
+        <v>1.023342783837425</v>
       </c>
       <c r="M3">
-        <v>1.022704047971923</v>
+        <v>1.022704047971924</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009075578511248</v>
+        <v>1.009075578511245</v>
       </c>
       <c r="D4">
-        <v>1.024059003925218</v>
+        <v>1.024059003925216</v>
       </c>
       <c r="E4">
-        <v>1.017863031621253</v>
+        <v>1.01786303162125</v>
       </c>
       <c r="F4">
-        <v>1.017618032552361</v>
+        <v>1.017618032552358</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047488980285796</v>
+        <v>1.047488980285795</v>
       </c>
       <c r="J4">
-        <v>1.028249945079027</v>
+        <v>1.028249945079024</v>
       </c>
       <c r="K4">
-        <v>1.033875476991273</v>
+        <v>1.033875476991271</v>
       </c>
       <c r="L4">
-        <v>1.027750541941294</v>
+        <v>1.027750541941291</v>
       </c>
       <c r="M4">
-        <v>1.02750837376701</v>
+        <v>1.027508373767007</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011245894520495</v>
+        <v>1.011245894520497</v>
       </c>
       <c r="D5">
-        <v>1.025717993488049</v>
+        <v>1.025717993488051</v>
       </c>
       <c r="E5">
-        <v>1.019922451317259</v>
+        <v>1.019922451317261</v>
       </c>
       <c r="F5">
-        <v>1.019843627800172</v>
+        <v>1.019843627800174</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048262423655039</v>
+        <v>1.04826242365504</v>
       </c>
       <c r="J5">
-        <v>1.029918623695431</v>
+        <v>1.029918623695433</v>
       </c>
       <c r="K5">
-        <v>1.035298550749707</v>
+        <v>1.035298550749709</v>
       </c>
       <c r="L5">
-        <v>1.029567506654913</v>
+        <v>1.029567506654915</v>
       </c>
       <c r="M5">
-        <v>1.029489566578358</v>
+        <v>1.029489566578361</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -597,7 +597,7 @@
         <v>1.035535788560345</v>
       </c>
       <c r="L6">
-        <v>1.029870533713708</v>
+        <v>1.029870533713707</v>
       </c>
       <c r="M6">
         <v>1.029820028031659</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009104741115219</v>
+        <v>1.009104741115218</v>
       </c>
       <c r="D7">
-        <v>1.024081294837375</v>
+        <v>1.024081294837374</v>
       </c>
       <c r="E7">
-        <v>1.017890698896627</v>
+        <v>1.017890698896626</v>
       </c>
       <c r="F7">
-        <v>1.017647930680307</v>
+        <v>1.017647930680306</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.047499388672546</v>
       </c>
       <c r="J7">
-        <v>1.028272373152492</v>
+        <v>1.028272373152491</v>
       </c>
       <c r="K7">
         <v>1.033894607346385</v>
       </c>
       <c r="L7">
-        <v>1.027774959008905</v>
+        <v>1.027774959008904</v>
       </c>
       <c r="M7">
-        <v>1.027534994775968</v>
+        <v>1.027534994775967</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,7 +649,7 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9982748846431748</v>
+        <v>0.9982748846431755</v>
       </c>
       <c r="D8">
         <v>1.015805803519302</v>
@@ -676,7 +676,7 @@
         <v>1.018703455004654</v>
       </c>
       <c r="M8">
-        <v>1.017649903037004</v>
+        <v>1.017649903037005</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9775946811489188</v>
+        <v>0.9775946811489207</v>
       </c>
       <c r="D9">
-        <v>1.000025025536612</v>
+        <v>1.000025025536613</v>
       </c>
       <c r="E9">
-        <v>0.9880770926579518</v>
+        <v>0.988077092657954</v>
       </c>
       <c r="F9">
-        <v>0.9854486218853536</v>
+        <v>0.9854486218853555</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036046103604445</v>
+        <v>1.036046103604446</v>
       </c>
       <c r="J9">
-        <v>1.003964217051325</v>
+        <v>1.003964217051327</v>
       </c>
       <c r="K9">
-        <v>1.013117696731931</v>
+        <v>1.013117696731932</v>
       </c>
       <c r="L9">
-        <v>1.00136661876167</v>
+        <v>1.001366618761672</v>
       </c>
       <c r="M9">
-        <v>0.9987822810166223</v>
+        <v>0.9987822810166243</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,19 +722,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.9624921850471663</v>
+        <v>0.9624921850471668</v>
       </c>
       <c r="D10">
-        <v>0.9885270874745394</v>
+        <v>0.9885270874745397</v>
       </c>
       <c r="E10">
-        <v>0.9738439207289981</v>
+        <v>0.9738439207289986</v>
       </c>
       <c r="F10">
-        <v>0.9700830050631928</v>
+        <v>0.9700830050631932</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.030442630221503</v>
       </c>
       <c r="J10">
-        <v>0.9922772444668509</v>
+        <v>0.9922772444668512</v>
       </c>
       <c r="K10">
         <v>1.003106625379932</v>
       </c>
       <c r="L10">
-        <v>0.9887020549514751</v>
+        <v>0.9887020549514756</v>
       </c>
       <c r="M10">
-        <v>0.9850142784629266</v>
+        <v>0.9850142784629271</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9555738848010559</v>
+        <v>0.9555738848010543</v>
       </c>
       <c r="D11">
-        <v>0.9832694486479376</v>
+        <v>0.9832694486479363</v>
       </c>
       <c r="E11">
-        <v>0.9673359503847967</v>
+        <v>0.9673359503847954</v>
       </c>
       <c r="F11">
-        <v>0.9630572765748101</v>
+        <v>0.9630572765748084</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027857753931069</v>
+        <v>1.027857753931068</v>
       </c>
       <c r="J11">
-        <v>0.9869191930139346</v>
+        <v>0.9869191930139332</v>
       </c>
       <c r="K11">
-        <v>0.9985139294638585</v>
+        <v>0.9985139294638573</v>
       </c>
       <c r="L11">
-        <v>0.9829013209719979</v>
+        <v>0.9829013209719966</v>
       </c>
       <c r="M11">
-        <v>0.9787112068391971</v>
+        <v>0.9787112068391958</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.952940322515305</v>
+        <v>0.9529403225153068</v>
       </c>
       <c r="D12">
-        <v>0.9812697764592823</v>
+        <v>0.9812697764592836</v>
       </c>
       <c r="E12">
-        <v>0.9648605932036274</v>
+        <v>0.9648605932036293</v>
       </c>
       <c r="F12">
-        <v>0.9603849023575542</v>
+        <v>0.9603849023575559</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02687122665641</v>
+        <v>1.026871226656411</v>
       </c>
       <c r="J12">
-        <v>0.9848790671037585</v>
+        <v>0.9848790671037598</v>
       </c>
       <c r="K12">
-        <v>0.9967648360129964</v>
+        <v>0.9967648360129979</v>
       </c>
       <c r="L12">
-        <v>0.9806934610796252</v>
+        <v>0.9806934610796271</v>
       </c>
       <c r="M12">
-        <v>0.9763125644223521</v>
+        <v>0.9763125644223537</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9535082412638168</v>
+        <v>0.9535082412638176</v>
       </c>
       <c r="D13">
-        <v>0.981700915339506</v>
+        <v>0.9817009153395068</v>
       </c>
       <c r="E13">
-        <v>0.9653943017668795</v>
+        <v>0.9653943017668805</v>
       </c>
       <c r="F13">
-        <v>0.9609610948764833</v>
+        <v>0.9609610948764838</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.027084080385303</v>
       </c>
       <c r="J13">
-        <v>0.9853190329394762</v>
+        <v>0.985319032939477</v>
       </c>
       <c r="K13">
-        <v>0.9971420550486562</v>
+        <v>0.9971420550486568</v>
       </c>
       <c r="L13">
-        <v>0.9811695628607131</v>
+        <v>0.9811695628607142</v>
       </c>
       <c r="M13">
-        <v>0.976829788493643</v>
+        <v>0.9768297884936435</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9553575392767103</v>
+        <v>0.9553575392767113</v>
       </c>
       <c r="D14">
-        <v>0.9831051397841029</v>
+        <v>0.983105139784104</v>
       </c>
       <c r="E14">
-        <v>0.9671325595243047</v>
+        <v>0.9671325595243057</v>
       </c>
       <c r="F14">
-        <v>0.9628376998201372</v>
+        <v>0.9628376998201386</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027776762050842</v>
+        <v>1.027776762050843</v>
       </c>
       <c r="J14">
-        <v>0.986751606993333</v>
+        <v>0.9867516069933341</v>
       </c>
       <c r="K14">
-        <v>0.9983702576453253</v>
+        <v>0.9983702576453263</v>
       </c>
       <c r="L14">
-        <v>0.9827199398683658</v>
+        <v>0.9827199398683671</v>
       </c>
       <c r="M14">
-        <v>0.9785141443492039</v>
+        <v>0.9785141443492053</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9564882727251852</v>
+        <v>0.9564882727251848</v>
       </c>
       <c r="D15">
-        <v>0.9839639749863522</v>
+        <v>0.9839639749863516</v>
       </c>
       <c r="E15">
-        <v>0.9681956677456089</v>
+        <v>0.9681956677456085</v>
       </c>
       <c r="F15">
-        <v>0.9639854064887968</v>
+        <v>0.9639854064887967</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028199964896798</v>
+        <v>1.028199964896797</v>
       </c>
       <c r="J15">
-        <v>0.9876274789282556</v>
+        <v>0.9876274789282553</v>
       </c>
       <c r="K15">
-        <v>0.9991211292033264</v>
+        <v>0.9991211292033259</v>
       </c>
       <c r="L15">
-        <v>0.9836679437146212</v>
+        <v>0.9836679437146209</v>
       </c>
       <c r="M15">
-        <v>0.979544124879478</v>
+        <v>0.9795441248794777</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9629427873920384</v>
+        <v>0.9629427873920375</v>
       </c>
       <c r="D16">
-        <v>0.9888697473949453</v>
+        <v>0.9888697473949444</v>
       </c>
       <c r="E16">
-        <v>0.9742680617276211</v>
+        <v>0.9742680617276199</v>
       </c>
       <c r="F16">
-        <v>0.9705408833205206</v>
+        <v>0.9705408833205196</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.030610630039096</v>
       </c>
       <c r="J16">
-        <v>0.9926261475878004</v>
+        <v>0.9926261475877995</v>
       </c>
       <c r="K16">
-        <v>1.003405634239418</v>
+        <v>1.003405634239417</v>
       </c>
       <c r="L16">
-        <v>0.9890798973218961</v>
+        <v>0.9890798973218949</v>
       </c>
       <c r="M16">
-        <v>0.9854249011565281</v>
+        <v>0.985424901156527</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9668856093575824</v>
+        <v>0.9668856093575832</v>
       </c>
       <c r="D17">
-        <v>0.9918691525930543</v>
+        <v>0.9918691525930551</v>
       </c>
       <c r="E17">
-        <v>0.9779807197175779</v>
+        <v>0.9779807197175787</v>
       </c>
       <c r="F17">
-        <v>0.9745488509393679</v>
+        <v>0.9745488509393687</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.032078647841109</v>
       </c>
       <c r="J17">
-        <v>0.995678616602328</v>
+        <v>0.9956786166023289</v>
       </c>
       <c r="K17">
-        <v>1.006021262945167</v>
+        <v>1.006021262945168</v>
       </c>
       <c r="L17">
-        <v>0.9923861651875664</v>
+        <v>0.9923861651875674</v>
       </c>
       <c r="M17">
-        <v>0.9890183489307558</v>
+        <v>0.9890183489307564</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.969149362161974</v>
+        <v>0.969149362161973</v>
       </c>
       <c r="D18">
-        <v>0.993592106132376</v>
+        <v>0.993592106132375</v>
       </c>
       <c r="E18">
-        <v>0.9801134400243693</v>
+        <v>0.9801134400243678</v>
       </c>
       <c r="F18">
-        <v>0.9768512207908536</v>
+        <v>0.9768512207908525</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032919816053984</v>
+        <v>1.032919816053983</v>
       </c>
       <c r="J18">
-        <v>0.9974307588204365</v>
+        <v>0.9974307588204354</v>
       </c>
       <c r="K18">
-        <v>1.007522372545573</v>
+        <v>1.007522372545572</v>
       </c>
       <c r="L18">
-        <v>0.9942845037826704</v>
+        <v>0.9942845037826692</v>
       </c>
       <c r="M18">
-        <v>0.9910818651945776</v>
+        <v>0.9910818651945765</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9699153227231805</v>
+        <v>0.9699153227231816</v>
       </c>
       <c r="D19">
-        <v>0.9941752197871607</v>
+        <v>0.9941752197871616</v>
       </c>
       <c r="E19">
-        <v>0.9808352486638245</v>
+        <v>0.9808352486638257</v>
       </c>
       <c r="F19">
-        <v>0.9776304506271029</v>
+        <v>0.9776304506271039</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.03320414239896</v>
       </c>
       <c r="J19">
-        <v>0.9980235361738266</v>
+        <v>0.9980235361738274</v>
       </c>
       <c r="K19">
-        <v>1.008030171881931</v>
+        <v>1.008030171881932</v>
       </c>
       <c r="L19">
-        <v>0.9949268289984903</v>
+        <v>0.9949268289984912</v>
       </c>
       <c r="M19">
-        <v>0.9917801305369158</v>
+        <v>0.9917801305369165</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9664663544983414</v>
+        <v>0.96646635449834</v>
       </c>
       <c r="D20">
-        <v>0.99155012327892</v>
+        <v>0.9915501232789189</v>
       </c>
       <c r="E20">
-        <v>0.9775858217736015</v>
+        <v>0.9775858217736002</v>
       </c>
       <c r="F20">
-        <v>0.9741225418262799</v>
+        <v>0.9741225418262784</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031922722680271</v>
+        <v>1.03192272268027</v>
       </c>
       <c r="J20">
-        <v>0.9953540787894568</v>
+        <v>0.9953540787894554</v>
       </c>
       <c r="K20">
-        <v>1.005743198887882</v>
+        <v>1.00574319888788</v>
       </c>
       <c r="L20">
-        <v>0.9920345901116649</v>
+        <v>0.9920345901116635</v>
       </c>
       <c r="M20">
-        <v>0.9886362064901997</v>
+        <v>0.9886362064901981</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9548147895517912</v>
+        <v>0.9548147895517913</v>
       </c>
       <c r="D21">
-        <v>0.9826929642826024</v>
+        <v>0.9826929642826026</v>
       </c>
       <c r="E21">
-        <v>0.9666223422909305</v>
+        <v>0.9666223422909306</v>
       </c>
       <c r="F21">
-        <v>0.9622868777006151</v>
+        <v>0.9622868777006154</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.02757353589444</v>
       </c>
       <c r="J21">
-        <v>0.9863311736673265</v>
+        <v>0.9863311736673266</v>
       </c>
       <c r="K21">
-        <v>0.9980098134231448</v>
+        <v>0.9980098134231449</v>
       </c>
       <c r="L21">
-        <v>0.9822649111365845</v>
+        <v>0.9822649111365848</v>
       </c>
       <c r="M21">
-        <v>0.9780197824121512</v>
+        <v>0.9780197824121513</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9471155255154946</v>
+        <v>0.9471155255154953</v>
       </c>
       <c r="D22">
-        <v>0.9768505844828446</v>
+        <v>0.9768505844828448</v>
       </c>
       <c r="E22">
-        <v>0.9593896544958125</v>
+        <v>0.9593896544958135</v>
       </c>
       <c r="F22">
-        <v>0.954478256392734</v>
+        <v>0.9544782563927346</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024684732524544</v>
+        <v>1.024684732524545</v>
       </c>
       <c r="J22">
-        <v>0.9803660854247847</v>
+        <v>0.9803660854247853</v>
       </c>
       <c r="K22">
-        <v>0.9928950205837256</v>
+        <v>0.9928950205837261</v>
       </c>
       <c r="L22">
-        <v>0.9758109457650219</v>
+        <v>0.9758109457650227</v>
       </c>
       <c r="M22">
-        <v>0.9710088607434633</v>
+        <v>0.971008860743464</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,31 +1219,31 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9512350809822999</v>
+        <v>0.9512350809822996</v>
       </c>
       <c r="D23">
-        <v>0.9799755130147103</v>
+        <v>0.97997551301471</v>
       </c>
       <c r="E23">
-        <v>0.9632583820258185</v>
+        <v>0.9632583820258187</v>
       </c>
       <c r="F23">
-        <v>0.9586551328873333</v>
+        <v>0.9586551328873334</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026231747251141</v>
+        <v>1.02623174725114</v>
       </c>
       <c r="J23">
-        <v>0.9835579596596836</v>
+        <v>0.9835579596596833</v>
       </c>
       <c r="K23">
-        <v>0.9956320907952765</v>
+        <v>0.9956320907952758</v>
       </c>
       <c r="L23">
-        <v>0.9792639663513493</v>
+        <v>0.9792639663513494</v>
       </c>
       <c r="M23">
         <v>0.9747596571953313</v>
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9666559085556435</v>
+        <v>0.9666559085556454</v>
       </c>
       <c r="D24">
-        <v>0.9916943605811943</v>
+        <v>0.991694360581196</v>
       </c>
       <c r="E24">
-        <v>0.9777643600950621</v>
+        <v>0.9777643600950638</v>
       </c>
       <c r="F24">
-        <v>0.9743152814937834</v>
+        <v>0.9743152814937852</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031993225028384</v>
+        <v>1.031993225028385</v>
       </c>
       <c r="J24">
-        <v>0.9955008105649569</v>
+        <v>0.9955008105649586</v>
       </c>
       <c r="K24">
-        <v>1.005868919584079</v>
+        <v>1.005868919584081</v>
       </c>
       <c r="L24">
-        <v>0.9921935445206319</v>
+        <v>0.9921935445206337</v>
       </c>
       <c r="M24">
-        <v>0.9888089801373581</v>
+        <v>0.9888089801373601</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9831530396966373</v>
+        <v>0.9831530396966345</v>
       </c>
       <c r="D25">
-        <v>1.004262952443642</v>
+        <v>1.00426295244364</v>
       </c>
       <c r="E25">
-        <v>0.9933246167399465</v>
+        <v>0.9933246167399439</v>
       </c>
       <c r="F25">
-        <v>0.9911141840934787</v>
+        <v>0.9911141840934766</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038092513391874</v>
+        <v>1.038092513391872</v>
       </c>
       <c r="J25">
-        <v>1.008260983956339</v>
+        <v>1.008260983956337</v>
       </c>
       <c r="K25">
-        <v>1.016795450058117</v>
+        <v>1.016795450058115</v>
       </c>
       <c r="L25">
-        <v>1.006027450922247</v>
+        <v>1.006027450922245</v>
       </c>
       <c r="M25">
-        <v>1.003852025075687</v>
+        <v>1.003852025075685</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_3/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9953862487505818</v>
+        <v>0.9954049218238802</v>
       </c>
       <c r="D2">
-        <v>1.013599552136946</v>
+        <v>1.013615563615477</v>
       </c>
       <c r="E2">
-        <v>1.00489108765346</v>
+        <v>1.004909616766648</v>
       </c>
       <c r="F2">
-        <v>1.003604319333395</v>
+        <v>1.003622605872173</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042560128615417</v>
+        <v>1.042569046006836</v>
       </c>
       <c r="J2">
-        <v>1.017705837515287</v>
+        <v>1.017723944939654</v>
       </c>
       <c r="K2">
-        <v>1.024872619902719</v>
+        <v>1.024888415782605</v>
       </c>
       <c r="L2">
-        <v>1.016282699843104</v>
+        <v>1.016300973979406</v>
       </c>
       <c r="M2">
-        <v>1.015013667618071</v>
+        <v>1.01503170170383</v>
+      </c>
+      <c r="N2">
+        <v>1.012281431016361</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003812359347315</v>
+        <v>1.003824357467373</v>
       </c>
       <c r="D3">
-        <v>1.020036504516176</v>
+        <v>1.020047134934932</v>
       </c>
       <c r="E3">
-        <v>1.01287199543301</v>
+        <v>1.012883923527049</v>
       </c>
       <c r="F3">
-        <v>1.012225237705471</v>
+        <v>1.012237104991525</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045603813603176</v>
+        <v>1.045609718556132</v>
       </c>
       <c r="J3">
-        <v>1.024199632396232</v>
+        <v>1.024211306810868</v>
       </c>
       <c r="K3">
-        <v>1.030419275971891</v>
+        <v>1.030429776936273</v>
       </c>
       <c r="L3">
-        <v>1.023342783837425</v>
+        <v>1.023354564104797</v>
       </c>
       <c r="M3">
-        <v>1.022704047971924</v>
+        <v>1.022715767950737</v>
+      </c>
+      <c r="N3">
+        <v>1.016917553860507</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009075578511245</v>
+        <v>1.009083507394216</v>
       </c>
       <c r="D4">
-        <v>1.024059003925216</v>
+        <v>1.024066347804013</v>
       </c>
       <c r="E4">
-        <v>1.01786303162125</v>
+        <v>1.01787092834806</v>
       </c>
       <c r="F4">
-        <v>1.017618032552358</v>
+        <v>1.017625990712692</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047488980285795</v>
+        <v>1.047493041366067</v>
       </c>
       <c r="J4">
-        <v>1.028249945079024</v>
+        <v>1.028257676031689</v>
       </c>
       <c r="K4">
-        <v>1.033875476991271</v>
+        <v>1.033882737301064</v>
       </c>
       <c r="L4">
-        <v>1.027750541941291</v>
+        <v>1.027758347451673</v>
       </c>
       <c r="M4">
-        <v>1.027508373767007</v>
+        <v>1.027516239946597</v>
+      </c>
+      <c r="N4">
+        <v>1.019804918131919</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011245894520497</v>
+        <v>1.011252166539132</v>
       </c>
       <c r="D5">
-        <v>1.025717993488051</v>
+        <v>1.025723997989988</v>
       </c>
       <c r="E5">
-        <v>1.019922451317261</v>
+        <v>1.019928705081623</v>
       </c>
       <c r="F5">
-        <v>1.019843627800174</v>
+        <v>1.019849995268378</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04826242365504</v>
+        <v>1.048265732378654</v>
       </c>
       <c r="J5">
-        <v>1.029918623695433</v>
+        <v>1.029924744285855</v>
       </c>
       <c r="K5">
-        <v>1.035298550749709</v>
+        <v>1.035304488892725</v>
       </c>
       <c r="L5">
-        <v>1.029567506654915</v>
+        <v>1.029573690335351</v>
       </c>
       <c r="M5">
-        <v>1.029489566578361</v>
+        <v>1.029495862674825</v>
+      </c>
+      <c r="N5">
+        <v>1.020993417246666</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011607896579228</v>
+        <v>1.011613893401616</v>
       </c>
       <c r="D6">
-        <v>1.025994721262262</v>
+        <v>1.026000503237144</v>
       </c>
       <c r="E6">
-        <v>1.020266032913224</v>
+        <v>1.0202720137067</v>
       </c>
       <c r="F6">
-        <v>1.020214957735925</v>
+        <v>1.020221061055439</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048391199304309</v>
+        <v>1.048394382976948</v>
       </c>
       <c r="J6">
-        <v>1.030196864675835</v>
+        <v>1.030202717530145</v>
       </c>
       <c r="K6">
-        <v>1.035535788560345</v>
+        <v>1.035541506951356</v>
       </c>
       <c r="L6">
-        <v>1.029870533713707</v>
+        <v>1.029876447825102</v>
       </c>
       <c r="M6">
-        <v>1.029820028031659</v>
+        <v>1.02982606329463</v>
+      </c>
+      <c r="N6">
+        <v>1.021191528297446</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009104741115218</v>
+        <v>1.009112647654818</v>
       </c>
       <c r="D7">
-        <v>1.024081294837374</v>
+        <v>1.024088620658686</v>
       </c>
       <c r="E7">
-        <v>1.017890698896626</v>
+        <v>1.017898573473314</v>
       </c>
       <c r="F7">
-        <v>1.017647930680306</v>
+        <v>1.017655867385767</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047499388672546</v>
+        <v>1.047503439613133</v>
       </c>
       <c r="J7">
-        <v>1.028272373152491</v>
+        <v>1.028280082406996</v>
       </c>
       <c r="K7">
-        <v>1.033894607346385</v>
+        <v>1.033901849836488</v>
       </c>
       <c r="L7">
-        <v>1.027774959008904</v>
+        <v>1.027782742661557</v>
       </c>
       <c r="M7">
-        <v>1.027534994775967</v>
+        <v>1.027542839786004</v>
+      </c>
+      <c r="N7">
+        <v>1.01982089653489</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9982748846431755</v>
+        <v>0.9982912462621296</v>
       </c>
       <c r="D8">
-        <v>1.015805803519302</v>
+        <v>1.015819953090404</v>
       </c>
       <c r="E8">
-        <v>1.00762579862426</v>
+        <v>1.007642043577001</v>
       </c>
       <c r="F8">
-        <v>1.006558037767646</v>
+        <v>1.006574100465264</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04360691006924</v>
+        <v>1.043614786009689</v>
       </c>
       <c r="J8">
-        <v>1.019933247451543</v>
+        <v>1.019949132212686</v>
       </c>
       <c r="K8">
-        <v>1.026775848279622</v>
+        <v>1.026789813587273</v>
       </c>
       <c r="L8">
-        <v>1.018703455004654</v>
+        <v>1.018719484074736</v>
       </c>
       <c r="M8">
-        <v>1.017649903037005</v>
+        <v>1.017665751704969</v>
+      </c>
+      <c r="N8">
+        <v>1.013872535408372</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9775946811489207</v>
+        <v>0.977628178229589</v>
       </c>
       <c r="D9">
-        <v>1.000025025536613</v>
+        <v>1.000052936169365</v>
       </c>
       <c r="E9">
-        <v>0.988077092657954</v>
+        <v>0.988110226636656</v>
       </c>
       <c r="F9">
-        <v>0.9854486218853555</v>
+        <v>0.9854811915696652</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036046103604446</v>
+        <v>1.03606165632899</v>
       </c>
       <c r="J9">
-        <v>1.003964217051327</v>
+        <v>1.003996453613024</v>
       </c>
       <c r="K9">
-        <v>1.013117696731932</v>
+        <v>1.013145154579473</v>
       </c>
       <c r="L9">
-        <v>1.001366618761672</v>
+        <v>1.00139919833951</v>
       </c>
       <c r="M9">
-        <v>0.9987822810166243</v>
+        <v>0.9988143019855896</v>
+      </c>
+      <c r="N9">
+        <v>1.002448123735991</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9624921850471668</v>
+        <v>0.9625391712338337</v>
       </c>
       <c r="D10">
-        <v>0.9885270874745397</v>
+        <v>0.9885657558336415</v>
       </c>
       <c r="E10">
-        <v>0.9738439207289986</v>
+        <v>0.973890275915943</v>
       </c>
       <c r="F10">
-        <v>0.9700830050631932</v>
+        <v>0.9701285987165865</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030442630221503</v>
+        <v>1.030464154478875</v>
       </c>
       <c r="J10">
-        <v>0.9922772444668512</v>
+        <v>0.9923221522748068</v>
       </c>
       <c r="K10">
-        <v>1.003106625379932</v>
+        <v>1.003144574304265</v>
       </c>
       <c r="L10">
-        <v>0.9887020549514756</v>
+        <v>0.9887475132790864</v>
       </c>
       <c r="M10">
-        <v>0.9850142784629271</v>
+        <v>0.9850589809937379</v>
+      </c>
+      <c r="N10">
+        <v>0.9940667809350773</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9555738848010543</v>
+        <v>0.9556273711932601</v>
       </c>
       <c r="D11">
-        <v>0.9832694486479363</v>
+        <v>0.9833132752096112</v>
       </c>
       <c r="E11">
-        <v>0.9673359503847954</v>
+        <v>0.9673886528842472</v>
       </c>
       <c r="F11">
-        <v>0.9630572765748084</v>
+        <v>0.9631091539392574</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027857753931068</v>
+        <v>1.027882133262028</v>
       </c>
       <c r="J11">
-        <v>0.9869191930139332</v>
+        <v>0.9869701454273274</v>
       </c>
       <c r="K11">
-        <v>0.9985139294638573</v>
+        <v>0.9985568922198096</v>
       </c>
       <c r="L11">
-        <v>0.9829013209719966</v>
+        <v>0.982952939083896</v>
       </c>
       <c r="M11">
-        <v>0.9787112068391958</v>
+        <v>0.9787620042227494</v>
+      </c>
+      <c r="N11">
+        <v>0.9902201010363144</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9529403225153068</v>
+        <v>0.9529963413228942</v>
       </c>
       <c r="D12">
-        <v>0.9812697764592836</v>
+        <v>0.9813156079073151</v>
       </c>
       <c r="E12">
-        <v>0.9648605932036293</v>
+        <v>0.9649157643407402</v>
       </c>
       <c r="F12">
-        <v>0.9603849023575559</v>
+        <v>0.9604392289862441</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026871226656411</v>
+        <v>1.026896714355164</v>
       </c>
       <c r="J12">
-        <v>0.9848790671037598</v>
+        <v>0.9849323638418437</v>
       </c>
       <c r="K12">
-        <v>0.9967648360129979</v>
+        <v>0.9968097447740283</v>
       </c>
       <c r="L12">
-        <v>0.9806934610796271</v>
+        <v>0.9807474709626757</v>
       </c>
       <c r="M12">
-        <v>0.9763125644223537</v>
+        <v>0.9763657334065445</v>
+      </c>
+      <c r="N12">
+        <v>0.9887548917198018</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9535082412638176</v>
+        <v>0.9535637111678394</v>
       </c>
       <c r="D13">
-        <v>0.9817009153395068</v>
+        <v>0.9817463124522233</v>
       </c>
       <c r="E13">
-        <v>0.9653943017668805</v>
+        <v>0.9654489380249037</v>
       </c>
       <c r="F13">
-        <v>0.9609610948764838</v>
+        <v>0.9610148905704657</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027084080385303</v>
+        <v>1.027109328031153</v>
       </c>
       <c r="J13">
-        <v>0.985319032939477</v>
+        <v>0.9853718220425635</v>
       </c>
       <c r="K13">
-        <v>0.9971420550486568</v>
+        <v>0.9971865423595906</v>
       </c>
       <c r="L13">
-        <v>0.9811695628607142</v>
+        <v>0.9812230547040012</v>
       </c>
       <c r="M13">
-        <v>0.9768297884936435</v>
+        <v>0.9768824435691763</v>
+      </c>
+      <c r="N13">
+        <v>0.9890708968521449</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9553575392767113</v>
+        <v>0.9554112324671191</v>
       </c>
       <c r="D14">
-        <v>0.983105139784104</v>
+        <v>0.9831491301652767</v>
       </c>
       <c r="E14">
-        <v>0.9671325595243057</v>
+        <v>0.967185463702447</v>
       </c>
       <c r="F14">
-        <v>0.9628376998201386</v>
+        <v>0.9628897771684417</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027776762050843</v>
+        <v>1.027801231974258</v>
       </c>
       <c r="J14">
-        <v>0.9867516069933341</v>
+        <v>0.9868027510665235</v>
       </c>
       <c r="K14">
-        <v>0.9983702576453263</v>
+        <v>0.9984133794669378</v>
       </c>
       <c r="L14">
-        <v>0.9827199398683671</v>
+        <v>0.9827717534610785</v>
       </c>
       <c r="M14">
-        <v>0.9785141443492053</v>
+        <v>0.9785651354597461</v>
+      </c>
+      <c r="N14">
+        <v>0.9900997522281449</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9564882727251848</v>
+        <v>0.9565408874970125</v>
       </c>
       <c r="D15">
-        <v>0.9839639749863516</v>
+        <v>0.9840071108819494</v>
       </c>
       <c r="E15">
-        <v>0.9681956677456085</v>
+        <v>0.9682475200294318</v>
       </c>
       <c r="F15">
-        <v>0.9639854064887967</v>
+        <v>0.9640364410023622</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028199964896797</v>
+        <v>1.028223962233739</v>
       </c>
       <c r="J15">
-        <v>0.9876274789282553</v>
+        <v>0.9876776230933249</v>
       </c>
       <c r="K15">
-        <v>0.9991211292033259</v>
+        <v>0.9991634212224889</v>
       </c>
       <c r="L15">
-        <v>0.9836679437146209</v>
+        <v>0.9837187375784036</v>
       </c>
       <c r="M15">
-        <v>0.9795441248794777</v>
+        <v>0.9795941056165974</v>
+      </c>
+      <c r="N15">
+        <v>0.9907287215760309</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9629427873920375</v>
+        <v>0.9629893575842472</v>
       </c>
       <c r="D16">
-        <v>0.9888697473949444</v>
+        <v>0.9889080850601754</v>
       </c>
       <c r="E16">
-        <v>0.9742680617276199</v>
+        <v>0.9743140101756801</v>
       </c>
       <c r="F16">
-        <v>0.9705408833205196</v>
+        <v>0.9705860749922582</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030610630039096</v>
+        <v>1.030631971082705</v>
       </c>
       <c r="J16">
-        <v>0.9926261475877995</v>
+        <v>0.9926706672131237</v>
       </c>
       <c r="K16">
-        <v>1.003405634239417</v>
+        <v>1.003443261369342</v>
       </c>
       <c r="L16">
-        <v>0.9890798973218949</v>
+        <v>0.9891249604248172</v>
       </c>
       <c r="M16">
-        <v>0.985424901156527</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9854692132719691</v>
+      </c>
+      <c r="N16">
+        <v>0.9943171877095154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9668856093575832</v>
+        <v>0.9669285764512023</v>
       </c>
       <c r="D17">
-        <v>0.9918691525930551</v>
+        <v>0.9919046230913189</v>
       </c>
       <c r="E17">
-        <v>0.9779807197175787</v>
+        <v>0.9780231425766746</v>
       </c>
       <c r="F17">
-        <v>0.9745488509393687</v>
+        <v>0.9745905617225914</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032078647841109</v>
+        <v>1.032098399485046</v>
       </c>
       <c r="J17">
-        <v>0.9956786166023289</v>
+        <v>0.995719767179155</v>
       </c>
       <c r="K17">
-        <v>1.006021262945168</v>
+        <v>1.006056098232291</v>
       </c>
       <c r="L17">
-        <v>0.9923861651875674</v>
+        <v>0.9924277999335414</v>
       </c>
       <c r="M17">
-        <v>0.9890183489307564</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9890592776865637</v>
+      </c>
+      <c r="N17">
+        <v>0.9965074795603192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.969149362161973</v>
+        <v>0.9691902897584007</v>
       </c>
       <c r="D18">
-        <v>0.993592106132375</v>
+        <v>0.9936259514261157</v>
       </c>
       <c r="E18">
-        <v>0.9801134400243678</v>
+        <v>0.9801538651529612</v>
       </c>
       <c r="F18">
-        <v>0.9768512207908525</v>
+        <v>0.9768909619414136</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032919816053983</v>
+        <v>1.032938666037212</v>
       </c>
       <c r="J18">
-        <v>0.9974307588204354</v>
+        <v>0.9974699969167735</v>
       </c>
       <c r="K18">
-        <v>1.007522372545572</v>
+        <v>1.007555623846094</v>
       </c>
       <c r="L18">
-        <v>0.9942845037826692</v>
+        <v>0.9943241938301336</v>
       </c>
       <c r="M18">
-        <v>0.9910818651945765</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9911208774007988</v>
+      </c>
+      <c r="N18">
+        <v>0.997764334220586</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9699153227231816</v>
+        <v>0.969955564939077</v>
       </c>
       <c r="D19">
-        <v>0.9941752197871616</v>
+        <v>0.9942085185602925</v>
       </c>
       <c r="E19">
-        <v>0.9808352486638257</v>
+        <v>0.9808750021067074</v>
       </c>
       <c r="F19">
-        <v>0.9776304506271039</v>
+        <v>0.977669529990901</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03320414239896</v>
+        <v>1.033222689051338</v>
       </c>
       <c r="J19">
-        <v>0.9980235361738274</v>
+        <v>0.9980621306823294</v>
       </c>
       <c r="K19">
-        <v>1.008030171881932</v>
+        <v>1.008062890279382</v>
       </c>
       <c r="L19">
-        <v>0.9949268289984912</v>
+        <v>0.9949658648529311</v>
       </c>
       <c r="M19">
-        <v>0.9917801305369165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9918184984482298</v>
+      </c>
+      <c r="N19">
+        <v>0.9981894797860927</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.96646635449834</v>
+        <v>0.9665097016217437</v>
       </c>
       <c r="D20">
-        <v>0.9915501232789189</v>
+        <v>0.9915858964291048</v>
       </c>
       <c r="E20">
-        <v>0.9775858217736002</v>
+        <v>0.9776286167117519</v>
       </c>
       <c r="F20">
-        <v>0.9741225418262784</v>
+        <v>0.9741646196770408</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03192272268027</v>
+        <v>1.031942642175517</v>
       </c>
       <c r="J20">
-        <v>0.9953540787894554</v>
+        <v>0.9953955852905166</v>
       </c>
       <c r="K20">
-        <v>1.00574319888788</v>
+        <v>1.005778329032316</v>
       </c>
       <c r="L20">
-        <v>0.9920345901116635</v>
+        <v>0.9920765868938808</v>
       </c>
       <c r="M20">
-        <v>0.9886362064901981</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9886774922521132</v>
+      </c>
+      <c r="N20">
+        <v>0.9962746484382824</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9548147895517913</v>
+        <v>0.9548690025090303</v>
       </c>
       <c r="D21">
-        <v>0.9826929642826026</v>
+        <v>0.9827373663298595</v>
       </c>
       <c r="E21">
-        <v>0.9666223422909306</v>
+        <v>0.9666757532989404</v>
       </c>
       <c r="F21">
-        <v>0.9622868777006154</v>
+        <v>0.9623394577077388</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02757353589444</v>
+        <v>1.027598233448097</v>
       </c>
       <c r="J21">
-        <v>0.9863311736673266</v>
+        <v>0.986382799284455</v>
       </c>
       <c r="K21">
-        <v>0.9980098134231449</v>
+        <v>0.9980533349195868</v>
       </c>
       <c r="L21">
-        <v>0.9822649111365848</v>
+        <v>0.9823172159191128</v>
       </c>
       <c r="M21">
-        <v>0.9780197824121513</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9780712603884544</v>
+      </c>
+      <c r="N21">
+        <v>0.9897978171945435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9471155255154953</v>
+        <v>0.947177265745211</v>
       </c>
       <c r="D22">
-        <v>0.9768505844828448</v>
+        <v>0.9769009356677083</v>
       </c>
       <c r="E22">
-        <v>0.9593896544958135</v>
+        <v>0.9594503942654607</v>
       </c>
       <c r="F22">
-        <v>0.9544782563927346</v>
+        <v>0.9545381188569013</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024684732524545</v>
+        <v>1.024712716247106</v>
       </c>
       <c r="J22">
-        <v>0.9803660854247853</v>
+        <v>0.9804246571120616</v>
       </c>
       <c r="K22">
-        <v>0.9928950205837261</v>
+        <v>0.9929443108222565</v>
       </c>
       <c r="L22">
-        <v>0.9758109457650227</v>
+        <v>0.9758703429682891</v>
       </c>
       <c r="M22">
-        <v>0.971008860743464</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9710673818242158</v>
+      </c>
+      <c r="N22">
+        <v>0.985512755669357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9512350809822996</v>
+        <v>0.9512927573291341</v>
       </c>
       <c r="D23">
-        <v>0.97997551301471</v>
+        <v>0.9800226552753967</v>
       </c>
       <c r="E23">
-        <v>0.9632583820258187</v>
+        <v>0.9633151676783012</v>
       </c>
       <c r="F23">
-        <v>0.9586551328873334</v>
+        <v>0.9587110629723087</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02623174725114</v>
+        <v>1.026257959217569</v>
       </c>
       <c r="J23">
-        <v>0.9835579596596833</v>
+        <v>0.9836127876462633</v>
       </c>
       <c r="K23">
-        <v>0.9956320907952758</v>
+        <v>0.995678271051773</v>
       </c>
       <c r="L23">
-        <v>0.9792639663513494</v>
+        <v>0.9793195393048488</v>
       </c>
       <c r="M23">
-        <v>0.9747596571953313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9748143775790939</v>
+      </c>
+      <c r="N23">
+        <v>0.987805932423656</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9666559085556454</v>
+        <v>0.9666990837693488</v>
       </c>
       <c r="D24">
-        <v>0.991694360581196</v>
+        <v>0.9917299968312749</v>
       </c>
       <c r="E24">
-        <v>0.9777643600950638</v>
+        <v>0.9778069867266447</v>
       </c>
       <c r="F24">
-        <v>0.9743152814937852</v>
+        <v>0.9743571932962771</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031993225028385</v>
+        <v>1.032013068600878</v>
       </c>
       <c r="J24">
-        <v>0.9955008105649586</v>
+        <v>0.995542156077678</v>
       </c>
       <c r="K24">
-        <v>1.005868919584081</v>
+        <v>1.005903916358789</v>
       </c>
       <c r="L24">
-        <v>0.9921935445206337</v>
+        <v>0.992235377545477</v>
       </c>
       <c r="M24">
-        <v>0.9888089801373601</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.988850104408985</v>
+      </c>
+      <c r="N24">
+        <v>0.9963799185140515</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9831530396966345</v>
+        <v>0.9831817908223096</v>
       </c>
       <c r="D25">
-        <v>1.00426295244364</v>
+        <v>1.004287061802022</v>
       </c>
       <c r="E25">
-        <v>0.9933246167399439</v>
+        <v>0.9933530833619798</v>
       </c>
       <c r="F25">
-        <v>0.9911141840934766</v>
+        <v>0.9911421772717127</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038092513391872</v>
+        <v>1.038105950074595</v>
       </c>
       <c r="J25">
-        <v>1.008260983956337</v>
+        <v>1.008288720527548</v>
       </c>
       <c r="K25">
-        <v>1.016795450058115</v>
+        <v>1.016819189205016</v>
       </c>
       <c r="L25">
-        <v>1.006027450922245</v>
+        <v>1.006055468016952</v>
       </c>
       <c r="M25">
-        <v>1.003852025075685</v>
+        <v>1.003879573673162</v>
+      </c>
+      <c r="N25">
+        <v>1.005525706514566</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_3/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9954049218238802</v>
+        <v>1.058921535173385</v>
       </c>
       <c r="D2">
-        <v>1.013615563615477</v>
+        <v>1.069038028391596</v>
       </c>
       <c r="E2">
-        <v>1.004909616766648</v>
+        <v>1.075474859537755</v>
       </c>
       <c r="F2">
-        <v>1.003622605872173</v>
+        <v>1.07974450580319</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042569046006836</v>
+        <v>1.06529114434164</v>
       </c>
       <c r="J2">
-        <v>1.017723944939654</v>
+        <v>1.079472202869922</v>
       </c>
       <c r="K2">
-        <v>1.024888415782605</v>
+        <v>1.079612585397052</v>
       </c>
       <c r="L2">
-        <v>1.016300973979406</v>
+        <v>1.085974087022349</v>
       </c>
       <c r="M2">
-        <v>1.01503170170383</v>
+        <v>1.090194378006734</v>
       </c>
       <c r="N2">
-        <v>1.012281431016361</v>
+        <v>1.08100517721519</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003824357467373</v>
+        <v>1.068814342450513</v>
       </c>
       <c r="D3">
-        <v>1.020047134934932</v>
+        <v>1.077093558316819</v>
       </c>
       <c r="E3">
-        <v>1.012883923527049</v>
+        <v>1.084759442197341</v>
       </c>
       <c r="F3">
-        <v>1.012237104991525</v>
+        <v>1.08865478189314</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045609718556132</v>
+        <v>1.068949357010821</v>
       </c>
       <c r="J3">
-        <v>1.024211306810868</v>
+        <v>1.087589971602173</v>
       </c>
       <c r="K3">
-        <v>1.030429776936273</v>
+        <v>1.086826626327223</v>
       </c>
       <c r="L3">
-        <v>1.023354564104797</v>
+        <v>1.094411589844385</v>
       </c>
       <c r="M3">
-        <v>1.022715767950737</v>
+        <v>1.098266343836096</v>
       </c>
       <c r="N3">
-        <v>1.016917553860507</v>
+        <v>1.089134474110162</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009083507394216</v>
+        <v>1.074987086901147</v>
       </c>
       <c r="D4">
-        <v>1.024066347804013</v>
+        <v>1.082120610766176</v>
       </c>
       <c r="E4">
-        <v>1.01787092834806</v>
+        <v>1.090557575240352</v>
       </c>
       <c r="F4">
-        <v>1.017625990712692</v>
+        <v>1.0942185806322</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047493041366067</v>
+        <v>1.071217010163908</v>
       </c>
       <c r="J4">
-        <v>1.028257676031689</v>
+        <v>1.092649390217369</v>
       </c>
       <c r="K4">
-        <v>1.033882737301064</v>
+        <v>1.091319518267426</v>
       </c>
       <c r="L4">
-        <v>1.027758347451673</v>
+        <v>1.099673386268197</v>
       </c>
       <c r="M4">
-        <v>1.027516239946597</v>
+        <v>1.103298817111037</v>
       </c>
       <c r="N4">
-        <v>1.019804918131919</v>
+        <v>1.094201077680114</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011252166539132</v>
+        <v>1.07753116919232</v>
       </c>
       <c r="D5">
-        <v>1.025723997989988</v>
+        <v>1.084192538923715</v>
       </c>
       <c r="E5">
-        <v>1.019928705081623</v>
+        <v>1.092948342244622</v>
       </c>
       <c r="F5">
-        <v>1.019849995268378</v>
+        <v>1.096512559394436</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048265732378654</v>
+        <v>1.07214795021684</v>
       </c>
       <c r="J5">
-        <v>1.029924744285855</v>
+        <v>1.094733161364634</v>
       </c>
       <c r="K5">
-        <v>1.035304488892725</v>
+        <v>1.093169145319359</v>
       </c>
       <c r="L5">
-        <v>1.029573690335351</v>
+        <v>1.101841245666287</v>
       </c>
       <c r="M5">
-        <v>1.029495862674825</v>
+        <v>1.105371852279479</v>
       </c>
       <c r="N5">
-        <v>1.020993417246666</v>
+        <v>1.096287808021421</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011613893401616</v>
+        <v>1.077955447130853</v>
       </c>
       <c r="D6">
-        <v>1.026000503237144</v>
+        <v>1.084538074326381</v>
       </c>
       <c r="E6">
-        <v>1.0202720137067</v>
+        <v>1.093347112639965</v>
       </c>
       <c r="F6">
-        <v>1.020221061055439</v>
+        <v>1.096895175570123</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048394382976948</v>
+        <v>1.072302985463302</v>
       </c>
       <c r="J6">
-        <v>1.030202717530145</v>
+        <v>1.095080585297583</v>
       </c>
       <c r="K6">
-        <v>1.035541506951356</v>
+        <v>1.093477482058159</v>
       </c>
       <c r="L6">
-        <v>1.029876447825102</v>
+        <v>1.102202732663013</v>
       </c>
       <c r="M6">
-        <v>1.02982606329463</v>
+        <v>1.105717506886915</v>
       </c>
       <c r="N6">
-        <v>1.021191528297446</v>
+        <v>1.096635725336204</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009112647654818</v>
+        <v>1.07502127651384</v>
       </c>
       <c r="D7">
-        <v>1.024088620658686</v>
+        <v>1.082148455158528</v>
       </c>
       <c r="E7">
-        <v>1.017898573473314</v>
+        <v>1.090589700307512</v>
       </c>
       <c r="F7">
-        <v>1.017655867385767</v>
+        <v>1.094249405823631</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047503439613133</v>
+        <v>1.071229535596145</v>
       </c>
       <c r="J7">
-        <v>1.028280082406996</v>
+        <v>1.092677399627568</v>
       </c>
       <c r="K7">
-        <v>1.033901849836488</v>
+        <v>1.091344383649689</v>
       </c>
       <c r="L7">
-        <v>1.027782742661557</v>
+        <v>1.099702523054663</v>
       </c>
       <c r="M7">
-        <v>1.027542839786004</v>
+        <v>1.103326680805866</v>
       </c>
       <c r="N7">
-        <v>1.01982089653489</v>
+        <v>1.094229126866889</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9982912462621296</v>
+        <v>1.062314589680632</v>
       </c>
       <c r="D8">
-        <v>1.015819953090404</v>
+        <v>1.071800698192199</v>
       </c>
       <c r="E8">
-        <v>1.007642043577001</v>
+        <v>1.078658203721866</v>
       </c>
       <c r="F8">
-        <v>1.006574100465264</v>
+        <v>1.082799621766979</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043614786009689</v>
+        <v>1.06654895672442</v>
       </c>
       <c r="J8">
-        <v>1.019949132212686</v>
+        <v>1.082257626518958</v>
       </c>
       <c r="K8">
-        <v>1.026789813587273</v>
+        <v>1.082088592475516</v>
       </c>
       <c r="L8">
-        <v>1.018719484074736</v>
+        <v>1.088868556835982</v>
       </c>
       <c r="M8">
-        <v>1.017665751704969</v>
+        <v>1.092963731071268</v>
       </c>
       <c r="N8">
-        <v>1.013872535408372</v>
+        <v>1.0837945564853</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.977628178229589</v>
+        <v>1.037978405907381</v>
       </c>
       <c r="D9">
-        <v>1.000052936169365</v>
+        <v>1.051995126333916</v>
       </c>
       <c r="E9">
-        <v>0.988110226636656</v>
+        <v>1.055852245185381</v>
       </c>
       <c r="F9">
-        <v>0.9854811915696652</v>
+        <v>1.060910931749464</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03606165632899</v>
+        <v>1.05746601432474</v>
       </c>
       <c r="J9">
-        <v>1.003996453613024</v>
+        <v>1.06225781888086</v>
       </c>
       <c r="K9">
-        <v>1.013145154579473</v>
+        <v>1.06429740925501</v>
       </c>
       <c r="L9">
-        <v>1.00139919833951</v>
+        <v>1.068099789055266</v>
       </c>
       <c r="M9">
-        <v>0.9988143019855896</v>
+        <v>1.073087445898922</v>
       </c>
       <c r="N9">
-        <v>1.002448123735991</v>
+        <v>1.063766346826345</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9625391712338337</v>
+        <v>1.020124920538008</v>
       </c>
       <c r="D10">
-        <v>0.9885657558336415</v>
+        <v>1.037485707432006</v>
       </c>
       <c r="E10">
-        <v>0.973890275915943</v>
+        <v>1.039161368350173</v>
       </c>
       <c r="F10">
-        <v>0.9701285987165865</v>
+        <v>1.044891180358908</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030464154478875</v>
+        <v>1.050728459835704</v>
       </c>
       <c r="J10">
-        <v>0.9923221522748068</v>
+        <v>1.047562212422635</v>
       </c>
       <c r="K10">
-        <v>1.003144574304265</v>
+        <v>1.05120959681926</v>
       </c>
       <c r="L10">
-        <v>0.9887475132790864</v>
+        <v>1.052857806581292</v>
       </c>
       <c r="M10">
-        <v>0.9850589809937379</v>
+        <v>1.058494604914795</v>
       </c>
       <c r="N10">
-        <v>0.9940667809350773</v>
+        <v>1.049049870921341</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>0.9556273711932601</v>
+        <v>1.011917482742562</v>
       </c>
       <c r="D11">
-        <v>0.9833132752096112</v>
+        <v>1.030823609515406</v>
       </c>
       <c r="E11">
-        <v>0.9673886528842472</v>
+        <v>1.0315003316375</v>
       </c>
       <c r="F11">
-        <v>0.9631091539392574</v>
+        <v>1.037538751813769</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027882133262028</v>
+        <v>1.047615474121904</v>
       </c>
       <c r="J11">
-        <v>0.9869701454273274</v>
+        <v>1.040802749295431</v>
       </c>
       <c r="K11">
-        <v>0.9985568922198096</v>
+        <v>1.045186742894083</v>
       </c>
       <c r="L11">
-        <v>0.982952939083896</v>
+        <v>1.045851682113543</v>
       </c>
       <c r="M11">
-        <v>0.9787620042227494</v>
+        <v>1.051785842351727</v>
       </c>
       <c r="N11">
-        <v>0.9902201010363144</v>
+        <v>1.042280808581175</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9529963413228942</v>
+        <v>1.008787763869299</v>
       </c>
       <c r="D12">
-        <v>0.9813156079073151</v>
+        <v>1.028284706482886</v>
       </c>
       <c r="E12">
-        <v>0.9649157643407402</v>
+        <v>1.028581011782429</v>
       </c>
       <c r="F12">
-        <v>0.9604392289862441</v>
+        <v>1.034737178210897</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026896714355164</v>
+        <v>1.046426258677692</v>
       </c>
       <c r="J12">
-        <v>0.9849323638418437</v>
+        <v>1.038224810624556</v>
       </c>
       <c r="K12">
-        <v>0.9968097447740283</v>
+        <v>1.042889363475459</v>
       </c>
       <c r="L12">
-        <v>0.9807474709626757</v>
+        <v>1.043180392136898</v>
       </c>
       <c r="M12">
-        <v>0.9763657334065445</v>
+        <v>1.049227814624869</v>
       </c>
       <c r="N12">
-        <v>0.9887548917198018</v>
+        <v>1.039699208941693</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9535637111678394</v>
+        <v>1.009462941903975</v>
       </c>
       <c r="D13">
-        <v>0.9817463124522233</v>
+        <v>1.028832352016994</v>
       </c>
       <c r="E13">
-        <v>0.9654489380249037</v>
+        <v>1.029210703737427</v>
       </c>
       <c r="F13">
-        <v>0.9610148905704657</v>
+        <v>1.03534146472346</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027109328031153</v>
+        <v>1.046682902828576</v>
       </c>
       <c r="J13">
-        <v>0.9853718220425635</v>
+        <v>1.038780965811231</v>
       </c>
       <c r="K13">
-        <v>0.9971865423595906</v>
+        <v>1.043385007298721</v>
       </c>
       <c r="L13">
-        <v>0.9812230547040012</v>
+        <v>1.043756653711137</v>
       </c>
       <c r="M13">
-        <v>0.9768824435691763</v>
+        <v>1.049779647340883</v>
       </c>
       <c r="N13">
-        <v>0.9890708968521449</v>
+        <v>1.040256153932525</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9554112324671191</v>
+        <v>1.011660495199703</v>
       </c>
       <c r="D14">
-        <v>0.9831491301652767</v>
+        <v>1.030615101912822</v>
       </c>
       <c r="E14">
-        <v>0.967185463702447</v>
+        <v>1.031260577521957</v>
       </c>
       <c r="F14">
-        <v>0.9628897771684417</v>
+        <v>1.03730866441912</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027801231974258</v>
+        <v>1.047517867426856</v>
       </c>
       <c r="J14">
-        <v>0.9868027510665235</v>
+        <v>1.040591075855043</v>
       </c>
       <c r="K14">
-        <v>0.9984133794669378</v>
+        <v>1.044998113112428</v>
       </c>
       <c r="L14">
-        <v>0.9827717534610785</v>
+        <v>1.045632328917794</v>
       </c>
       <c r="M14">
-        <v>0.9785651354597461</v>
+        <v>1.051575791794116</v>
       </c>
       <c r="N14">
-        <v>0.9900997522281449</v>
+        <v>1.042068834540222</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9565408874970125</v>
+        <v>1.013003417777385</v>
       </c>
       <c r="D15">
-        <v>0.9840071108819494</v>
+        <v>1.031704750423577</v>
       </c>
       <c r="E15">
-        <v>0.9682475200294318</v>
+        <v>1.032513528816135</v>
       </c>
       <c r="F15">
-        <v>0.9640364410023622</v>
+        <v>1.038511103971296</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028223962233739</v>
+        <v>1.048027838401072</v>
       </c>
       <c r="J15">
-        <v>0.9876776230933249</v>
+        <v>1.041697189709217</v>
       </c>
       <c r="K15">
-        <v>0.9991634212224889</v>
+        <v>1.045983796202157</v>
       </c>
       <c r="L15">
-        <v>0.9837187375784036</v>
+        <v>1.046778603197137</v>
       </c>
       <c r="M15">
-        <v>0.9795941056165974</v>
+        <v>1.052673448819943</v>
       </c>
       <c r="N15">
-        <v>0.9907287215760309</v>
+        <v>1.043176519202942</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9629893575842472</v>
+        <v>1.020658806840403</v>
       </c>
       <c r="D16">
-        <v>0.9889080850601754</v>
+        <v>1.03791926216239</v>
       </c>
       <c r="E16">
-        <v>0.9743140101756801</v>
+        <v>1.039659976899382</v>
       </c>
       <c r="F16">
-        <v>0.9705860749922582</v>
+        <v>1.04536972018052</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030631971082705</v>
+        <v>1.050930651036324</v>
       </c>
       <c r="J16">
-        <v>0.9926706672131237</v>
+        <v>1.048001847576409</v>
       </c>
       <c r="K16">
-        <v>1.003443261369342</v>
+        <v>1.051601268391718</v>
       </c>
       <c r="L16">
-        <v>0.9891249604248172</v>
+        <v>1.053313581942114</v>
       </c>
       <c r="M16">
-        <v>0.9854692132719691</v>
+        <v>1.058931017744845</v>
       </c>
       <c r="N16">
-        <v>0.9943171877095154</v>
+        <v>1.049490130407459</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9669285764512023</v>
+        <v>1.025327029596697</v>
       </c>
       <c r="D17">
-        <v>0.9919046230913189</v>
+        <v>1.041711132764396</v>
       </c>
       <c r="E17">
-        <v>0.9780231425766746</v>
+        <v>1.044021096610604</v>
       </c>
       <c r="F17">
-        <v>0.9745905617225914</v>
+        <v>1.049555376716584</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032098399485046</v>
+        <v>1.052696849962699</v>
       </c>
       <c r="J17">
-        <v>0.995719767179155</v>
+        <v>1.051845553363454</v>
       </c>
       <c r="K17">
-        <v>1.006056098232291</v>
+        <v>1.055025311692989</v>
       </c>
       <c r="L17">
-        <v>0.9924277999335414</v>
+        <v>1.057298923181665</v>
       </c>
       <c r="M17">
-        <v>0.9890592776865637</v>
+        <v>1.062746940724717</v>
       </c>
       <c r="N17">
-        <v>0.9965074795603192</v>
+        <v>1.053339294697601</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9691902897584007</v>
+        <v>1.02800465014696</v>
       </c>
       <c r="D18">
-        <v>0.9936259514261157</v>
+        <v>1.043886815516242</v>
       </c>
       <c r="E18">
-        <v>0.9801538651529612</v>
+        <v>1.046523660548919</v>
       </c>
       <c r="F18">
-        <v>0.9768909619414136</v>
+        <v>1.051957301769495</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032938666037212</v>
+        <v>1.0537084428406</v>
       </c>
       <c r="J18">
-        <v>0.9974699969167735</v>
+        <v>1.054049882465287</v>
       </c>
       <c r="K18">
-        <v>1.007555623846094</v>
+        <v>1.056988691862568</v>
       </c>
       <c r="L18">
-        <v>0.9943241938301336</v>
+        <v>1.059584910070763</v>
       </c>
       <c r="M18">
-        <v>0.9911208774007988</v>
+        <v>1.064935651665048</v>
       </c>
       <c r="N18">
-        <v>0.997764334220586</v>
+        <v>1.055546754199599</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.969955564939077</v>
+        <v>1.028910230070712</v>
       </c>
       <c r="D19">
-        <v>0.9942085185602925</v>
+        <v>1.044622752559767</v>
       </c>
       <c r="E19">
-        <v>0.9808750021067074</v>
+        <v>1.047370214551925</v>
       </c>
       <c r="F19">
-        <v>0.977669529990901</v>
+        <v>1.052769818661778</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033222689051338</v>
+        <v>1.054050311763601</v>
       </c>
       <c r="J19">
-        <v>0.9980621306823294</v>
+        <v>1.054795327386701</v>
       </c>
       <c r="K19">
-        <v>1.008062890279382</v>
+        <v>1.057652605606477</v>
       </c>
       <c r="L19">
-        <v>0.9949658648529311</v>
+        <v>1.060358042020497</v>
       </c>
       <c r="M19">
-        <v>0.9918184984482298</v>
+        <v>1.065675866806798</v>
       </c>
       <c r="N19">
-        <v>0.9981894797860927</v>
+        <v>1.056293257738305</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9665097016217437</v>
+        <v>1.024830919364168</v>
       </c>
       <c r="D20">
-        <v>0.9915858964291048</v>
+        <v>1.041308078362596</v>
       </c>
       <c r="E20">
-        <v>0.9776286167117519</v>
+        <v>1.043557508028719</v>
       </c>
       <c r="F20">
-        <v>0.9741646196770408</v>
+        <v>1.04911043452252</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031942642175517</v>
+        <v>1.052509300988569</v>
       </c>
       <c r="J20">
-        <v>0.9953955852905166</v>
+        <v>1.051437104144237</v>
       </c>
       <c r="K20">
-        <v>1.005778329032316</v>
+        <v>1.054661486006745</v>
       </c>
       <c r="L20">
-        <v>0.9920765868938808</v>
+        <v>1.056875378118333</v>
       </c>
       <c r="M20">
-        <v>0.9886774922521132</v>
+        <v>1.062341410650798</v>
       </c>
       <c r="N20">
-        <v>0.9962746484382824</v>
+        <v>1.052930265433644</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9548690025090303</v>
+        <v>1.011015694896096</v>
       </c>
       <c r="D21">
-        <v>0.9827373663298595</v>
+        <v>1.030091967140188</v>
       </c>
       <c r="E21">
-        <v>0.9666757532989404</v>
+        <v>1.030659050809608</v>
       </c>
       <c r="F21">
-        <v>0.9623394577077388</v>
+        <v>1.036731393455725</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027598233448097</v>
+        <v>1.047272931436779</v>
       </c>
       <c r="J21">
-        <v>0.986382799284455</v>
+        <v>1.040059966643096</v>
       </c>
       <c r="K21">
-        <v>0.9980533349195868</v>
+        <v>1.044524816986234</v>
       </c>
       <c r="L21">
-        <v>0.9823172159191128</v>
+        <v>1.045081962104037</v>
       </c>
       <c r="M21">
-        <v>0.9780712603884544</v>
+        <v>1.051048763992447</v>
       </c>
       <c r="N21">
-        <v>0.9897978171945435</v>
+        <v>1.041536971092275</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.947177265745211</v>
+        <v>1.001854098991291</v>
       </c>
       <c r="D22">
-        <v>0.9769009356677083</v>
+        <v>1.022663211699597</v>
       </c>
       <c r="E22">
-        <v>0.9594503942654607</v>
+        <v>1.022117565261119</v>
       </c>
       <c r="F22">
-        <v>0.9545381188569013</v>
+        <v>1.028534778718063</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024712716247106</v>
+        <v>1.043787916781686</v>
       </c>
       <c r="J22">
-        <v>0.9804246571120616</v>
+        <v>1.032513128799048</v>
       </c>
       <c r="K22">
-        <v>0.9929443108222565</v>
+        <v>1.037798689781266</v>
       </c>
       <c r="L22">
-        <v>0.9758703429682891</v>
+        <v>1.037263243620175</v>
       </c>
       <c r="M22">
-        <v>0.9710673818242158</v>
+        <v>1.043561386391242</v>
       </c>
       <c r="N22">
-        <v>0.985512755669357</v>
+        <v>1.033979415872854</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9512927573291341</v>
+        <v>1.006759569513979</v>
       </c>
       <c r="D23">
-        <v>0.9800226552753967</v>
+        <v>1.026639865835838</v>
       </c>
       <c r="E23">
-        <v>0.9633151676783012</v>
+        <v>1.026689775762593</v>
       </c>
       <c r="F23">
-        <v>0.9587110629723087</v>
+        <v>1.032922272838899</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026257959217569</v>
+        <v>1.045655017520996</v>
       </c>
       <c r="J23">
-        <v>0.9836127876462633</v>
+        <v>1.036554115829056</v>
       </c>
       <c r="K23">
-        <v>0.995678271051773</v>
+        <v>1.041400396942248</v>
       </c>
       <c r="L23">
-        <v>0.9793195393048488</v>
+        <v>1.041449405189818</v>
       </c>
       <c r="M23">
-        <v>0.9748143775790939</v>
+        <v>1.047570193952584</v>
       </c>
       <c r="N23">
-        <v>0.987805932423656</v>
+        <v>1.038026141567952</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9666990837693488</v>
+        <v>1.025055229436224</v>
       </c>
       <c r="D24">
-        <v>0.9917299968312749</v>
+        <v>1.041490312167749</v>
       </c>
       <c r="E24">
-        <v>0.9778069867266447</v>
+        <v>1.043767110457458</v>
       </c>
       <c r="F24">
-        <v>0.9743571932962771</v>
+        <v>1.04931160620999</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032013068600878</v>
+        <v>1.052594103519138</v>
       </c>
       <c r="J24">
-        <v>0.995542156077678</v>
+        <v>1.051621780517086</v>
       </c>
       <c r="K24">
-        <v>1.005903916358789</v>
+        <v>1.054825987145081</v>
       </c>
       <c r="L24">
-        <v>0.992235377545477</v>
+        <v>1.057066878591041</v>
       </c>
       <c r="M24">
-        <v>0.988850104408985</v>
+        <v>1.062524766184117</v>
       </c>
       <c r="N24">
-        <v>0.9963799185140515</v>
+        <v>1.053115204068124</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9831817908223096</v>
+        <v>1.04453048848164</v>
       </c>
       <c r="D25">
-        <v>1.004287061802022</v>
+        <v>1.057324906418809</v>
       </c>
       <c r="E25">
-        <v>0.9933530833619798</v>
+        <v>1.061986295708839</v>
       </c>
       <c r="F25">
-        <v>0.9911421772717127</v>
+        <v>1.066798470852203</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038105950074595</v>
+        <v>1.059924458399902</v>
       </c>
       <c r="J25">
-        <v>1.008288720527548</v>
+        <v>1.067646849232457</v>
       </c>
       <c r="K25">
-        <v>1.016819189205016</v>
+        <v>1.069094038237169</v>
       </c>
       <c r="L25">
-        <v>1.006055468016952</v>
+        <v>1.073692946527992</v>
       </c>
       <c r="M25">
-        <v>1.003879573673162</v>
+        <v>1.078441337927683</v>
       </c>
       <c r="N25">
-        <v>1.005525706514566</v>
+        <v>1.069163030219172</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_3/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.058921535173385</v>
+        <v>1.019647904398337</v>
       </c>
       <c r="D2">
-        <v>1.069038028391596</v>
+        <v>1.036310389876727</v>
       </c>
       <c r="E2">
-        <v>1.075474859537755</v>
+        <v>1.037633769578969</v>
       </c>
       <c r="F2">
-        <v>1.07974450580319</v>
+        <v>1.044908839484882</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.06529114434164</v>
+        <v>1.050926080647667</v>
       </c>
       <c r="J2">
-        <v>1.079472202869922</v>
+        <v>1.041256421109668</v>
       </c>
       <c r="K2">
-        <v>1.079612585397052</v>
+        <v>1.047286019914342</v>
       </c>
       <c r="L2">
-        <v>1.085974087022349</v>
+        <v>1.0485925690881</v>
       </c>
       <c r="M2">
-        <v>1.090194378006734</v>
+        <v>1.055776064817205</v>
       </c>
       <c r="N2">
-        <v>1.08100517721519</v>
+        <v>1.016729022488523</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.068814342450513</v>
+        <v>1.025802213685135</v>
       </c>
       <c r="D3">
-        <v>1.077093558316819</v>
+        <v>1.040904137937095</v>
       </c>
       <c r="E3">
-        <v>1.084759442197341</v>
+        <v>1.043201789417846</v>
       </c>
       <c r="F3">
-        <v>1.08865478189314</v>
+        <v>1.050252482065265</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.068949357010821</v>
+        <v>1.052553619426522</v>
       </c>
       <c r="J3">
-        <v>1.087589971602173</v>
+        <v>1.045613371776999</v>
       </c>
       <c r="K3">
-        <v>1.086826626327223</v>
+        <v>1.05103908473016</v>
       </c>
       <c r="L3">
-        <v>1.094411589844385</v>
+        <v>1.053310197806421</v>
       </c>
       <c r="M3">
-        <v>1.098266343836096</v>
+        <v>1.060280347071908</v>
       </c>
       <c r="N3">
-        <v>1.089134474110162</v>
+        <v>1.0182555922138</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.074987086901147</v>
+        <v>1.029687105611044</v>
       </c>
       <c r="D4">
-        <v>1.082120610766176</v>
+        <v>1.043806275630319</v>
       </c>
       <c r="E4">
-        <v>1.090557575240352</v>
+        <v>1.046722072299585</v>
       </c>
       <c r="F4">
-        <v>1.0942185806322</v>
+        <v>1.053630482981204</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.071217010163908</v>
+        <v>1.053569883578356</v>
       </c>
       <c r="J4">
-        <v>1.092649390217369</v>
+        <v>1.048360735186264</v>
       </c>
       <c r="K4">
-        <v>1.091319518267426</v>
+        <v>1.053403253020596</v>
       </c>
       <c r="L4">
-        <v>1.099673386268197</v>
+        <v>1.056287500472961</v>
       </c>
       <c r="M4">
-        <v>1.103298817111037</v>
+        <v>1.063122014557403</v>
       </c>
       <c r="N4">
-        <v>1.094201077680114</v>
+        <v>1.019217189994372</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.07753116919232</v>
+        <v>1.031298081529383</v>
       </c>
       <c r="D5">
-        <v>1.084192538923715</v>
+        <v>1.045010204967572</v>
       </c>
       <c r="E5">
-        <v>1.092948342244622</v>
+        <v>1.048183108141831</v>
       </c>
       <c r="F5">
-        <v>1.096512559394436</v>
+        <v>1.055032350139426</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.07214795021684</v>
+        <v>1.053988586615087</v>
       </c>
       <c r="J5">
-        <v>1.094733161364634</v>
+        <v>1.049499244840795</v>
       </c>
       <c r="K5">
-        <v>1.093169145319359</v>
+        <v>1.05438236908725</v>
       </c>
       <c r="L5">
-        <v>1.101841245666287</v>
+        <v>1.057521896787655</v>
       </c>
       <c r="M5">
-        <v>1.105371852279479</v>
+        <v>1.064299927341309</v>
       </c>
       <c r="N5">
-        <v>1.096287808021421</v>
+        <v>1.019615421308312</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.077955447130853</v>
+        <v>1.031567297683746</v>
       </c>
       <c r="D6">
-        <v>1.084538074326381</v>
+        <v>1.045211423874382</v>
       </c>
       <c r="E6">
-        <v>1.093347112639965</v>
+        <v>1.048427339332101</v>
       </c>
       <c r="F6">
-        <v>1.096895175570123</v>
+        <v>1.055266683210618</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.072302985463302</v>
+        <v>1.054058396330125</v>
       </c>
       <c r="J6">
-        <v>1.095080585297583</v>
+        <v>1.049689459324549</v>
       </c>
       <c r="K6">
-        <v>1.093477482058159</v>
+        <v>1.054545917461318</v>
       </c>
       <c r="L6">
-        <v>1.102202732663013</v>
+        <v>1.057728166582649</v>
       </c>
       <c r="M6">
-        <v>1.105717506886915</v>
+        <v>1.064496743696252</v>
       </c>
       <c r="N6">
-        <v>1.096635725336204</v>
+        <v>1.019681939701633</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.07502127651384</v>
+        <v>1.029708717539198</v>
       </c>
       <c r="D7">
-        <v>1.082148455158528</v>
+        <v>1.043822425068368</v>
       </c>
       <c r="E7">
-        <v>1.090589700307512</v>
+        <v>1.046741667834162</v>
       </c>
       <c r="F7">
-        <v>1.094249405823631</v>
+        <v>1.053649285422031</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.071229535596145</v>
+        <v>1.053575511472385</v>
       </c>
       <c r="J7">
-        <v>1.092677399627568</v>
+        <v>1.048376011845638</v>
       </c>
       <c r="K7">
-        <v>1.091344383649689</v>
+        <v>1.05341639330638</v>
       </c>
       <c r="L7">
-        <v>1.099702523054663</v>
+        <v>1.056304061381635</v>
       </c>
       <c r="M7">
-        <v>1.103326680805866</v>
+        <v>1.06313781866983</v>
       </c>
       <c r="N7">
-        <v>1.094229126866889</v>
+        <v>1.01922253453758</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.062314589680632</v>
+        <v>1.02174861086458</v>
       </c>
       <c r="D8">
-        <v>1.071800698192199</v>
+        <v>1.037877869678493</v>
       </c>
       <c r="E8">
-        <v>1.078658203721866</v>
+        <v>1.039533160616174</v>
       </c>
       <c r="F8">
-        <v>1.082799621766979</v>
+        <v>1.046731769137156</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.06654895672442</v>
+        <v>1.051483928626352</v>
       </c>
       <c r="J8">
-        <v>1.082257626518958</v>
+        <v>1.042744207037203</v>
       </c>
       <c r="K8">
-        <v>1.082088592475516</v>
+        <v>1.048568087146302</v>
       </c>
       <c r="L8">
-        <v>1.088868556835982</v>
+        <v>1.050202988577647</v>
       </c>
       <c r="M8">
-        <v>1.092963731071268</v>
+        <v>1.057313857719743</v>
       </c>
       <c r="N8">
-        <v>1.0837945564853</v>
+        <v>1.017250511453655</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037978405907381</v>
+        <v>1.006923946099814</v>
       </c>
       <c r="D9">
-        <v>1.051995126333916</v>
+        <v>1.026829935655059</v>
       </c>
       <c r="E9">
-        <v>1.055852245185381</v>
+        <v>1.026155381682385</v>
       </c>
       <c r="F9">
-        <v>1.060910931749464</v>
+        <v>1.033891392023653</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05746601432474</v>
+        <v>1.047501857110119</v>
       </c>
       <c r="J9">
-        <v>1.06225781888086</v>
+        <v>1.032234549073013</v>
       </c>
       <c r="K9">
-        <v>1.06429740925501</v>
+        <v>1.039502212966736</v>
       </c>
       <c r="L9">
-        <v>1.068099789055266</v>
+        <v>1.038837894946613</v>
       </c>
       <c r="M9">
-        <v>1.073087445898922</v>
+        <v>1.046457535665444</v>
       </c>
       <c r="N9">
-        <v>1.063766346826345</v>
+        <v>1.013562948707825</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020124920538008</v>
+        <v>0.996424313764789</v>
       </c>
       <c r="D10">
-        <v>1.037485707432006</v>
+        <v>1.019027231022493</v>
       </c>
       <c r="E10">
-        <v>1.039161368350173</v>
+        <v>1.016717294851201</v>
       </c>
       <c r="F10">
-        <v>1.044891180358908</v>
+        <v>1.024831819360646</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050728459835704</v>
+        <v>1.044626278413814</v>
       </c>
       <c r="J10">
-        <v>1.047562212422635</v>
+        <v>1.02478052069738</v>
       </c>
       <c r="K10">
-        <v>1.05120959681926</v>
+        <v>1.033061235967449</v>
       </c>
       <c r="L10">
-        <v>1.052857806581292</v>
+        <v>1.030791133879108</v>
       </c>
       <c r="M10">
-        <v>1.058494604914795</v>
+        <v>1.038766749038487</v>
       </c>
       <c r="N10">
-        <v>1.049049870921341</v>
+        <v>1.010943325924069</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.011917482742562</v>
+        <v>0.9917114580625983</v>
       </c>
       <c r="D11">
-        <v>1.030823609515406</v>
+        <v>1.015531723952474</v>
       </c>
       <c r="E11">
-        <v>1.0315003316375</v>
+        <v>1.012490839831956</v>
       </c>
       <c r="F11">
-        <v>1.037538751813769</v>
+        <v>1.020775003770699</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047615474121904</v>
+        <v>1.043323320415723</v>
       </c>
       <c r="J11">
-        <v>1.040802749295431</v>
+        <v>1.021433162031059</v>
       </c>
       <c r="K11">
-        <v>1.045186742894083</v>
+        <v>1.0301665607043</v>
       </c>
       <c r="L11">
-        <v>1.045851682113543</v>
+        <v>1.027180979948968</v>
       </c>
       <c r="M11">
-        <v>1.051785842351727</v>
+        <v>1.035315487988926</v>
       </c>
       <c r="N11">
-        <v>1.042280808581175</v>
+        <v>1.009766156436151</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.008787763869299</v>
+        <v>0.989933964948456</v>
       </c>
       <c r="D12">
-        <v>1.028284706482886</v>
+        <v>1.01421453316941</v>
       </c>
       <c r="E12">
-        <v>1.028581011782429</v>
+        <v>1.010898397253838</v>
       </c>
       <c r="F12">
-        <v>1.034737178210897</v>
+        <v>1.019246525214738</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046426258677692</v>
+        <v>1.042830143490179</v>
       </c>
       <c r="J12">
-        <v>1.038224810624556</v>
+        <v>1.020170532698432</v>
       </c>
       <c r="K12">
-        <v>1.042889363475459</v>
+        <v>1.029074379706114</v>
       </c>
       <c r="L12">
-        <v>1.043180392136898</v>
+        <v>1.025819737909405</v>
       </c>
       <c r="M12">
-        <v>1.049227814624869</v>
+        <v>1.034014053642855</v>
       </c>
       <c r="N12">
-        <v>1.039699208941693</v>
+        <v>1.009322027683306</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.009462941903975</v>
+        <v>0.990316494829367</v>
       </c>
       <c r="D13">
-        <v>1.028832352016994</v>
+        <v>1.014497947266701</v>
       </c>
       <c r="E13">
-        <v>1.029210703737427</v>
+        <v>1.011241028724132</v>
       </c>
       <c r="F13">
-        <v>1.03534146472346</v>
+        <v>1.019575391536043</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046682902828576</v>
+        <v>1.042936356761976</v>
       </c>
       <c r="J13">
-        <v>1.038780965811231</v>
+        <v>1.020442265077801</v>
       </c>
       <c r="K13">
-        <v>1.043385007298721</v>
+        <v>1.029309442847621</v>
       </c>
       <c r="L13">
-        <v>1.043756653711137</v>
+        <v>1.026112669558248</v>
       </c>
       <c r="M13">
-        <v>1.049779647340883</v>
+        <v>1.034294119421016</v>
       </c>
       <c r="N13">
-        <v>1.040256153932525</v>
+        <v>1.009417613433035</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.011660495199703</v>
+        <v>0.9915650910690443</v>
       </c>
       <c r="D14">
-        <v>1.030615101912822</v>
+        <v>1.015423235762398</v>
       </c>
       <c r="E14">
-        <v>1.031260577521957</v>
+        <v>1.012359677593439</v>
       </c>
       <c r="F14">
-        <v>1.03730866441912</v>
+        <v>1.020649108834863</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047517867426856</v>
+        <v>1.043282745094593</v>
       </c>
       <c r="J14">
-        <v>1.040591075855043</v>
+        <v>1.021329193709511</v>
       </c>
       <c r="K14">
-        <v>1.044998113112428</v>
+        <v>1.030076633548821</v>
       </c>
       <c r="L14">
-        <v>1.045632328917794</v>
+        <v>1.027068881115046</v>
       </c>
       <c r="M14">
-        <v>1.051575791794116</v>
+        <v>1.03520831635321</v>
       </c>
       <c r="N14">
-        <v>1.042068834540222</v>
+        <v>1.00972958755485</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.013003417777385</v>
+        <v>0.9923307633253258</v>
       </c>
       <c r="D15">
-        <v>1.031704750423577</v>
+        <v>1.015990805617343</v>
       </c>
       <c r="E15">
-        <v>1.032513528816135</v>
+        <v>1.013045876842135</v>
       </c>
       <c r="F15">
-        <v>1.038511103971296</v>
+        <v>1.02130775331696</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048027838401072</v>
+        <v>1.043494931005942</v>
       </c>
       <c r="J15">
-        <v>1.041697189709217</v>
+        <v>1.021873065476439</v>
       </c>
       <c r="K15">
-        <v>1.045983796202157</v>
+        <v>1.030547041958231</v>
       </c>
       <c r="L15">
-        <v>1.046778603197137</v>
+        <v>1.027655305608238</v>
       </c>
       <c r="M15">
-        <v>1.052673448819943</v>
+        <v>1.035768960975434</v>
       </c>
       <c r="N15">
-        <v>1.043176519202942</v>
+        <v>1.009920880223802</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020658806840403</v>
+        <v>0.996733423935531</v>
       </c>
       <c r="D16">
-        <v>1.03791926216239</v>
+        <v>1.019256650276927</v>
       </c>
       <c r="E16">
-        <v>1.039659976899382</v>
+        <v>1.016994717642179</v>
       </c>
       <c r="F16">
-        <v>1.04536972018052</v>
+        <v>1.025098112144611</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050930651036324</v>
+        <v>1.044711490591757</v>
       </c>
       <c r="J16">
-        <v>1.048001847576409</v>
+        <v>1.025000044727146</v>
       </c>
       <c r="K16">
-        <v>1.051601268391718</v>
+        <v>1.033251028537108</v>
       </c>
       <c r="L16">
-        <v>1.053313581942114</v>
+        <v>1.031027963057782</v>
       </c>
       <c r="M16">
-        <v>1.058931017744845</v>
+        <v>1.038993139283702</v>
       </c>
       <c r="N16">
-        <v>1.049490130407459</v>
+        <v>1.011020511527139</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025327029596697</v>
+        <v>0.9994492365469831</v>
       </c>
       <c r="D17">
-        <v>1.041711132764396</v>
+        <v>1.021273094177073</v>
       </c>
       <c r="E17">
-        <v>1.044021096610604</v>
+        <v>1.019433264250144</v>
       </c>
       <c r="F17">
-        <v>1.049555376716584</v>
+        <v>1.027438844592692</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052696849962699</v>
+        <v>1.045458780084709</v>
       </c>
       <c r="J17">
-        <v>1.051845553363454</v>
+        <v>1.026928596247399</v>
       </c>
       <c r="K17">
-        <v>1.055025311692989</v>
+        <v>1.034918134101024</v>
       </c>
       <c r="L17">
-        <v>1.057298923181665</v>
+        <v>1.033108926725075</v>
       </c>
       <c r="M17">
-        <v>1.062746940724717</v>
+        <v>1.040982288196554</v>
       </c>
       <c r="N17">
-        <v>1.053339294697601</v>
+        <v>1.011698512110332</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02800465014696</v>
+        <v>1.001017404109504</v>
       </c>
       <c r="D18">
-        <v>1.043886815516242</v>
+        <v>1.022438064200564</v>
       </c>
       <c r="E18">
-        <v>1.046523660548919</v>
+        <v>1.020842261228515</v>
       </c>
       <c r="F18">
-        <v>1.051957301769495</v>
+        <v>1.028791335515448</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0537084428406</v>
+        <v>1.045889120534853</v>
       </c>
       <c r="J18">
-        <v>1.054049882465287</v>
+        <v>1.028042030167081</v>
       </c>
       <c r="K18">
-        <v>1.056988691862568</v>
+        <v>1.035880410136746</v>
       </c>
       <c r="L18">
-        <v>1.059584910070763</v>
+        <v>1.034310673371247</v>
       </c>
       <c r="M18">
-        <v>1.064935651665048</v>
+        <v>1.042130934139292</v>
       </c>
       <c r="N18">
-        <v>1.055546754199599</v>
+        <v>1.012089875129348</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028910230070712</v>
+        <v>1.001549463697615</v>
       </c>
       <c r="D19">
-        <v>1.044622752559767</v>
+        <v>1.022833427092948</v>
       </c>
       <c r="E19">
-        <v>1.047370214551925</v>
+        <v>1.021320470625804</v>
       </c>
       <c r="F19">
-        <v>1.052769818661778</v>
+        <v>1.029250368060317</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054050311763601</v>
+        <v>1.046034930502302</v>
       </c>
       <c r="J19">
-        <v>1.054795327386701</v>
+        <v>1.028419775972748</v>
       </c>
       <c r="K19">
-        <v>1.057652605606477</v>
+        <v>1.036206836562685</v>
       </c>
       <c r="L19">
-        <v>1.060358042020497</v>
+        <v>1.03471843423454</v>
       </c>
       <c r="M19">
-        <v>1.065675866806798</v>
+        <v>1.042520663808363</v>
       </c>
       <c r="N19">
-        <v>1.056293257738305</v>
+        <v>1.012222636409456</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024830919364168</v>
+        <v>0.9991595155137065</v>
       </c>
       <c r="D20">
-        <v>1.041308078362596</v>
+        <v>1.021057914618734</v>
       </c>
       <c r="E20">
-        <v>1.043557508028719</v>
+        <v>1.019173024579465</v>
       </c>
       <c r="F20">
-        <v>1.04911043452252</v>
+        <v>1.027189042227543</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052509300988569</v>
+        <v>1.045379179672186</v>
       </c>
       <c r="J20">
-        <v>1.051437104144237</v>
+        <v>1.026722874918834</v>
       </c>
       <c r="K20">
-        <v>1.054661486006745</v>
+        <v>1.034740323596098</v>
       </c>
       <c r="L20">
-        <v>1.056875378118333</v>
+        <v>1.032886914232316</v>
       </c>
       <c r="M20">
-        <v>1.062341410650798</v>
+        <v>1.040770079164597</v>
       </c>
       <c r="N20">
-        <v>1.052930265433644</v>
+        <v>1.011626196505678</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.011015694896096</v>
+        <v>0.991198170372724</v>
       </c>
       <c r="D21">
-        <v>1.030091967140188</v>
+        <v>1.015151291032551</v>
       </c>
       <c r="E21">
-        <v>1.030659050809608</v>
+        <v>1.012030899149704</v>
       </c>
       <c r="F21">
-        <v>1.036731393455725</v>
+        <v>1.020333534556674</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047272931436779</v>
+        <v>1.043181000722621</v>
       </c>
       <c r="J21">
-        <v>1.040059966643096</v>
+        <v>1.021068558277475</v>
       </c>
       <c r="K21">
-        <v>1.044524816986234</v>
+        <v>1.02985119275678</v>
       </c>
       <c r="L21">
-        <v>1.045081962104037</v>
+        <v>1.026787871812924</v>
       </c>
       <c r="M21">
-        <v>1.051048763992447</v>
+        <v>1.034939656933192</v>
       </c>
       <c r="N21">
-        <v>1.041536971092275</v>
+        <v>1.009637912477731</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.001854098991291</v>
+        <v>0.9860356566930877</v>
       </c>
       <c r="D22">
-        <v>1.022663211699597</v>
+        <v>1.011328062077474</v>
       </c>
       <c r="E22">
-        <v>1.022117565261119</v>
+        <v>1.007409010886894</v>
       </c>
       <c r="F22">
-        <v>1.028534778718063</v>
+        <v>1.015897416428244</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043787916781686</v>
+        <v>1.041745395365493</v>
       </c>
       <c r="J22">
-        <v>1.032513128799048</v>
+        <v>1.017401234514338</v>
       </c>
       <c r="K22">
-        <v>1.037798689781266</v>
+        <v>1.026678399251999</v>
       </c>
       <c r="L22">
-        <v>1.037263243620175</v>
+        <v>1.022835108944157</v>
       </c>
       <c r="M22">
-        <v>1.043561386391242</v>
+        <v>1.031160386595209</v>
       </c>
       <c r="N22">
-        <v>1.033979415872854</v>
+        <v>1.008347770367518</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.006759569513979</v>
+        <v>0.9887879693281895</v>
       </c>
       <c r="D23">
-        <v>1.026639865835838</v>
+        <v>1.013365655126267</v>
       </c>
       <c r="E23">
-        <v>1.026689775762593</v>
+        <v>1.009872174206961</v>
       </c>
       <c r="F23">
-        <v>1.032922272838899</v>
+        <v>1.018261539579203</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045655017520996</v>
+        <v>1.042511695625477</v>
       </c>
       <c r="J23">
-        <v>1.036554115829056</v>
+        <v>1.019356453818532</v>
       </c>
       <c r="K23">
-        <v>1.041400396942248</v>
+        <v>1.028370115625489</v>
       </c>
       <c r="L23">
-        <v>1.041449405189818</v>
+        <v>1.024942224325964</v>
       </c>
       <c r="M23">
-        <v>1.047570193952584</v>
+        <v>1.033175067557321</v>
       </c>
       <c r="N23">
-        <v>1.038026141567952</v>
+        <v>1.009035650907454</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025055229436224</v>
+        <v>0.9992904770331049</v>
       </c>
       <c r="D24">
-        <v>1.041490312167749</v>
+        <v>1.02115517948017</v>
       </c>
       <c r="E24">
-        <v>1.043767110457458</v>
+        <v>1.019290656874544</v>
       </c>
       <c r="F24">
-        <v>1.04931160620999</v>
+        <v>1.027301956668916</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052594103519138</v>
+        <v>1.045415164757104</v>
       </c>
       <c r="J24">
-        <v>1.051621780517086</v>
+        <v>1.026815866844335</v>
       </c>
       <c r="K24">
-        <v>1.054825987145081</v>
+        <v>1.034820699697909</v>
       </c>
       <c r="L24">
-        <v>1.057066878591041</v>
+        <v>1.032987269241135</v>
       </c>
       <c r="M24">
-        <v>1.062524766184117</v>
+        <v>1.040866003016118</v>
       </c>
       <c r="N24">
-        <v>1.053115204068124</v>
+        <v>1.011658885462637</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.04453048848164</v>
+        <v>1.010858839596938</v>
       </c>
       <c r="D25">
-        <v>1.057324906418809</v>
+        <v>1.029759083294938</v>
       </c>
       <c r="E25">
-        <v>1.061986295708839</v>
+        <v>1.029700291842976</v>
       </c>
       <c r="F25">
-        <v>1.066798470852203</v>
+        <v>1.037294093663442</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.059924458399902</v>
+        <v>1.048568551494905</v>
       </c>
       <c r="J25">
-        <v>1.067646849232457</v>
+        <v>1.035026206351599</v>
       </c>
       <c r="K25">
-        <v>1.069094038237169</v>
+        <v>1.041912347285139</v>
       </c>
       <c r="L25">
-        <v>1.073692946527992</v>
+        <v>1.041854402934838</v>
       </c>
       <c r="M25">
-        <v>1.078441337927683</v>
+        <v>1.049339793679395</v>
       </c>
       <c r="N25">
-        <v>1.069163030219172</v>
+        <v>1.014543253501859</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_3/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.019647904398337</v>
+        <v>1.059713262147824</v>
       </c>
       <c r="D2">
-        <v>1.036310389876727</v>
+        <v>1.061176994324406</v>
       </c>
       <c r="E2">
-        <v>1.037633769578969</v>
+        <v>1.072006602950772</v>
       </c>
       <c r="F2">
-        <v>1.044908839484882</v>
+        <v>1.076397512472445</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050926080647667</v>
+        <v>1.044010326904563</v>
       </c>
       <c r="J2">
-        <v>1.041256421109668</v>
+        <v>1.064697865535582</v>
       </c>
       <c r="K2">
-        <v>1.047286019914342</v>
+        <v>1.063901764446436</v>
       </c>
       <c r="L2">
-        <v>1.0485925690881</v>
+        <v>1.074702264085774</v>
       </c>
       <c r="M2">
-        <v>1.055776064817205</v>
+        <v>1.07908155160653</v>
       </c>
       <c r="N2">
-        <v>1.016729022488523</v>
+        <v>1.02518816096133</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.025802213685135</v>
+        <v>1.060997101664716</v>
       </c>
       <c r="D3">
-        <v>1.040904137937095</v>
+        <v>1.062148334255206</v>
       </c>
       <c r="E3">
-        <v>1.043201789417846</v>
+        <v>1.07321857082966</v>
       </c>
       <c r="F3">
-        <v>1.050252482065265</v>
+        <v>1.077553285550385</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052553619426522</v>
+        <v>1.044275865559087</v>
       </c>
       <c r="J3">
-        <v>1.045613371776999</v>
+        <v>1.065633470943978</v>
       </c>
       <c r="K3">
-        <v>1.05103908473016</v>
+        <v>1.06468727905079</v>
       </c>
       <c r="L3">
-        <v>1.053310197806421</v>
+        <v>1.075729918898881</v>
       </c>
       <c r="M3">
-        <v>1.060280347071908</v>
+        <v>1.080053993895812</v>
       </c>
       <c r="N3">
-        <v>1.0182555922138</v>
+        <v>1.025509223645544</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.029687105611044</v>
+        <v>1.061827690667976</v>
       </c>
       <c r="D4">
-        <v>1.043806275630319</v>
+        <v>1.062776532244934</v>
       </c>
       <c r="E4">
-        <v>1.046722072299585</v>
+        <v>1.074002938183728</v>
       </c>
       <c r="F4">
-        <v>1.053630482981204</v>
+        <v>1.078301153011383</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053569883578356</v>
+        <v>1.044446219915029</v>
       </c>
       <c r="J4">
-        <v>1.048360735186264</v>
+        <v>1.066238212468257</v>
       </c>
       <c r="K4">
-        <v>1.053403253020596</v>
+        <v>1.065194615896669</v>
       </c>
       <c r="L4">
-        <v>1.056287500472961</v>
+        <v>1.076394449570731</v>
       </c>
       <c r="M4">
-        <v>1.063122014557403</v>
+        <v>1.080682647852486</v>
       </c>
       <c r="N4">
-        <v>1.019217189994372</v>
+        <v>1.025716521119377</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.031298081529383</v>
+        <v>1.0621768389115</v>
       </c>
       <c r="D5">
-        <v>1.045010204967572</v>
+        <v>1.063040550099304</v>
       </c>
       <c r="E5">
-        <v>1.048183108141831</v>
+        <v>1.074332722065717</v>
       </c>
       <c r="F5">
-        <v>1.055032350139426</v>
+        <v>1.078615559052529</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053988586615087</v>
+        <v>1.044517486057025</v>
       </c>
       <c r="J5">
-        <v>1.049499244840795</v>
+        <v>1.066492289728136</v>
       </c>
       <c r="K5">
-        <v>1.05438236908725</v>
+        <v>1.065407675408987</v>
       </c>
       <c r="L5">
-        <v>1.057521896787655</v>
+        <v>1.076673716578266</v>
       </c>
       <c r="M5">
-        <v>1.064299927341309</v>
+        <v>1.08094679608874</v>
       </c>
       <c r="N5">
-        <v>1.019615421308312</v>
+        <v>1.025803561222187</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.031567297683746</v>
+        <v>1.062235460667494</v>
       </c>
       <c r="D6">
-        <v>1.045211423874382</v>
+        <v>1.063084875395952</v>
       </c>
       <c r="E6">
-        <v>1.048427339332101</v>
+        <v>1.074388096378839</v>
       </c>
       <c r="F6">
-        <v>1.055266683210618</v>
+        <v>1.078668349400075</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054058396330125</v>
+        <v>1.044529431393274</v>
       </c>
       <c r="J6">
-        <v>1.049689459324549</v>
+        <v>1.066534941305916</v>
       </c>
       <c r="K6">
-        <v>1.054545917461318</v>
+        <v>1.065443435879793</v>
       </c>
       <c r="L6">
-        <v>1.057728166582649</v>
+        <v>1.076720600816112</v>
       </c>
       <c r="M6">
-        <v>1.064496743696252</v>
+        <v>1.080991139690751</v>
       </c>
       <c r="N6">
-        <v>1.019681939701633</v>
+        <v>1.025818169329694</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.029708717539198</v>
+        <v>1.061832356124186</v>
       </c>
       <c r="D7">
-        <v>1.043822425068368</v>
+        <v>1.06278006036414</v>
       </c>
       <c r="E7">
-        <v>1.046741667834162</v>
+        <v>1.074007344629261</v>
       </c>
       <c r="F7">
-        <v>1.053649285422031</v>
+        <v>1.078305354108527</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053575511472385</v>
+        <v>1.044447173554787</v>
       </c>
       <c r="J7">
-        <v>1.048376011845638</v>
+        <v>1.066241608072585</v>
       </c>
       <c r="K7">
-        <v>1.05341639330638</v>
+        <v>1.06519746369074</v>
       </c>
       <c r="L7">
-        <v>1.056304061381635</v>
+        <v>1.076398181547935</v>
       </c>
       <c r="M7">
-        <v>1.06313781866983</v>
+        <v>1.080686177954378</v>
       </c>
       <c r="N7">
-        <v>1.01922253453758</v>
+        <v>1.025717684576462</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.02174861086458</v>
+        <v>1.060147172356862</v>
       </c>
       <c r="D8">
-        <v>1.037877869678493</v>
+        <v>1.061505330846725</v>
       </c>
       <c r="E8">
-        <v>1.039533160616174</v>
+        <v>1.072416164498649</v>
       </c>
       <c r="F8">
-        <v>1.046731769137156</v>
+        <v>1.076788111183606</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051483928626352</v>
+        <v>1.04410037088164</v>
       </c>
       <c r="J8">
-        <v>1.042744207037203</v>
+        <v>1.065014194788114</v>
       </c>
       <c r="K8">
-        <v>1.048568087146302</v>
+        <v>1.064167428777691</v>
       </c>
       <c r="L8">
-        <v>1.050202988577647</v>
+        <v>1.075049654881675</v>
       </c>
       <c r="M8">
-        <v>1.057313857719743</v>
+        <v>1.079410314138297</v>
       </c>
       <c r="N8">
-        <v>1.017250511453655</v>
+        <v>1.025296759305034</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.006923946099814</v>
+        <v>1.057176476294237</v>
       </c>
       <c r="D9">
-        <v>1.026829935655059</v>
+        <v>1.059256570319524</v>
       </c>
       <c r="E9">
-        <v>1.026155381682385</v>
+        <v>1.069613326174818</v>
       </c>
       <c r="F9">
-        <v>1.033891392023653</v>
+        <v>1.074114511977683</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047501857110119</v>
+        <v>1.043478009490856</v>
       </c>
       <c r="J9">
-        <v>1.032234549073013</v>
+        <v>1.06284623582936</v>
       </c>
       <c r="K9">
-        <v>1.039502212966736</v>
+        <v>1.062345102983589</v>
       </c>
       <c r="L9">
-        <v>1.038837894946613</v>
+        <v>1.072670015643965</v>
       </c>
       <c r="M9">
-        <v>1.046457535665444</v>
+        <v>1.077157570685407</v>
       </c>
       <c r="N9">
-        <v>1.013562948707825</v>
+        <v>1.024551561073593</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.996424313764789</v>
+        <v>1.055195062554057</v>
       </c>
       <c r="D10">
-        <v>1.019027231022493</v>
+        <v>1.057755635848056</v>
       </c>
       <c r="E10">
-        <v>1.016717294851201</v>
+        <v>1.067745353367342</v>
       </c>
       <c r="F10">
-        <v>1.024831819360646</v>
+        <v>1.072332008028302</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044626278413814</v>
+        <v>1.043055513930957</v>
       </c>
       <c r="J10">
-        <v>1.02478052069738</v>
+        <v>1.061397411436417</v>
       </c>
       <c r="K10">
-        <v>1.033061235967449</v>
+        <v>1.061125263407886</v>
       </c>
       <c r="L10">
-        <v>1.030791133879108</v>
+        <v>1.071081236232868</v>
       </c>
       <c r="M10">
-        <v>1.038766749038487</v>
+        <v>1.075652628576138</v>
       </c>
       <c r="N10">
-        <v>1.010943325924069</v>
+        <v>1.024052403347545</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9917114580625983</v>
+        <v>1.054336828865312</v>
       </c>
       <c r="D11">
-        <v>1.015531723952474</v>
+        <v>1.057105282017761</v>
       </c>
       <c r="E11">
-        <v>1.012490839831956</v>
+        <v>1.066936615876632</v>
       </c>
       <c r="F11">
-        <v>1.020775003770699</v>
+        <v>1.071560118751765</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043323320415723</v>
+        <v>1.042870763279022</v>
       </c>
       <c r="J11">
-        <v>1.021433162031059</v>
+        <v>1.060769199341388</v>
       </c>
       <c r="K11">
-        <v>1.0301665607043</v>
+        <v>1.060595868591142</v>
       </c>
       <c r="L11">
-        <v>1.027180979948968</v>
+        <v>1.070392697783132</v>
       </c>
       <c r="M11">
-        <v>1.035315487988926</v>
+        <v>1.075000214629203</v>
       </c>
       <c r="N11">
-        <v>1.009766156436151</v>
+        <v>1.023835697570722</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.989933964948456</v>
+        <v>1.054017999271312</v>
       </c>
       <c r="D12">
-        <v>1.01421453316941</v>
+        <v>1.05686364425463</v>
       </c>
       <c r="E12">
-        <v>1.010898397253838</v>
+        <v>1.066636228712215</v>
       </c>
       <c r="F12">
-        <v>1.019246525214738</v>
+        <v>1.071273394820238</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042830143490179</v>
+        <v>1.042801866587724</v>
       </c>
       <c r="J12">
-        <v>1.020170532698432</v>
+        <v>1.060535722087765</v>
       </c>
       <c r="K12">
-        <v>1.029074379706114</v>
+        <v>1.060399046645561</v>
       </c>
       <c r="L12">
-        <v>1.025819737909405</v>
+        <v>1.070136853905021</v>
       </c>
       <c r="M12">
-        <v>1.034014053642855</v>
+        <v>1.074757762509563</v>
       </c>
       <c r="N12">
-        <v>1.009322027683306</v>
+        <v>1.02375511766887</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.990316494829367</v>
+        <v>1.05408639131411</v>
       </c>
       <c r="D13">
-        <v>1.014497947266701</v>
+        <v>1.05691547944724</v>
       </c>
       <c r="E13">
-        <v>1.011241028724132</v>
+        <v>1.066700662181847</v>
       </c>
       <c r="F13">
-        <v>1.019575391536043</v>
+        <v>1.071334898554444</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042936356761976</v>
+        <v>1.042816657482598</v>
       </c>
       <c r="J13">
-        <v>1.020442265077801</v>
+        <v>1.060585809723374</v>
       </c>
       <c r="K13">
-        <v>1.029309442847621</v>
+        <v>1.060441273840804</v>
       </c>
       <c r="L13">
-        <v>1.026112669558248</v>
+        <v>1.070191737390932</v>
       </c>
       <c r="M13">
-        <v>1.034294119421016</v>
+        <v>1.074809774613474</v>
       </c>
       <c r="N13">
-        <v>1.009417613433035</v>
+        <v>1.023772406218989</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9915650910690443</v>
+        <v>1.054310475214434</v>
       </c>
       <c r="D14">
-        <v>1.015423235762398</v>
+        <v>1.057085309547776</v>
       </c>
       <c r="E14">
-        <v>1.012359677593439</v>
+        <v>1.066911785507747</v>
       </c>
       <c r="F14">
-        <v>1.020649108834863</v>
+        <v>1.071536418274694</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043282745094593</v>
+        <v>1.042865073810416</v>
       </c>
       <c r="J14">
-        <v>1.021329193709511</v>
+        <v>1.060749902728292</v>
       </c>
       <c r="K14">
-        <v>1.030076633548821</v>
+        <v>1.060579602931137</v>
       </c>
       <c r="L14">
-        <v>1.027068881115046</v>
+        <v>1.070371551496337</v>
       </c>
       <c r="M14">
-        <v>1.03520831635321</v>
+        <v>1.074980175848622</v>
       </c>
       <c r="N14">
-        <v>1.00972958755485</v>
+        <v>1.023829038562696</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9923307633253258</v>
+        <v>1.054448534860132</v>
       </c>
       <c r="D15">
-        <v>1.015990805617343</v>
+        <v>1.057189938505707</v>
       </c>
       <c r="E15">
-        <v>1.013045876842135</v>
+        <v>1.067041867341101</v>
       </c>
       <c r="F15">
-        <v>1.02130775331696</v>
+        <v>1.071660579859078</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043494931005942</v>
+        <v>1.042894868639149</v>
       </c>
       <c r="J15">
-        <v>1.021873065476439</v>
+        <v>1.060850988388472</v>
       </c>
       <c r="K15">
-        <v>1.030547041958231</v>
+        <v>1.060664808003863</v>
       </c>
       <c r="L15">
-        <v>1.027655305608238</v>
+        <v>1.070482328912228</v>
       </c>
       <c r="M15">
-        <v>1.035768960975434</v>
+        <v>1.075085150180016</v>
       </c>
       <c r="N15">
-        <v>1.009920880223802</v>
+        <v>1.023863920243607</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.996733423935531</v>
+        <v>1.055252014780586</v>
       </c>
       <c r="D16">
-        <v>1.019256650276927</v>
+        <v>1.057798788315548</v>
       </c>
       <c r="E16">
-        <v>1.016994717642179</v>
+        <v>1.067799028684591</v>
       </c>
       <c r="F16">
-        <v>1.025098112144611</v>
+        <v>1.072383234494288</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044711490591757</v>
+        <v>1.043067737099015</v>
       </c>
       <c r="J16">
-        <v>1.025000044727146</v>
+        <v>1.06143908549248</v>
       </c>
       <c r="K16">
-        <v>1.033251028537108</v>
+        <v>1.061160372274141</v>
       </c>
       <c r="L16">
-        <v>1.031027963057782</v>
+        <v>1.071126919741191</v>
       </c>
       <c r="M16">
-        <v>1.038993139283702</v>
+        <v>1.07569591089473</v>
       </c>
       <c r="N16">
-        <v>1.011020511527139</v>
+        <v>1.024066773402454</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9994492365469831</v>
+        <v>1.055755942476019</v>
       </c>
       <c r="D17">
-        <v>1.021273094177073</v>
+        <v>1.05818058512042</v>
       </c>
       <c r="E17">
-        <v>1.019433264250144</v>
+        <v>1.068274003148411</v>
       </c>
       <c r="F17">
-        <v>1.027438844592692</v>
+        <v>1.072836521059848</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045458780084709</v>
+        <v>1.043175688667759</v>
       </c>
       <c r="J17">
-        <v>1.026928596247399</v>
+        <v>1.061807751283123</v>
       </c>
       <c r="K17">
-        <v>1.034918134101024</v>
+        <v>1.061470905382678</v>
       </c>
       <c r="L17">
-        <v>1.033108926725075</v>
+        <v>1.071531096160737</v>
       </c>
       <c r="M17">
-        <v>1.040982288196554</v>
+        <v>1.076078819164064</v>
       </c>
       <c r="N17">
-        <v>1.011698512110332</v>
+        <v>1.024193865615323</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.001017404109504</v>
+        <v>1.056049849279983</v>
       </c>
       <c r="D18">
-        <v>1.022438064200564</v>
+        <v>1.058403238446843</v>
       </c>
       <c r="E18">
-        <v>1.020842261228515</v>
+        <v>1.068551058193012</v>
       </c>
       <c r="F18">
-        <v>1.028791335515448</v>
+        <v>1.073100910429932</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045889120534853</v>
+        <v>1.043238480652122</v>
       </c>
       <c r="J18">
-        <v>1.028042030167081</v>
+        <v>1.062022704799825</v>
       </c>
       <c r="K18">
-        <v>1.035880410136746</v>
+        <v>1.061651918769273</v>
       </c>
       <c r="L18">
-        <v>1.034310673371247</v>
+        <v>1.071766788972989</v>
       </c>
       <c r="M18">
-        <v>1.042130934139292</v>
+        <v>1.076302089475089</v>
       </c>
       <c r="N18">
-        <v>1.012089875129348</v>
+        <v>1.024267941662783</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.001549463697615</v>
+        <v>1.056150059638445</v>
       </c>
       <c r="D19">
-        <v>1.022833427092948</v>
+        <v>1.0584791503457</v>
       </c>
       <c r="E19">
-        <v>1.021320470625804</v>
+        <v>1.068645528644372</v>
       </c>
       <c r="F19">
-        <v>1.029250368060317</v>
+        <v>1.073191059578333</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046034930502302</v>
+        <v>1.043259861541514</v>
       </c>
       <c r="J19">
-        <v>1.028419775972748</v>
+        <v>1.062095984371641</v>
       </c>
       <c r="K19">
-        <v>1.036206836562685</v>
+        <v>1.061713620138183</v>
       </c>
       <c r="L19">
-        <v>1.03471843423454</v>
+        <v>1.071847144613152</v>
       </c>
       <c r="M19">
-        <v>1.042520663808363</v>
+        <v>1.076378206448772</v>
       </c>
       <c r="N19">
-        <v>1.012222636409456</v>
+        <v>1.024293190419624</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9991595155137065</v>
+        <v>1.055701878484563</v>
       </c>
       <c r="D20">
-        <v>1.021057914618734</v>
+        <v>1.05813962632184</v>
       </c>
       <c r="E20">
-        <v>1.019173024579465</v>
+        <v>1.068223041816579</v>
       </c>
       <c r="F20">
-        <v>1.027189042227543</v>
+        <v>1.072787888234568</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045379179672186</v>
+        <v>1.043164124523163</v>
       </c>
       <c r="J20">
-        <v>1.026722874918834</v>
+        <v>1.061768205532534</v>
       </c>
       <c r="K20">
-        <v>1.034740323596098</v>
+        <v>1.061437600058359</v>
       </c>
       <c r="L20">
-        <v>1.032886914232316</v>
+        <v>1.071487737710397</v>
       </c>
       <c r="M20">
-        <v>1.040770079164597</v>
+        <v>1.076037744357331</v>
       </c>
       <c r="N20">
-        <v>1.011626196505678</v>
+        <v>1.024180235484575</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.991198170372724</v>
+        <v>1.054244489313258</v>
       </c>
       <c r="D21">
-        <v>1.015151291032551</v>
+        <v>1.057035300687692</v>
       </c>
       <c r="E21">
-        <v>1.012030899149704</v>
+        <v>1.066849614582518</v>
       </c>
       <c r="F21">
-        <v>1.020333534556674</v>
+        <v>1.071477076027839</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043181000722621</v>
+        <v>1.042850823923585</v>
       </c>
       <c r="J21">
-        <v>1.021068558277475</v>
+        <v>1.060701585068102</v>
       </c>
       <c r="K21">
-        <v>1.02985119275678</v>
+        <v>1.060538873473553</v>
       </c>
       <c r="L21">
-        <v>1.026787871812924</v>
+        <v>1.070318603225128</v>
       </c>
       <c r="M21">
-        <v>1.034939656933192</v>
+        <v>1.07493000016281</v>
       </c>
       <c r="N21">
-        <v>1.009637912477731</v>
+        <v>1.02381236411964</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9860356566930877</v>
+        <v>1.053327918343619</v>
       </c>
       <c r="D22">
-        <v>1.011328062077474</v>
+        <v>1.056340576717391</v>
       </c>
       <c r="E22">
-        <v>1.007409010886894</v>
+        <v>1.065986166009173</v>
       </c>
       <c r="F22">
-        <v>1.015897416428244</v>
+        <v>1.0706528582362</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041745395365493</v>
+        <v>1.042652264997456</v>
       </c>
       <c r="J22">
-        <v>1.017401234514338</v>
+        <v>1.060030197797019</v>
       </c>
       <c r="K22">
-        <v>1.026678399251999</v>
+        <v>1.059972759676266</v>
       </c>
       <c r="L22">
-        <v>1.022835108944157</v>
+        <v>1.069583000064123</v>
       </c>
       <c r="M22">
-        <v>1.031160386595209</v>
+        <v>1.074232842344747</v>
       </c>
       <c r="N22">
-        <v>1.008347770367518</v>
+        <v>1.023580572542182</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9887879693281895</v>
+        <v>1.053813834918355</v>
       </c>
       <c r="D23">
-        <v>1.013365655126267</v>
+        <v>1.056708900531782</v>
       </c>
       <c r="E23">
-        <v>1.009872174206961</v>
+        <v>1.066443889601387</v>
       </c>
       <c r="F23">
-        <v>1.018261539579203</v>
+        <v>1.071089797821514</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042511695625477</v>
+        <v>1.042757674260195</v>
       </c>
       <c r="J23">
-        <v>1.019356453818532</v>
+        <v>1.060386185619289</v>
       </c>
       <c r="K23">
-        <v>1.028370115625489</v>
+        <v>1.060272967193823</v>
       </c>
       <c r="L23">
-        <v>1.024942224325964</v>
+        <v>1.069973007334568</v>
       </c>
       <c r="M23">
-        <v>1.033175067557321</v>
+        <v>1.074602483465888</v>
       </c>
       <c r="N23">
-        <v>1.009035650907454</v>
+        <v>1.023703496854225</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9992904770331049</v>
+        <v>1.055726307754505</v>
       </c>
       <c r="D24">
-        <v>1.02115517948017</v>
+        <v>1.058158133970626</v>
       </c>
       <c r="E24">
-        <v>1.019290656874544</v>
+        <v>1.068246069016514</v>
       </c>
       <c r="F24">
-        <v>1.027301956668916</v>
+        <v>1.072809863330503</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045415164757104</v>
+        <v>1.043169350401046</v>
       </c>
       <c r="J24">
-        <v>1.026815866844335</v>
+        <v>1.061786074811488</v>
       </c>
       <c r="K24">
-        <v>1.034820699697909</v>
+        <v>1.061452649657182</v>
       </c>
       <c r="L24">
-        <v>1.032987269241135</v>
+        <v>1.07150732970224</v>
       </c>
       <c r="M24">
-        <v>1.040866003016118</v>
+        <v>1.076056304521926</v>
       </c>
       <c r="N24">
-        <v>1.011658885462637</v>
+        <v>1.024186394522972</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.010858839596938</v>
+        <v>1.057944628691615</v>
       </c>
       <c r="D25">
-        <v>1.029759083294938</v>
+        <v>1.059838234482058</v>
       </c>
       <c r="E25">
-        <v>1.029700291842976</v>
+        <v>1.070337816220624</v>
       </c>
       <c r="F25">
-        <v>1.037294093663442</v>
+        <v>1.074805713342662</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048568551494905</v>
+        <v>1.043640240524276</v>
       </c>
       <c r="J25">
-        <v>1.035026206351599</v>
+        <v>1.063407318752291</v>
       </c>
       <c r="K25">
-        <v>1.041912347285139</v>
+        <v>1.062817086506378</v>
       </c>
       <c r="L25">
-        <v>1.041854402934838</v>
+        <v>1.073285617426783</v>
       </c>
       <c r="M25">
-        <v>1.049339793679395</v>
+        <v>1.077740501551991</v>
       </c>
       <c r="N25">
-        <v>1.014543253501859</v>
+        <v>1.024744626748762</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_3/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.059713262147824</v>
+        <v>1.019647904398337</v>
       </c>
       <c r="D2">
-        <v>1.061176994324406</v>
+        <v>1.036310389876727</v>
       </c>
       <c r="E2">
-        <v>1.072006602950772</v>
+        <v>1.037633769578969</v>
       </c>
       <c r="F2">
-        <v>1.076397512472445</v>
+        <v>1.044908839484882</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044010326904563</v>
+        <v>1.050926080647667</v>
       </c>
       <c r="J2">
-        <v>1.064697865535582</v>
+        <v>1.041256421109667</v>
       </c>
       <c r="K2">
-        <v>1.063901764446436</v>
+        <v>1.047286019914342</v>
       </c>
       <c r="L2">
-        <v>1.074702264085774</v>
+        <v>1.0485925690881</v>
       </c>
       <c r="M2">
-        <v>1.07908155160653</v>
+        <v>1.055776064817205</v>
       </c>
       <c r="N2">
-        <v>1.02518816096133</v>
+        <v>1.016729022488523</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.060997101664716</v>
+        <v>1.025802213685135</v>
       </c>
       <c r="D3">
-        <v>1.062148334255206</v>
+        <v>1.040904137937095</v>
       </c>
       <c r="E3">
-        <v>1.07321857082966</v>
+        <v>1.043201789417847</v>
       </c>
       <c r="F3">
-        <v>1.077553285550385</v>
+        <v>1.050252482065265</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044275865559087</v>
+        <v>1.052553619426523</v>
       </c>
       <c r="J3">
-        <v>1.065633470943978</v>
+        <v>1.045613371777</v>
       </c>
       <c r="K3">
-        <v>1.06468727905079</v>
+        <v>1.05103908473016</v>
       </c>
       <c r="L3">
-        <v>1.075729918898881</v>
+        <v>1.053310197806421</v>
       </c>
       <c r="M3">
-        <v>1.080053993895812</v>
+        <v>1.060280347071908</v>
       </c>
       <c r="N3">
-        <v>1.025509223645544</v>
+        <v>1.0182555922138</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.061827690667976</v>
+        <v>1.029687105611044</v>
       </c>
       <c r="D4">
-        <v>1.062776532244934</v>
+        <v>1.043806275630319</v>
       </c>
       <c r="E4">
-        <v>1.074002938183728</v>
+        <v>1.046722072299585</v>
       </c>
       <c r="F4">
-        <v>1.078301153011383</v>
+        <v>1.053630482981205</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044446219915029</v>
+        <v>1.053569883578356</v>
       </c>
       <c r="J4">
-        <v>1.066238212468257</v>
+        <v>1.048360735186264</v>
       </c>
       <c r="K4">
-        <v>1.065194615896669</v>
+        <v>1.053403253020596</v>
       </c>
       <c r="L4">
-        <v>1.076394449570731</v>
+        <v>1.056287500472961</v>
       </c>
       <c r="M4">
-        <v>1.080682647852486</v>
+        <v>1.063122014557404</v>
       </c>
       <c r="N4">
-        <v>1.025716521119377</v>
+        <v>1.019217189994372</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0621768389115</v>
+        <v>1.031298081529383</v>
       </c>
       <c r="D5">
-        <v>1.063040550099304</v>
+        <v>1.045010204967572</v>
       </c>
       <c r="E5">
-        <v>1.074332722065717</v>
+        <v>1.048183108141831</v>
       </c>
       <c r="F5">
-        <v>1.078615559052529</v>
+        <v>1.055032350139426</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044517486057025</v>
+        <v>1.053988586615086</v>
       </c>
       <c r="J5">
-        <v>1.066492289728136</v>
+        <v>1.049499244840794</v>
       </c>
       <c r="K5">
-        <v>1.065407675408987</v>
+        <v>1.05438236908725</v>
       </c>
       <c r="L5">
-        <v>1.076673716578266</v>
+        <v>1.057521896787654</v>
       </c>
       <c r="M5">
-        <v>1.08094679608874</v>
+        <v>1.064299927341309</v>
       </c>
       <c r="N5">
-        <v>1.025803561222187</v>
+        <v>1.019615421308312</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.062235460667494</v>
+        <v>1.031567297683745</v>
       </c>
       <c r="D6">
-        <v>1.063084875395952</v>
+        <v>1.045211423874382</v>
       </c>
       <c r="E6">
-        <v>1.074388096378839</v>
+        <v>1.048427339332101</v>
       </c>
       <c r="F6">
-        <v>1.078668349400075</v>
+        <v>1.055266683210617</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044529431393274</v>
+        <v>1.054058396330125</v>
       </c>
       <c r="J6">
-        <v>1.066534941305916</v>
+        <v>1.049689459324549</v>
       </c>
       <c r="K6">
-        <v>1.065443435879793</v>
+        <v>1.054545917461318</v>
       </c>
       <c r="L6">
-        <v>1.076720600816112</v>
+        <v>1.057728166582649</v>
       </c>
       <c r="M6">
-        <v>1.080991139690751</v>
+        <v>1.064496743696252</v>
       </c>
       <c r="N6">
-        <v>1.025818169329694</v>
+        <v>1.019681939701633</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.061832356124186</v>
+        <v>1.029708717539199</v>
       </c>
       <c r="D7">
-        <v>1.06278006036414</v>
+        <v>1.043822425068369</v>
       </c>
       <c r="E7">
-        <v>1.074007344629261</v>
+        <v>1.046741667834163</v>
       </c>
       <c r="F7">
-        <v>1.078305354108527</v>
+        <v>1.053649285422033</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044447173554787</v>
+        <v>1.053575511472385</v>
       </c>
       <c r="J7">
-        <v>1.066241608072585</v>
+        <v>1.04837601184564</v>
       </c>
       <c r="K7">
-        <v>1.06519746369074</v>
+        <v>1.053416393306381</v>
       </c>
       <c r="L7">
-        <v>1.076398181547935</v>
+        <v>1.056304061381637</v>
       </c>
       <c r="M7">
-        <v>1.080686177954378</v>
+        <v>1.063137818669832</v>
       </c>
       <c r="N7">
-        <v>1.025717684576462</v>
+        <v>1.019222534537581</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.060147172356862</v>
+        <v>1.021748610864579</v>
       </c>
       <c r="D8">
-        <v>1.061505330846725</v>
+        <v>1.037877869678493</v>
       </c>
       <c r="E8">
-        <v>1.072416164498649</v>
+        <v>1.039533160616173</v>
       </c>
       <c r="F8">
-        <v>1.076788111183606</v>
+        <v>1.046731769137156</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04410037088164</v>
+        <v>1.051483928626351</v>
       </c>
       <c r="J8">
-        <v>1.065014194788114</v>
+        <v>1.042744207037203</v>
       </c>
       <c r="K8">
-        <v>1.064167428777691</v>
+        <v>1.048568087146301</v>
       </c>
       <c r="L8">
-        <v>1.075049654881675</v>
+        <v>1.050202988577647</v>
       </c>
       <c r="M8">
-        <v>1.079410314138297</v>
+        <v>1.057313857719742</v>
       </c>
       <c r="N8">
-        <v>1.025296759305034</v>
+        <v>1.017250511453655</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.057176476294237</v>
+        <v>1.006923946099814</v>
       </c>
       <c r="D9">
-        <v>1.059256570319524</v>
+        <v>1.026829935655059</v>
       </c>
       <c r="E9">
-        <v>1.069613326174818</v>
+        <v>1.026155381682385</v>
       </c>
       <c r="F9">
-        <v>1.074114511977683</v>
+        <v>1.033891392023653</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043478009490856</v>
+        <v>1.047501857110119</v>
       </c>
       <c r="J9">
-        <v>1.06284623582936</v>
+        <v>1.032234549073014</v>
       </c>
       <c r="K9">
-        <v>1.062345102983589</v>
+        <v>1.039502212966736</v>
       </c>
       <c r="L9">
-        <v>1.072670015643965</v>
+        <v>1.038837894946613</v>
       </c>
       <c r="M9">
-        <v>1.077157570685407</v>
+        <v>1.046457535665445</v>
       </c>
       <c r="N9">
-        <v>1.024551561073593</v>
+        <v>1.013562948707825</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.055195062554057</v>
+        <v>0.9964243137647889</v>
       </c>
       <c r="D10">
-        <v>1.057755635848056</v>
+        <v>1.019027231022493</v>
       </c>
       <c r="E10">
-        <v>1.067745353367342</v>
+        <v>1.016717294851201</v>
       </c>
       <c r="F10">
-        <v>1.072332008028302</v>
+        <v>1.024831819360646</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043055513930957</v>
+        <v>1.044626278413814</v>
       </c>
       <c r="J10">
-        <v>1.061397411436417</v>
+        <v>1.024780520697379</v>
       </c>
       <c r="K10">
-        <v>1.061125263407886</v>
+        <v>1.033061235967449</v>
       </c>
       <c r="L10">
-        <v>1.071081236232868</v>
+        <v>1.030791133879108</v>
       </c>
       <c r="M10">
-        <v>1.075652628576138</v>
+        <v>1.038766749038487</v>
       </c>
       <c r="N10">
-        <v>1.024052403347545</v>
+        <v>1.010943325924069</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.054336828865312</v>
+        <v>0.991711458062598</v>
       </c>
       <c r="D11">
-        <v>1.057105282017761</v>
+        <v>1.015531723952474</v>
       </c>
       <c r="E11">
-        <v>1.066936615876632</v>
+        <v>1.012490839831956</v>
       </c>
       <c r="F11">
-        <v>1.071560118751765</v>
+        <v>1.020775003770699</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042870763279022</v>
+        <v>1.043323320415722</v>
       </c>
       <c r="J11">
-        <v>1.060769199341388</v>
+        <v>1.021433162031058</v>
       </c>
       <c r="K11">
-        <v>1.060595868591142</v>
+        <v>1.0301665607043</v>
       </c>
       <c r="L11">
-        <v>1.070392697783132</v>
+        <v>1.027180979948968</v>
       </c>
       <c r="M11">
-        <v>1.075000214629203</v>
+        <v>1.035315487988926</v>
       </c>
       <c r="N11">
-        <v>1.023835697570722</v>
+        <v>1.009766156436151</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.054017999271312</v>
+        <v>0.9899339649484553</v>
       </c>
       <c r="D12">
-        <v>1.05686364425463</v>
+        <v>1.014214533169409</v>
       </c>
       <c r="E12">
-        <v>1.066636228712215</v>
+        <v>1.010898397253837</v>
       </c>
       <c r="F12">
-        <v>1.071273394820238</v>
+        <v>1.019246525214737</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042801866587724</v>
+        <v>1.042830143490178</v>
       </c>
       <c r="J12">
-        <v>1.060535722087765</v>
+        <v>1.020170532698431</v>
       </c>
       <c r="K12">
-        <v>1.060399046645561</v>
+        <v>1.029074379706113</v>
       </c>
       <c r="L12">
-        <v>1.070136853905021</v>
+        <v>1.025819737909404</v>
       </c>
       <c r="M12">
-        <v>1.074757762509563</v>
+        <v>1.034014053642854</v>
       </c>
       <c r="N12">
-        <v>1.02375511766887</v>
+        <v>1.009322027683306</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.05408639131411</v>
+        <v>0.990316494829367</v>
       </c>
       <c r="D13">
-        <v>1.05691547944724</v>
+        <v>1.0144979472667</v>
       </c>
       <c r="E13">
-        <v>1.066700662181847</v>
+        <v>1.011241028724132</v>
       </c>
       <c r="F13">
-        <v>1.071334898554444</v>
+        <v>1.019575391536043</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042816657482598</v>
+        <v>1.042936356761976</v>
       </c>
       <c r="J13">
-        <v>1.060585809723374</v>
+        <v>1.020442265077801</v>
       </c>
       <c r="K13">
-        <v>1.060441273840804</v>
+        <v>1.029309442847621</v>
       </c>
       <c r="L13">
-        <v>1.070191737390932</v>
+        <v>1.026112669558248</v>
       </c>
       <c r="M13">
-        <v>1.074809774613474</v>
+        <v>1.034294119421016</v>
       </c>
       <c r="N13">
-        <v>1.023772406218989</v>
+        <v>1.009417613433035</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.054310475214434</v>
+        <v>0.9915650910690456</v>
       </c>
       <c r="D14">
-        <v>1.057085309547776</v>
+        <v>1.015423235762399</v>
       </c>
       <c r="E14">
-        <v>1.066911785507747</v>
+        <v>1.01235967759344</v>
       </c>
       <c r="F14">
-        <v>1.071536418274694</v>
+        <v>1.020649108834865</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042865073810416</v>
+        <v>1.043282745094594</v>
       </c>
       <c r="J14">
-        <v>1.060749902728292</v>
+        <v>1.021329193709513</v>
       </c>
       <c r="K14">
-        <v>1.060579602931137</v>
+        <v>1.030076633548823</v>
       </c>
       <c r="L14">
-        <v>1.070371551496337</v>
+        <v>1.027068881115048</v>
       </c>
       <c r="M14">
-        <v>1.074980175848622</v>
+        <v>1.035208316353212</v>
       </c>
       <c r="N14">
-        <v>1.023829038562696</v>
+        <v>1.00972958755485</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.054448534860132</v>
+        <v>0.9923307633253274</v>
       </c>
       <c r="D15">
-        <v>1.057189938505707</v>
+        <v>1.015990805617344</v>
       </c>
       <c r="E15">
-        <v>1.067041867341101</v>
+        <v>1.013045876842137</v>
       </c>
       <c r="F15">
-        <v>1.071660579859078</v>
+        <v>1.021307753316961</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042894868639149</v>
+        <v>1.043494931005942</v>
       </c>
       <c r="J15">
-        <v>1.060850988388472</v>
+        <v>1.021873065476441</v>
       </c>
       <c r="K15">
-        <v>1.060664808003863</v>
+        <v>1.030547041958232</v>
       </c>
       <c r="L15">
-        <v>1.070482328912228</v>
+        <v>1.02765530560824</v>
       </c>
       <c r="M15">
-        <v>1.075085150180016</v>
+        <v>1.035768960975436</v>
       </c>
       <c r="N15">
-        <v>1.023863920243607</v>
+        <v>1.009920880223803</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.055252014780586</v>
+        <v>0.9967334239355301</v>
       </c>
       <c r="D16">
-        <v>1.057798788315548</v>
+        <v>1.019256650276926</v>
       </c>
       <c r="E16">
-        <v>1.067799028684591</v>
+        <v>1.016994717642178</v>
       </c>
       <c r="F16">
-        <v>1.072383234494288</v>
+        <v>1.02509811214461</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043067737099015</v>
+        <v>1.044711490591757</v>
       </c>
       <c r="J16">
-        <v>1.06143908549248</v>
+        <v>1.025000044727145</v>
       </c>
       <c r="K16">
-        <v>1.061160372274141</v>
+        <v>1.033251028537107</v>
       </c>
       <c r="L16">
-        <v>1.071126919741191</v>
+        <v>1.031027963057781</v>
       </c>
       <c r="M16">
-        <v>1.07569591089473</v>
+        <v>1.038993139283701</v>
       </c>
       <c r="N16">
-        <v>1.024066773402454</v>
+        <v>1.011020511527139</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.055755942476019</v>
+        <v>0.999449236546983</v>
       </c>
       <c r="D17">
-        <v>1.05818058512042</v>
+        <v>1.021273094177072</v>
       </c>
       <c r="E17">
-        <v>1.068274003148411</v>
+        <v>1.019433264250144</v>
       </c>
       <c r="F17">
-        <v>1.072836521059848</v>
+        <v>1.027438844592692</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043175688667759</v>
+        <v>1.045458780084709</v>
       </c>
       <c r="J17">
-        <v>1.061807751283123</v>
+        <v>1.026928596247399</v>
       </c>
       <c r="K17">
-        <v>1.061470905382678</v>
+        <v>1.034918134101023</v>
       </c>
       <c r="L17">
-        <v>1.071531096160737</v>
+        <v>1.033108926725075</v>
       </c>
       <c r="M17">
-        <v>1.076078819164064</v>
+        <v>1.040982288196554</v>
       </c>
       <c r="N17">
-        <v>1.024193865615323</v>
+        <v>1.011698512110332</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.056049849279983</v>
+        <v>1.001017404109503</v>
       </c>
       <c r="D18">
-        <v>1.058403238446843</v>
+        <v>1.022438064200563</v>
       </c>
       <c r="E18">
-        <v>1.068551058193012</v>
+        <v>1.020842261228514</v>
       </c>
       <c r="F18">
-        <v>1.073100910429932</v>
+        <v>1.028791335515447</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043238480652122</v>
+        <v>1.045889120534852</v>
       </c>
       <c r="J18">
-        <v>1.062022704799825</v>
+        <v>1.02804203016708</v>
       </c>
       <c r="K18">
-        <v>1.061651918769273</v>
+        <v>1.035880410136744</v>
       </c>
       <c r="L18">
-        <v>1.071766788972989</v>
+        <v>1.034310673371245</v>
       </c>
       <c r="M18">
-        <v>1.076302089475089</v>
+        <v>1.042130934139291</v>
       </c>
       <c r="N18">
-        <v>1.024267941662783</v>
+        <v>1.012089875129347</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.056150059638445</v>
+        <v>1.001549463697616</v>
       </c>
       <c r="D19">
-        <v>1.0584791503457</v>
+        <v>1.022833427092948</v>
       </c>
       <c r="E19">
-        <v>1.068645528644372</v>
+        <v>1.021320470625804</v>
       </c>
       <c r="F19">
-        <v>1.073191059578333</v>
+        <v>1.029250368060318</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043259861541514</v>
+        <v>1.046034930502302</v>
       </c>
       <c r="J19">
-        <v>1.062095984371641</v>
+        <v>1.028419775972748</v>
       </c>
       <c r="K19">
-        <v>1.061713620138183</v>
+        <v>1.036206836562686</v>
       </c>
       <c r="L19">
-        <v>1.071847144613152</v>
+        <v>1.03471843423454</v>
       </c>
       <c r="M19">
-        <v>1.076378206448772</v>
+        <v>1.042520663808364</v>
       </c>
       <c r="N19">
-        <v>1.024293190419624</v>
+        <v>1.012222636409456</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.055701878484563</v>
+        <v>0.999159515513707</v>
       </c>
       <c r="D20">
-        <v>1.05813962632184</v>
+        <v>1.021057914618734</v>
       </c>
       <c r="E20">
-        <v>1.068223041816579</v>
+        <v>1.019173024579466</v>
       </c>
       <c r="F20">
-        <v>1.072787888234568</v>
+        <v>1.027189042227544</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043164124523163</v>
+        <v>1.045379179672186</v>
       </c>
       <c r="J20">
-        <v>1.061768205532534</v>
+        <v>1.026722874918835</v>
       </c>
       <c r="K20">
-        <v>1.061437600058359</v>
+        <v>1.034740323596098</v>
       </c>
       <c r="L20">
-        <v>1.071487737710397</v>
+        <v>1.032886914232317</v>
       </c>
       <c r="M20">
-        <v>1.076037744357331</v>
+        <v>1.040770079164597</v>
       </c>
       <c r="N20">
-        <v>1.024180235484575</v>
+        <v>1.011626196505678</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.054244489313258</v>
+        <v>0.991198170372724</v>
       </c>
       <c r="D21">
-        <v>1.057035300687692</v>
+        <v>1.015151291032551</v>
       </c>
       <c r="E21">
-        <v>1.066849614582518</v>
+        <v>1.012030899149704</v>
       </c>
       <c r="F21">
-        <v>1.071477076027839</v>
+        <v>1.020333534556674</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042850823923585</v>
+        <v>1.043181000722621</v>
       </c>
       <c r="J21">
-        <v>1.060701585068102</v>
+        <v>1.021068558277475</v>
       </c>
       <c r="K21">
-        <v>1.060538873473553</v>
+        <v>1.02985119275678</v>
       </c>
       <c r="L21">
-        <v>1.070318603225128</v>
+        <v>1.026787871812924</v>
       </c>
       <c r="M21">
-        <v>1.07493000016281</v>
+        <v>1.034939656933192</v>
       </c>
       <c r="N21">
-        <v>1.02381236411964</v>
+        <v>1.009637912477731</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.053327918343619</v>
+        <v>0.9860356566930876</v>
       </c>
       <c r="D22">
-        <v>1.056340576717391</v>
+        <v>1.011328062077474</v>
       </c>
       <c r="E22">
-        <v>1.065986166009173</v>
+        <v>1.007409010886894</v>
       </c>
       <c r="F22">
-        <v>1.0706528582362</v>
+        <v>1.015897416428244</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042652264997456</v>
+        <v>1.041745395365493</v>
       </c>
       <c r="J22">
-        <v>1.060030197797019</v>
+        <v>1.017401234514338</v>
       </c>
       <c r="K22">
-        <v>1.059972759676266</v>
+        <v>1.026678399251999</v>
       </c>
       <c r="L22">
-        <v>1.069583000064123</v>
+        <v>1.022835108944157</v>
       </c>
       <c r="M22">
-        <v>1.074232842344747</v>
+        <v>1.031160386595209</v>
       </c>
       <c r="N22">
-        <v>1.023580572542182</v>
+        <v>1.008347770367518</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.053813834918355</v>
+        <v>0.988787969328189</v>
       </c>
       <c r="D23">
-        <v>1.056708900531782</v>
+        <v>1.013365655126266</v>
       </c>
       <c r="E23">
-        <v>1.066443889601387</v>
+        <v>1.00987217420696</v>
       </c>
       <c r="F23">
-        <v>1.071089797821514</v>
+        <v>1.018261539579202</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042757674260195</v>
+        <v>1.042511695625477</v>
       </c>
       <c r="J23">
-        <v>1.060386185619289</v>
+        <v>1.019356453818532</v>
       </c>
       <c r="K23">
-        <v>1.060272967193823</v>
+        <v>1.028370115625488</v>
       </c>
       <c r="L23">
-        <v>1.069973007334568</v>
+        <v>1.024942224325964</v>
       </c>
       <c r="M23">
-        <v>1.074602483465888</v>
+        <v>1.033175067557321</v>
       </c>
       <c r="N23">
-        <v>1.023703496854225</v>
+        <v>1.009035650907454</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.055726307754505</v>
+        <v>0.9992904770331039</v>
       </c>
       <c r="D24">
-        <v>1.058158133970626</v>
+        <v>1.02115517948017</v>
       </c>
       <c r="E24">
-        <v>1.068246069016514</v>
+        <v>1.019290656874543</v>
       </c>
       <c r="F24">
-        <v>1.072809863330503</v>
+        <v>1.027301956668916</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043169350401046</v>
+        <v>1.045415164757104</v>
       </c>
       <c r="J24">
-        <v>1.061786074811488</v>
+        <v>1.026815866844334</v>
       </c>
       <c r="K24">
-        <v>1.061452649657182</v>
+        <v>1.034820699697909</v>
       </c>
       <c r="L24">
-        <v>1.07150732970224</v>
+        <v>1.032987269241135</v>
       </c>
       <c r="M24">
-        <v>1.076056304521926</v>
+        <v>1.040866003016118</v>
       </c>
       <c r="N24">
-        <v>1.024186394522972</v>
+        <v>1.011658885462637</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.057944628691615</v>
+        <v>1.010858839596936</v>
       </c>
       <c r="D25">
-        <v>1.059838234482058</v>
+        <v>1.029759083294936</v>
       </c>
       <c r="E25">
-        <v>1.070337816220624</v>
+        <v>1.029700291842974</v>
       </c>
       <c r="F25">
-        <v>1.074805713342662</v>
+        <v>1.03729409366344</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043640240524276</v>
+        <v>1.048568551494904</v>
       </c>
       <c r="J25">
-        <v>1.063407318752291</v>
+        <v>1.035026206351597</v>
       </c>
       <c r="K25">
-        <v>1.062817086506378</v>
+        <v>1.041912347285137</v>
       </c>
       <c r="L25">
-        <v>1.073285617426783</v>
+        <v>1.041854402934837</v>
       </c>
       <c r="M25">
-        <v>1.077740501551991</v>
+        <v>1.049339793679393</v>
       </c>
       <c r="N25">
-        <v>1.024744626748762</v>
+        <v>1.014543253501859</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_3/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019647904398337</v>
+        <v>1.035283104111477</v>
       </c>
       <c r="D2">
-        <v>1.036310389876727</v>
+        <v>1.049405913078283</v>
       </c>
       <c r="E2">
-        <v>1.037633769578969</v>
+        <v>1.052037916866644</v>
       </c>
       <c r="F2">
-        <v>1.044908839484882</v>
+        <v>1.056781999216676</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050926080647667</v>
+        <v>1.059539007138003</v>
       </c>
       <c r="J2">
-        <v>1.041256421109667</v>
+        <v>1.056457388420265</v>
       </c>
       <c r="K2">
-        <v>1.047286019914342</v>
+        <v>1.060217322504431</v>
       </c>
       <c r="L2">
-        <v>1.0485925690881</v>
+        <v>1.062816934270764</v>
       </c>
       <c r="M2">
-        <v>1.055776064817205</v>
+        <v>1.067503137591222</v>
       </c>
       <c r="N2">
-        <v>1.016729022488523</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.022006052674394</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.061996284387485</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.053648936507974</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025802213685135</v>
+        <v>1.039298607941791</v>
       </c>
       <c r="D3">
-        <v>1.040904137937095</v>
+        <v>1.052155041800213</v>
       </c>
       <c r="E3">
-        <v>1.043201789417847</v>
+        <v>1.055404962383628</v>
       </c>
       <c r="F3">
-        <v>1.050252482065265</v>
+        <v>1.059756666860054</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052553619426523</v>
+        <v>1.060648705232401</v>
       </c>
       <c r="J3">
-        <v>1.045613371777</v>
+        <v>1.058772411733035</v>
       </c>
       <c r="K3">
-        <v>1.05103908473016</v>
+        <v>1.062161400867593</v>
       </c>
       <c r="L3">
-        <v>1.053310197806421</v>
+        <v>1.065374806170357</v>
       </c>
       <c r="M3">
-        <v>1.060280347071908</v>
+        <v>1.069678047330952</v>
       </c>
       <c r="N3">
-        <v>1.0182555922138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.022830532627292</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.063717528334864</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.055020904085954</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029687105611044</v>
+        <v>1.041851958168394</v>
       </c>
       <c r="D4">
-        <v>1.043806275630319</v>
+        <v>1.053907193629489</v>
       </c>
       <c r="E4">
-        <v>1.046722072299585</v>
+        <v>1.057551436678353</v>
       </c>
       <c r="F4">
-        <v>1.053630482981205</v>
+        <v>1.061654155782824</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053569883578356</v>
+        <v>1.061347046275526</v>
       </c>
       <c r="J4">
-        <v>1.048360735186264</v>
+        <v>1.060242466461383</v>
       </c>
       <c r="K4">
-        <v>1.053403253020596</v>
+        <v>1.063395790033312</v>
       </c>
       <c r="L4">
-        <v>1.056287500472961</v>
+        <v>1.067001552470023</v>
       </c>
       <c r="M4">
-        <v>1.063122014557404</v>
+        <v>1.071061335896921</v>
       </c>
       <c r="N4">
-        <v>1.019217189994372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.023353712108899</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.064812273898981</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.055894565556791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031298081529383</v>
+        <v>1.042919579354487</v>
       </c>
       <c r="D5">
-        <v>1.045010204967572</v>
+        <v>1.054642807981951</v>
       </c>
       <c r="E5">
-        <v>1.048183108141831</v>
+        <v>1.058450785004416</v>
       </c>
       <c r="F5">
-        <v>1.055032350139426</v>
+        <v>1.062449582696214</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053988586615086</v>
+        <v>1.061639151225823</v>
       </c>
       <c r="J5">
-        <v>1.049499244840794</v>
+        <v>1.060858485047423</v>
       </c>
       <c r="K5">
-        <v>1.05438236908725</v>
+        <v>1.063914404979663</v>
       </c>
       <c r="L5">
-        <v>1.057521896787654</v>
+        <v>1.067683241107237</v>
       </c>
       <c r="M5">
-        <v>1.064299927341309</v>
+        <v>1.07164130431878</v>
       </c>
       <c r="N5">
-        <v>1.019615421308312</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.023573586627819</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.065271265063392</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.056268272091458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031567297683745</v>
+        <v>1.043103869230399</v>
       </c>
       <c r="D6">
-        <v>1.045211423874382</v>
+        <v>1.054772336215836</v>
       </c>
       <c r="E6">
-        <v>1.048427339332101</v>
+        <v>1.05860679327336</v>
       </c>
       <c r="F6">
-        <v>1.055266683210617</v>
+        <v>1.062587739424575</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054058396330125</v>
+        <v>1.061691770229415</v>
       </c>
       <c r="J6">
-        <v>1.049689459324549</v>
+        <v>1.060967050082633</v>
       </c>
       <c r="K6">
-        <v>1.054545917461318</v>
+        <v>1.064007474192115</v>
       </c>
       <c r="L6">
-        <v>1.057728166582649</v>
+        <v>1.067802698527589</v>
       </c>
       <c r="M6">
-        <v>1.064496743696252</v>
+        <v>1.071743277785281</v>
       </c>
       <c r="N6">
-        <v>1.019681939701633</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.023613222907156</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.065351967567746</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.056342633975707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029708717539199</v>
+        <v>1.041881481987245</v>
       </c>
       <c r="D7">
-        <v>1.043822425068369</v>
+        <v>1.053934223690063</v>
       </c>
       <c r="E7">
-        <v>1.046741667834163</v>
+        <v>1.057578158871177</v>
       </c>
       <c r="F7">
-        <v>1.053649285422033</v>
+        <v>1.061678211846876</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053575511472385</v>
+        <v>1.061361341408391</v>
       </c>
       <c r="J7">
-        <v>1.04837601184564</v>
+        <v>1.060265592212757</v>
       </c>
       <c r="K7">
-        <v>1.053416393306381</v>
+        <v>1.063419735654373</v>
       </c>
       <c r="L7">
-        <v>1.056304061381637</v>
+        <v>1.067025208612579</v>
       </c>
       <c r="M7">
-        <v>1.063137818669832</v>
+        <v>1.071082370520382</v>
       </c>
       <c r="N7">
-        <v>1.019222534537581</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.023364400235363</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.064828920855375</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.05593118052612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021748610864579</v>
+        <v>1.036668982665068</v>
       </c>
       <c r="D8">
-        <v>1.037877869678493</v>
+        <v>1.050362233883787</v>
       </c>
       <c r="E8">
-        <v>1.039533160616173</v>
+        <v>1.053201218311983</v>
       </c>
       <c r="F8">
-        <v>1.046731769137156</v>
+        <v>1.057810001430556</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051483928626351</v>
+        <v>1.059931308348818</v>
       </c>
       <c r="J8">
-        <v>1.042744207037203</v>
+        <v>1.057264449887165</v>
       </c>
       <c r="K8">
-        <v>1.048568087146301</v>
+        <v>1.060900638993664</v>
       </c>
       <c r="L8">
-        <v>1.050202988577647</v>
+        <v>1.063705723541691</v>
       </c>
       <c r="M8">
-        <v>1.057313857719742</v>
+        <v>1.068259953657136</v>
       </c>
       <c r="N8">
-        <v>1.017250511453655</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.022296763553763</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.062595236143969</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.054154521815481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006923946099814</v>
+        <v>1.02709922236274</v>
       </c>
       <c r="D9">
-        <v>1.026829935655059</v>
+        <v>1.043827429361001</v>
       </c>
       <c r="E9">
-        <v>1.026155381682385</v>
+        <v>1.045207198183806</v>
       </c>
       <c r="F9">
-        <v>1.033891392023653</v>
+        <v>1.050754024681025</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047501857110119</v>
+        <v>1.057239431607463</v>
       </c>
       <c r="J9">
-        <v>1.032234549073014</v>
+        <v>1.051730036361037</v>
       </c>
       <c r="K9">
-        <v>1.039502212966736</v>
+        <v>1.056247318876086</v>
       </c>
       <c r="L9">
-        <v>1.038837894946613</v>
+        <v>1.057607056865443</v>
       </c>
       <c r="M9">
-        <v>1.046457535665445</v>
+        <v>1.063074029099956</v>
       </c>
       <c r="N9">
-        <v>1.013562948707825</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.020321085395063</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.058491034638551</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.050861321735246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,81 +857,105 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9964243137647889</v>
+        <v>1.020543346900045</v>
       </c>
       <c r="D10">
-        <v>1.019027231022493</v>
+        <v>1.039398793435839</v>
       </c>
       <c r="E10">
-        <v>1.016717294851201</v>
+        <v>1.039788286957577</v>
       </c>
       <c r="F10">
-        <v>1.024831819360646</v>
+        <v>1.046008493232146</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044626278413814</v>
+        <v>1.055389875219729</v>
       </c>
       <c r="J10">
-        <v>1.024780520697379</v>
+        <v>1.047964954860225</v>
       </c>
       <c r="K10">
-        <v>1.033061235967449</v>
+        <v>1.053091351302717</v>
       </c>
       <c r="L10">
-        <v>1.030791133879108</v>
+        <v>1.053474484056995</v>
       </c>
       <c r="M10">
-        <v>1.038766749038487</v>
+        <v>1.059593932443337</v>
       </c>
       <c r="N10">
-        <v>1.010943325924069</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.018988315158118</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.055787213355285</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.048646437019531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>0.991711458062598</v>
+        <v>1.018341887589864</v>
       </c>
       <c r="D11">
-        <v>1.015531723952474</v>
+        <v>1.038094812345196</v>
       </c>
       <c r="E11">
-        <v>1.012490839831956</v>
+        <v>1.038178025915046</v>
       </c>
       <c r="F11">
-        <v>1.020775003770699</v>
+        <v>1.044845336511487</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043323320415722</v>
+        <v>1.055000232253247</v>
       </c>
       <c r="J11">
-        <v>1.021433162031058</v>
+        <v>1.046971040514006</v>
       </c>
       <c r="K11">
-        <v>1.0301665607043</v>
+        <v>1.052332380695015</v>
       </c>
       <c r="L11">
-        <v>1.027180979948968</v>
+        <v>1.052414170418357</v>
       </c>
       <c r="M11">
-        <v>1.035315487988926</v>
+        <v>1.058968348890075</v>
       </c>
       <c r="N11">
-        <v>1.009766156436151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.018740611813358</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.055719842901151</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.04814210051804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9899339649484553</v>
+        <v>1.017779899378199</v>
       </c>
       <c r="D12">
-        <v>1.014214533169409</v>
+        <v>1.037846636679814</v>
       </c>
       <c r="E12">
-        <v>1.010898397253837</v>
+        <v>1.037865905445563</v>
       </c>
       <c r="F12">
-        <v>1.019246525214737</v>
+        <v>1.044754310051177</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042830143490178</v>
+        <v>1.055016891124681</v>
       </c>
       <c r="J12">
-        <v>1.020170532698431</v>
+        <v>1.046850388460581</v>
       </c>
       <c r="K12">
-        <v>1.029074379706113</v>
+        <v>1.052282981691725</v>
       </c>
       <c r="L12">
-        <v>1.025819737909404</v>
+        <v>1.052301915336123</v>
       </c>
       <c r="M12">
-        <v>1.034014053642854</v>
+        <v>1.059071540563628</v>
       </c>
       <c r="N12">
-        <v>1.009322027683306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.018780635457555</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.056122087805835</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.048107174954174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.990316494829367</v>
+        <v>1.018463768641683</v>
       </c>
       <c r="D13">
-        <v>1.0144979472667</v>
+        <v>1.038417394409084</v>
       </c>
       <c r="E13">
-        <v>1.011241028724132</v>
+        <v>1.038553685254689</v>
       </c>
       <c r="F13">
-        <v>1.019575391536043</v>
+        <v>1.045508046821822</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042936356761976</v>
+        <v>1.055365349928916</v>
       </c>
       <c r="J13">
-        <v>1.020442265077801</v>
+        <v>1.047416912815181</v>
       </c>
       <c r="K13">
-        <v>1.029309442847621</v>
+        <v>1.052802128142898</v>
       </c>
       <c r="L13">
-        <v>1.026112669558248</v>
+        <v>1.052936060207695</v>
       </c>
       <c r="M13">
-        <v>1.034294119421016</v>
+        <v>1.059771116875316</v>
       </c>
       <c r="N13">
-        <v>1.009417613433035</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.019056039806874</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.056947554100849</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.048471767821063</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9915650910690456</v>
+        <v>1.019507900754969</v>
       </c>
       <c r="D14">
-        <v>1.015423235762399</v>
+        <v>1.039189580892117</v>
       </c>
       <c r="E14">
-        <v>1.01235967759344</v>
+        <v>1.039488961251637</v>
       </c>
       <c r="F14">
-        <v>1.020649108834865</v>
+        <v>1.046419347989726</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043282745094594</v>
+        <v>1.055760023082473</v>
       </c>
       <c r="J14">
-        <v>1.021329193709513</v>
+        <v>1.048125587626367</v>
       </c>
       <c r="K14">
-        <v>1.030076633548823</v>
+        <v>1.053424491591291</v>
       </c>
       <c r="L14">
-        <v>1.027068881115048</v>
+        <v>1.053718758003866</v>
       </c>
       <c r="M14">
-        <v>1.035208316353212</v>
+        <v>1.060531815971946</v>
       </c>
       <c r="N14">
-        <v>1.00972958755485</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.019355849767136</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.057719816543631</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.04891318396205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9923307633253274</v>
+        <v>1.020040787810367</v>
       </c>
       <c r="D15">
-        <v>1.015990805617344</v>
+        <v>1.039565168231185</v>
       </c>
       <c r="E15">
-        <v>1.013045876842137</v>
+        <v>1.039944532411026</v>
       </c>
       <c r="F15">
-        <v>1.021307753316961</v>
+        <v>1.046838677410898</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043494931005942</v>
+        <v>1.055934350111977</v>
       </c>
       <c r="J15">
-        <v>1.021873065476441</v>
+        <v>1.048456779917016</v>
       </c>
       <c r="K15">
-        <v>1.030547041958232</v>
+        <v>1.053709616605279</v>
       </c>
       <c r="L15">
-        <v>1.02765530560824</v>
+        <v>1.054082551192509</v>
       </c>
       <c r="M15">
-        <v>1.035768960975436</v>
+        <v>1.060860897635803</v>
       </c>
       <c r="N15">
-        <v>1.009920880223803</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.019484189139173</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.058016990426672</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.049120534678515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9967334239355301</v>
+        <v>1.02268790988612</v>
       </c>
       <c r="D16">
-        <v>1.019256650276926</v>
+        <v>1.041335919565072</v>
       </c>
       <c r="E16">
-        <v>1.016994717642178</v>
+        <v>1.042113442735054</v>
       </c>
       <c r="F16">
-        <v>1.02509811214461</v>
+        <v>1.048726283914847</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044711490591757</v>
+        <v>1.056666234241411</v>
       </c>
       <c r="J16">
-        <v>1.025000044727145</v>
+        <v>1.04995541491065</v>
       </c>
       <c r="K16">
-        <v>1.033251028537107</v>
+        <v>1.054962295440057</v>
       </c>
       <c r="L16">
-        <v>1.031027963057781</v>
+        <v>1.05572722431459</v>
       </c>
       <c r="M16">
-        <v>1.038993139283701</v>
+        <v>1.062233918229665</v>
       </c>
       <c r="N16">
-        <v>1.011020511527139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.020000333802616</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.059064027361537</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.050009299700407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.999449236546983</v>
+        <v>1.02417287523454</v>
       </c>
       <c r="D17">
-        <v>1.021273094177072</v>
+        <v>1.04229095177117</v>
       </c>
       <c r="E17">
-        <v>1.019433264250144</v>
+        <v>1.043288002986257</v>
       </c>
       <c r="F17">
-        <v>1.027438844592692</v>
+        <v>1.049694061837499</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045458780084709</v>
+        <v>1.057018734702253</v>
       </c>
       <c r="J17">
-        <v>1.026928596247399</v>
+        <v>1.050732803525933</v>
       </c>
       <c r="K17">
-        <v>1.034918134101023</v>
+        <v>1.055595986587169</v>
       </c>
       <c r="L17">
-        <v>1.033108926725075</v>
+        <v>1.05657734408437</v>
       </c>
       <c r="M17">
-        <v>1.040982288196554</v>
+        <v>1.062883479089364</v>
       </c>
       <c r="N17">
-        <v>1.011698512110332</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.0202387895692</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.059450239262645</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.050459866480333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.001017404109503</v>
+        <v>1.024777484888158</v>
       </c>
       <c r="D18">
-        <v>1.022438064200563</v>
+        <v>1.042606391177882</v>
       </c>
       <c r="E18">
-        <v>1.020842261228514</v>
+        <v>1.043686390454991</v>
       </c>
       <c r="F18">
-        <v>1.028791335515447</v>
+        <v>1.049919366526083</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045889120534852</v>
+        <v>1.057061119039505</v>
       </c>
       <c r="J18">
-        <v>1.02804203016708</v>
+        <v>1.050936037517523</v>
       </c>
       <c r="K18">
-        <v>1.035880410136744</v>
+        <v>1.055728090175464</v>
       </c>
       <c r="L18">
-        <v>1.034310673371245</v>
+        <v>1.056791365543936</v>
       </c>
       <c r="M18">
-        <v>1.042130934139291</v>
+        <v>1.06292868045298</v>
       </c>
       <c r="N18">
-        <v>1.012089875129347</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.020247769288638</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.059252073806749</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.050541846051865</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001549463697616</v>
+        <v>1.02461575088144</v>
       </c>
       <c r="D19">
-        <v>1.022833427092948</v>
+        <v>1.042375593331657</v>
       </c>
       <c r="E19">
-        <v>1.021320470625804</v>
+        <v>1.043409324004194</v>
       </c>
       <c r="F19">
-        <v>1.029250368060318</v>
+        <v>1.049496829438803</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046034930502302</v>
+        <v>1.056846246851778</v>
       </c>
       <c r="J19">
-        <v>1.028419775972748</v>
+        <v>1.050650620044409</v>
       </c>
       <c r="K19">
-        <v>1.036206836562686</v>
+        <v>1.055440029540334</v>
       </c>
       <c r="L19">
-        <v>1.03471843423454</v>
+        <v>1.056457827766294</v>
       </c>
       <c r="M19">
-        <v>1.042520663808364</v>
+        <v>1.062452320414086</v>
       </c>
       <c r="N19">
-        <v>1.012222636409456</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.020069234461522</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.058555805695466</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.050344461876225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.999159515513707</v>
+        <v>1.022285642297673</v>
       </c>
       <c r="D20">
-        <v>1.021057914618734</v>
+        <v>1.040592086895417</v>
       </c>
       <c r="E20">
-        <v>1.019173024579466</v>
+        <v>1.041232526498598</v>
       </c>
       <c r="F20">
-        <v>1.027189042227544</v>
+        <v>1.04727548733616</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045379179672186</v>
+        <v>1.055901541738666</v>
       </c>
       <c r="J20">
-        <v>1.026722874918835</v>
+        <v>1.048983719528614</v>
       </c>
       <c r="K20">
-        <v>1.034740323596098</v>
+        <v>1.053956847402627</v>
       </c>
       <c r="L20">
-        <v>1.032886914232317</v>
+        <v>1.054587131160214</v>
       </c>
       <c r="M20">
-        <v>1.040770079164597</v>
+        <v>1.06053504696839</v>
       </c>
       <c r="N20">
-        <v>1.011626196505678</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.01935694583759</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.056521657626296</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.049299686718642</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,81 +1440,105 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.991198170372724</v>
+        <v>1.017229416982588</v>
       </c>
       <c r="D21">
-        <v>1.015151291032551</v>
+        <v>1.037149856950371</v>
       </c>
       <c r="E21">
-        <v>1.012030899149704</v>
+        <v>1.037025472493865</v>
       </c>
       <c r="F21">
-        <v>1.020333534556674</v>
+        <v>1.043545906249681</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043181000722621</v>
+        <v>1.054416018255703</v>
       </c>
       <c r="J21">
-        <v>1.021068558277475</v>
+        <v>1.046024037008174</v>
       </c>
       <c r="K21">
-        <v>1.02985119275678</v>
+        <v>1.051460013214446</v>
       </c>
       <c r="L21">
-        <v>1.026787871812924</v>
+        <v>1.051337772348305</v>
       </c>
       <c r="M21">
-        <v>1.034939656933192</v>
+        <v>1.057746724654006</v>
       </c>
       <c r="N21">
-        <v>1.009637912477731</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.018289301575889</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.054274920622579</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.04753756834795</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>0.9860356566930876</v>
+        <v>1.014011887582391</v>
       </c>
       <c r="D22">
-        <v>1.011328062077474</v>
+        <v>1.034969125939181</v>
       </c>
       <c r="E22">
-        <v>1.007409010886894</v>
+        <v>1.034366206657134</v>
       </c>
       <c r="F22">
-        <v>1.015897416428244</v>
+        <v>1.041205055677922</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041745395365493</v>
+        <v>1.053471186835887</v>
       </c>
       <c r="J22">
-        <v>1.017401234514338</v>
+        <v>1.044149171034754</v>
       </c>
       <c r="K22">
-        <v>1.026678399251999</v>
+        <v>1.049878272956267</v>
       </c>
       <c r="L22">
-        <v>1.022835108944157</v>
+        <v>1.049286279408913</v>
       </c>
       <c r="M22">
-        <v>1.031160386595209</v>
+        <v>1.056002162534333</v>
       </c>
       <c r="N22">
-        <v>1.008347770367518</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.017615450939231</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.052894241152074</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.046405967495641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.988787969328189</v>
+        <v>1.01570837939552</v>
       </c>
       <c r="D23">
-        <v>1.013365655126266</v>
+        <v>1.036112135897908</v>
       </c>
       <c r="E23">
-        <v>1.00987217420696</v>
+        <v>1.035765667674318</v>
       </c>
       <c r="F23">
-        <v>1.018261539579202</v>
+        <v>1.04243644092228</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042511695625477</v>
+        <v>1.053964178993087</v>
       </c>
       <c r="J23">
-        <v>1.019356453818532</v>
+        <v>1.045132029345241</v>
       </c>
       <c r="K23">
-        <v>1.028370115625488</v>
+        <v>1.050703557581614</v>
       </c>
       <c r="L23">
-        <v>1.024942224325964</v>
+        <v>1.050363204219915</v>
       </c>
       <c r="M23">
-        <v>1.033175067557321</v>
+        <v>1.056917168611606</v>
       </c>
       <c r="N23">
-        <v>1.009035650907454</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.017965979881217</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.053618394589065</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.04697998355035</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9992904770331039</v>
+        <v>1.022278938505156</v>
       </c>
       <c r="D24">
-        <v>1.02115517948017</v>
+        <v>1.040561500291937</v>
       </c>
       <c r="E24">
-        <v>1.019290656874543</v>
+        <v>1.041204473144053</v>
       </c>
       <c r="F24">
-        <v>1.027301956668916</v>
+        <v>1.047226099096818</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045415164757104</v>
+        <v>1.055868555034089</v>
       </c>
       <c r="J24">
-        <v>1.026815866844334</v>
+        <v>1.048945552717686</v>
       </c>
       <c r="K24">
-        <v>1.034820699697909</v>
+        <v>1.053911881135044</v>
       </c>
       <c r="L24">
-        <v>1.032987269241135</v>
+        <v>1.054544670227963</v>
       </c>
       <c r="M24">
-        <v>1.040866003016118</v>
+        <v>1.060471698316028</v>
       </c>
       <c r="N24">
-        <v>1.011658885462637</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.019330103282266</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.056431511308171</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.049240974246709</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010858839596936</v>
+        <v>1.029643413384364</v>
       </c>
       <c r="D25">
-        <v>1.029759083294936</v>
+        <v>1.045571145792335</v>
       </c>
       <c r="E25">
-        <v>1.029700291842974</v>
+        <v>1.047330116609297</v>
       </c>
       <c r="F25">
-        <v>1.03729409366344</v>
+        <v>1.052627262930986</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048568551494904</v>
+        <v>1.057971459161152</v>
       </c>
       <c r="J25">
-        <v>1.035026206351597</v>
+        <v>1.053212745750482</v>
       </c>
       <c r="K25">
-        <v>1.041912347285137</v>
+        <v>1.057500943143935</v>
       </c>
       <c r="L25">
-        <v>1.041854402934837</v>
+        <v>1.059235580849864</v>
       </c>
       <c r="M25">
-        <v>1.049339793679393</v>
+        <v>1.064460066336505</v>
       </c>
       <c r="N25">
-        <v>1.014543253501859</v>
+        <v>1.020854976498391</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.059587962891758</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.051775724576482</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_3/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035283104111477</v>
+        <v>1.032714229182196</v>
       </c>
       <c r="D2">
-        <v>1.049405913078283</v>
+        <v>1.046177075348474</v>
       </c>
       <c r="E2">
-        <v>1.052037916866644</v>
+        <v>1.049528767566091</v>
       </c>
       <c r="F2">
-        <v>1.056781999216676</v>
+        <v>1.054394758642861</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.059539007138003</v>
+        <v>1.057976099552142</v>
       </c>
       <c r="J2">
-        <v>1.056457388420265</v>
+        <v>1.053958628653467</v>
       </c>
       <c r="K2">
-        <v>1.060217322504431</v>
+        <v>1.057028499317055</v>
       </c>
       <c r="L2">
-        <v>1.062816934270764</v>
+        <v>1.060338660525408</v>
       </c>
       <c r="M2">
-        <v>1.067503137591222</v>
+        <v>1.065144941045793</v>
       </c>
       <c r="N2">
-        <v>1.022006052674394</v>
+        <v>1.021032364639615</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.061996284387485</v>
+        <v>1.060129981245133</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.053648936507974</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.051402853343869</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.026923946373545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039298607941791</v>
+        <v>1.036511291084523</v>
       </c>
       <c r="D3">
-        <v>1.052155041800213</v>
+        <v>1.048682912278771</v>
       </c>
       <c r="E3">
-        <v>1.055404962383628</v>
+        <v>1.052684267364881</v>
       </c>
       <c r="F3">
-        <v>1.059756666860054</v>
+        <v>1.057178973334528</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.060648705232401</v>
+        <v>1.05894830492627</v>
       </c>
       <c r="J3">
-        <v>1.058772411733035</v>
+        <v>1.056053796649072</v>
       </c>
       <c r="K3">
-        <v>1.062161400867593</v>
+        <v>1.058728591646434</v>
       </c>
       <c r="L3">
-        <v>1.065374806170357</v>
+        <v>1.062684661256983</v>
       </c>
       <c r="M3">
-        <v>1.069678047330952</v>
+        <v>1.067129001348167</v>
       </c>
       <c r="N3">
-        <v>1.022830532627292</v>
+        <v>1.021619899665839</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.063717528334864</v>
+        <v>1.061700189076136</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.055020904085954</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.052602034144063</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.027295153456437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.041851958168394</v>
+        <v>1.038927448744877</v>
       </c>
       <c r="D4">
-        <v>1.053907193629489</v>
+        <v>1.050281534634505</v>
       </c>
       <c r="E4">
-        <v>1.057551436678353</v>
+        <v>1.054697658316818</v>
       </c>
       <c r="F4">
-        <v>1.061654155782824</v>
+        <v>1.058956548408867</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.061347046275526</v>
+        <v>1.059559917827342</v>
       </c>
       <c r="J4">
-        <v>1.060242466461383</v>
+        <v>1.057385211980614</v>
       </c>
       <c r="K4">
-        <v>1.063395790033312</v>
+        <v>1.059808739923942</v>
       </c>
       <c r="L4">
-        <v>1.067001552470023</v>
+        <v>1.064177880348095</v>
       </c>
       <c r="M4">
-        <v>1.071061335896921</v>
+        <v>1.068391913683626</v>
       </c>
       <c r="N4">
-        <v>1.023353712108899</v>
+        <v>1.021993158667327</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.064812273898981</v>
+        <v>1.062699670573381</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.055894565556791</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.053366723196354</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.027528667731805</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042919579354487</v>
+        <v>1.039937955027959</v>
       </c>
       <c r="D5">
-        <v>1.054642807981951</v>
+        <v>1.050953169405513</v>
       </c>
       <c r="E5">
-        <v>1.058450785004416</v>
+        <v>1.055541569779155</v>
       </c>
       <c r="F5">
-        <v>1.062449582696214</v>
+        <v>1.059702025867462</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.061639151225823</v>
+        <v>1.059815832810364</v>
       </c>
       <c r="J5">
-        <v>1.060858485047423</v>
+        <v>1.057943401052359</v>
       </c>
       <c r="K5">
-        <v>1.063914404979663</v>
+        <v>1.060263021270825</v>
       </c>
       <c r="L5">
-        <v>1.067683241107237</v>
+        <v>1.064803897656845</v>
       </c>
       <c r="M5">
-        <v>1.07164130431878</v>
+        <v>1.068921695712942</v>
       </c>
       <c r="N5">
-        <v>1.023573586627819</v>
+        <v>1.022150153110865</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.065271265063392</v>
+        <v>1.063118945007205</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.056268272091458</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.053695657525273</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.027626970534335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043103869230399</v>
+        <v>1.040112233831691</v>
       </c>
       <c r="D6">
-        <v>1.054772336215836</v>
+        <v>1.051071598383839</v>
       </c>
       <c r="E6">
-        <v>1.05860679327336</v>
+        <v>1.055687877559266</v>
       </c>
       <c r="F6">
-        <v>1.062587739424575</v>
+        <v>1.059831471234187</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.061691770229415</v>
+        <v>1.059862102560306</v>
       </c>
       <c r="J6">
-        <v>1.060967050082633</v>
+        <v>1.058041838288665</v>
       </c>
       <c r="K6">
-        <v>1.064007474192115</v>
+        <v>1.060344932176806</v>
       </c>
       <c r="L6">
-        <v>1.067802698527589</v>
+        <v>1.064913616486803</v>
       </c>
       <c r="M6">
-        <v>1.071743277785281</v>
+        <v>1.069014918894134</v>
       </c>
       <c r="N6">
-        <v>1.023613222907156</v>
+        <v>1.022178487457504</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.065351967567746</v>
+        <v>1.063192722678062</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.056342633975707</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.053763002917756</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.027645463187235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041881481987245</v>
+        <v>1.038964560409528</v>
       </c>
       <c r="D7">
-        <v>1.053934223690063</v>
+        <v>1.050313918153033</v>
       </c>
       <c r="E7">
-        <v>1.057578158871177</v>
+        <v>1.054731235577163</v>
       </c>
       <c r="F7">
-        <v>1.061678211846876</v>
+        <v>1.058985994277091</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.061361341408391</v>
+        <v>1.059578110233109</v>
       </c>
       <c r="J7">
-        <v>1.060265592212757</v>
+        <v>1.057415721066515</v>
       </c>
       <c r="K7">
-        <v>1.063419735654373</v>
+        <v>1.059837966550561</v>
       </c>
       <c r="L7">
-        <v>1.067025208612579</v>
+        <v>1.064208307197422</v>
       </c>
       <c r="M7">
-        <v>1.071082370520382</v>
+        <v>1.068418270758943</v>
       </c>
       <c r="N7">
-        <v>1.023364400235363</v>
+        <v>1.022029844211249</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.064828920855375</v>
+        <v>1.062720529813668</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.05593118052612</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.053409080069534</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.027538179329099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036668982665068</v>
+        <v>1.034053528418598</v>
       </c>
       <c r="D8">
-        <v>1.050362233883787</v>
+        <v>1.047071662641288</v>
       </c>
       <c r="E8">
-        <v>1.053201218311983</v>
+        <v>1.050645397189672</v>
       </c>
       <c r="F8">
-        <v>1.057810001430556</v>
+        <v>1.055378290823997</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.059931308348818</v>
+        <v>1.058336605264665</v>
       </c>
       <c r="J8">
-        <v>1.057264449887165</v>
+        <v>1.054718003197093</v>
       </c>
       <c r="K8">
-        <v>1.060900638993664</v>
+        <v>1.057649645507308</v>
       </c>
       <c r="L8">
-        <v>1.063705723541691</v>
+        <v>1.061180410887619</v>
       </c>
       <c r="M8">
-        <v>1.068259953657136</v>
+        <v>1.065856953039977</v>
       </c>
       <c r="N8">
-        <v>1.022296763553763</v>
+        <v>1.021327935954265</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.062595236143969</v>
+        <v>1.060693475980296</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.054154521815481</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.051866757790478</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.027066015845798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02709922236274</v>
+        <v>1.025020315591327</v>
       </c>
       <c r="D9">
-        <v>1.043827429361001</v>
+        <v>1.041127901526028</v>
       </c>
       <c r="E9">
-        <v>1.045207198183806</v>
+        <v>1.043169094791966</v>
       </c>
       <c r="F9">
-        <v>1.050754024681025</v>
+        <v>1.048787459375771</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.057239431607463</v>
+        <v>1.055979726000413</v>
       </c>
       <c r="J9">
-        <v>1.051730036361037</v>
+        <v>1.049719459097999</v>
       </c>
       <c r="K9">
-        <v>1.056247318876086</v>
+        <v>1.053587176382636</v>
       </c>
       <c r="L9">
-        <v>1.057607056865443</v>
+        <v>1.055598565382105</v>
       </c>
       <c r="M9">
-        <v>1.063074029099956</v>
+        <v>1.061135652833631</v>
       </c>
       <c r="N9">
-        <v>1.020321085395063</v>
+        <v>1.019933854875703</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.058491034638551</v>
+        <v>1.056956975325789</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.050861321735246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.048991029624211</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.026164194731667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,105 +935,123 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020543346900045</v>
+        <v>1.018879913060466</v>
       </c>
       <c r="D10">
-        <v>1.039398793435839</v>
+        <v>1.037139088434178</v>
       </c>
       <c r="E10">
-        <v>1.039788286957577</v>
+        <v>1.038147216029999</v>
       </c>
       <c r="F10">
-        <v>1.046008493232146</v>
+        <v>1.044395134146187</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.055389875219729</v>
+        <v>1.054383281553905</v>
       </c>
       <c r="J10">
-        <v>1.047964954860225</v>
+        <v>1.046363979034577</v>
       </c>
       <c r="K10">
-        <v>1.053091351302717</v>
+        <v>1.050868670472504</v>
       </c>
       <c r="L10">
-        <v>1.053474484056995</v>
+        <v>1.051860254783348</v>
       </c>
       <c r="M10">
-        <v>1.059593932443337</v>
+        <v>1.058006559370877</v>
       </c>
       <c r="N10">
-        <v>1.018988315158118</v>
+        <v>1.01912012407724</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.055787213355285</v>
+        <v>1.054531014121328</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.048646437019531</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.047087129949688</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.025562705815847</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.018341887589864</v>
+        <v>1.016832094070622</v>
       </c>
       <c r="D11">
-        <v>1.038094812345196</v>
+        <v>1.03598587934631</v>
       </c>
       <c r="E11">
-        <v>1.038178025915046</v>
+        <v>1.036681887502551</v>
       </c>
       <c r="F11">
-        <v>1.044845336511487</v>
+        <v>1.043358937332959</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.055000232253247</v>
+        <v>1.054077638090192</v>
       </c>
       <c r="J11">
-        <v>1.046971040514006</v>
+        <v>1.045521024198602</v>
       </c>
       <c r="K11">
-        <v>1.052332380695015</v>
+        <v>1.050259631838699</v>
       </c>
       <c r="L11">
-        <v>1.052414170418357</v>
+        <v>1.050943677155417</v>
       </c>
       <c r="M11">
-        <v>1.058968348890075</v>
+        <v>1.05750700961926</v>
       </c>
       <c r="N11">
-        <v>1.018740611813358</v>
+        <v>1.019188891865014</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.055719842901151</v>
+        <v>1.054563942470925</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.04814210051804</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.046692019541258</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.025502914677486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.017779899378199</v>
+        <v>1.016292543320165</v>
       </c>
       <c r="D12">
-        <v>1.037846636679814</v>
+        <v>1.035758643271546</v>
       </c>
       <c r="E12">
-        <v>1.037865905445563</v>
+        <v>1.036390899388628</v>
       </c>
       <c r="F12">
-        <v>1.044754310051177</v>
+        <v>1.043286516308207</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.055016891124681</v>
+        <v>1.054101187872264</v>
       </c>
       <c r="J12">
-        <v>1.046850388460581</v>
+        <v>1.04542302846397</v>
       </c>
       <c r="K12">
-        <v>1.052282981691725</v>
+        <v>1.050231398251282</v>
       </c>
       <c r="L12">
-        <v>1.052301915336123</v>
+        <v>1.050852609170575</v>
       </c>
       <c r="M12">
-        <v>1.059071540563628</v>
+        <v>1.05762888657919</v>
       </c>
       <c r="N12">
-        <v>1.018780635457555</v>
+        <v>1.019319473288624</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.056122087805835</v>
+        <v>1.054981340217033</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.048107174954174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.046672058462647</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.0255511200787</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.018463768641683</v>
+        <v>1.016882938818349</v>
       </c>
       <c r="D13">
-        <v>1.038417394409084</v>
+        <v>1.036239048460623</v>
       </c>
       <c r="E13">
-        <v>1.038553685254689</v>
+        <v>1.036991046459771</v>
       </c>
       <c r="F13">
-        <v>1.045508046821822</v>
+        <v>1.043964632259675</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.055365349928916</v>
+        <v>1.054389015768961</v>
       </c>
       <c r="J13">
-        <v>1.047416912815181</v>
+        <v>1.04589950465514</v>
       </c>
       <c r="K13">
-        <v>1.052802128142898</v>
+        <v>1.050661591770344</v>
       </c>
       <c r="L13">
-        <v>1.052936060207695</v>
+        <v>1.051400514094155</v>
       </c>
       <c r="M13">
-        <v>1.059771116875316</v>
+        <v>1.058254002939865</v>
       </c>
       <c r="N13">
-        <v>1.019056039806874</v>
+        <v>1.019476427719069</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.056947554100849</v>
+        <v>1.055748221461472</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.048471767821063</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.046973512662576</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.025691201400569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.019507900754969</v>
+        <v>1.017810268311108</v>
       </c>
       <c r="D14">
-        <v>1.039189580892117</v>
+        <v>1.036898747505618</v>
       </c>
       <c r="E14">
-        <v>1.039488961251637</v>
+        <v>1.03781674019735</v>
       </c>
       <c r="F14">
-        <v>1.046419347989726</v>
+        <v>1.044781331718165</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.055760023082473</v>
+        <v>1.054711724983575</v>
       </c>
       <c r="J14">
-        <v>1.048125587626367</v>
+        <v>1.04649506474396</v>
       </c>
       <c r="K14">
-        <v>1.053424491591291</v>
+        <v>1.051172916063889</v>
       </c>
       <c r="L14">
-        <v>1.053718758003866</v>
+        <v>1.052075150281383</v>
       </c>
       <c r="M14">
-        <v>1.060531815971946</v>
+        <v>1.058921349496513</v>
       </c>
       <c r="N14">
-        <v>1.019355849767136</v>
+        <v>1.019600433013994</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.057719816543631</v>
+        <v>1.056446853201859</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.04891318396205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.04733655603486</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.025831942275971</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020040787810367</v>
+        <v>1.018289950735873</v>
       </c>
       <c r="D15">
-        <v>1.039565168231185</v>
+        <v>1.037223047964111</v>
       </c>
       <c r="E15">
-        <v>1.039944532411026</v>
+        <v>1.038222343138037</v>
       </c>
       <c r="F15">
-        <v>1.046838677410898</v>
+        <v>1.045157498972739</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.055934350111977</v>
+        <v>1.054854226185425</v>
       </c>
       <c r="J15">
-        <v>1.048456779917016</v>
+        <v>1.046774544659164</v>
       </c>
       <c r="K15">
-        <v>1.053709616605279</v>
+        <v>1.051407325907544</v>
       </c>
       <c r="L15">
-        <v>1.054082551192509</v>
+        <v>1.052389598912211</v>
       </c>
       <c r="M15">
-        <v>1.060860897635803</v>
+        <v>1.059207775861707</v>
       </c>
       <c r="N15">
-        <v>1.019484189139173</v>
+        <v>1.019642686692535</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.058016990426672</v>
+        <v>1.056710344707347</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.049120534678515</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.047508620747431</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.025889770939091</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02268790988612</v>
+        <v>1.02071321965049</v>
       </c>
       <c r="D16">
-        <v>1.041335919565072</v>
+        <v>1.038774837756042</v>
       </c>
       <c r="E16">
-        <v>1.042113442735054</v>
+        <v>1.040180272844229</v>
       </c>
       <c r="F16">
-        <v>1.048726283914847</v>
+        <v>1.046862049412057</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.056666234241411</v>
+        <v>1.055456217239208</v>
       </c>
       <c r="J16">
-        <v>1.04995541491065</v>
+        <v>1.048054229291195</v>
       </c>
       <c r="K16">
-        <v>1.054962295440057</v>
+        <v>1.052442869283499</v>
       </c>
       <c r="L16">
-        <v>1.05572722431459</v>
+        <v>1.053825412535403</v>
       </c>
       <c r="M16">
-        <v>1.062233918229665</v>
+        <v>1.060399433806774</v>
       </c>
       <c r="N16">
-        <v>1.020000333802616</v>
+        <v>1.019778679787213</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.059064027361537</v>
+        <v>1.057613989747062</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.050009299700407</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.048244168274451</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.026108104544222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02417287523454</v>
+        <v>1.022098826660338</v>
       </c>
       <c r="D17">
-        <v>1.04229095177117</v>
+        <v>1.039629096263595</v>
       </c>
       <c r="E17">
-        <v>1.043288002986257</v>
+        <v>1.041260489928161</v>
       </c>
       <c r="F17">
-        <v>1.049694061837499</v>
+        <v>1.047746985647835</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.057018734702253</v>
+        <v>1.055752223453343</v>
       </c>
       <c r="J17">
-        <v>1.050732803525933</v>
+        <v>1.048733489792679</v>
       </c>
       <c r="K17">
-        <v>1.055595986587169</v>
+        <v>1.052976217907649</v>
       </c>
       <c r="L17">
-        <v>1.05657734408437</v>
+        <v>1.05458178478395</v>
       </c>
       <c r="M17">
-        <v>1.062883479089364</v>
+        <v>1.060966608862383</v>
       </c>
       <c r="N17">
-        <v>1.0202387895692</v>
+        <v>1.01984790571888</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.059450239262645</v>
+        <v>1.057934933542431</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.050459866480333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.048624040218113</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.026203438003889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024777484888158</v>
+        <v>1.022689758415147</v>
       </c>
       <c r="D18">
-        <v>1.042606391177882</v>
+        <v>1.039927280792494</v>
       </c>
       <c r="E18">
-        <v>1.043686390454991</v>
+        <v>1.041645199967687</v>
       </c>
       <c r="F18">
-        <v>1.049919366526083</v>
+        <v>1.04795910099049</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.057061119039505</v>
+        <v>1.055789762090966</v>
       </c>
       <c r="J18">
-        <v>1.050936037517523</v>
+        <v>1.048922154104038</v>
       </c>
       <c r="K18">
-        <v>1.055728090175464</v>
+        <v>1.053090657834929</v>
       </c>
       <c r="L18">
-        <v>1.056791365543936</v>
+        <v>1.054781820388933</v>
       </c>
       <c r="M18">
-        <v>1.06292868045298</v>
+        <v>1.060998343795753</v>
       </c>
       <c r="N18">
-        <v>1.020247769288638</v>
+        <v>1.0198171583489</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.059252073806749</v>
+        <v>1.057725813878043</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.050541846051865</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.048692392699553</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.026189273883584</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02461575088144</v>
+        <v>1.022579498489117</v>
       </c>
       <c r="D19">
-        <v>1.042375593331657</v>
+        <v>1.039744949421723</v>
       </c>
       <c r="E19">
-        <v>1.043409324004194</v>
+        <v>1.041416156730758</v>
       </c>
       <c r="F19">
-        <v>1.049496829438803</v>
+        <v>1.047577156412951</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.056846246851778</v>
+        <v>1.05560970818018</v>
       </c>
       <c r="J19">
-        <v>1.050650620044409</v>
+        <v>1.048685998258289</v>
       </c>
       <c r="K19">
-        <v>1.055440029540334</v>
+        <v>1.052850113195013</v>
       </c>
       <c r="L19">
-        <v>1.056457827766294</v>
+        <v>1.054495416469227</v>
       </c>
       <c r="M19">
-        <v>1.062452320414086</v>
+        <v>1.060561829850888</v>
       </c>
       <c r="N19">
-        <v>1.020069234461522</v>
+        <v>1.019688515598233</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.058555805695466</v>
+        <v>1.057060579343176</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.050344461876225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.04852923074566</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.026086170125037</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022285642297673</v>
+        <v>1.020481575324556</v>
       </c>
       <c r="D20">
-        <v>1.040592086895417</v>
+        <v>1.038192505355467</v>
       </c>
       <c r="E20">
-        <v>1.041232526498598</v>
+        <v>1.039458564537249</v>
       </c>
       <c r="F20">
-        <v>1.04727548733616</v>
+        <v>1.045546034704979</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.055901541738666</v>
+        <v>1.054810765485418</v>
       </c>
       <c r="J20">
-        <v>1.048983719528614</v>
+        <v>1.04724517480241</v>
       </c>
       <c r="K20">
-        <v>1.053956847402627</v>
+        <v>1.051595460327019</v>
       </c>
       <c r="L20">
-        <v>1.054587131160214</v>
+        <v>1.052841339314502</v>
       </c>
       <c r="M20">
-        <v>1.06053504696839</v>
+        <v>1.058832652000652</v>
       </c>
       <c r="N20">
-        <v>1.01935694583759</v>
+        <v>1.019269763959712</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.056521657626296</v>
+        <v>1.055174418152406</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.049299686718642</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.047646422080133</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.025727434381749</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,105 +1617,123 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.017229416982588</v>
+        <v>1.015895517317237</v>
       </c>
       <c r="D21">
-        <v>1.037149856950371</v>
+        <v>1.035207184934797</v>
       </c>
       <c r="E21">
-        <v>1.037025472493865</v>
+        <v>1.035693747787418</v>
       </c>
       <c r="F21">
-        <v>1.043545906249681</v>
+        <v>1.042200449016514</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.054416018255703</v>
+        <v>1.05360517900644</v>
       </c>
       <c r="J21">
-        <v>1.046024037008174</v>
+        <v>1.044743365375575</v>
       </c>
       <c r="K21">
-        <v>1.051460013214446</v>
+        <v>1.049550896489612</v>
       </c>
       <c r="L21">
-        <v>1.051337772348305</v>
+        <v>1.050029039777435</v>
       </c>
       <c r="M21">
-        <v>1.057746724654006</v>
+        <v>1.056424123540072</v>
       </c>
       <c r="N21">
-        <v>1.018289301575889</v>
+        <v>1.018991603654123</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.054274920622579</v>
+        <v>1.053228189307341</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.04753756834795</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.046204395481437</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.025273668045542</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.014011887582391</v>
+        <v>1.012977255526955</v>
       </c>
       <c r="D22">
-        <v>1.034969125939181</v>
+        <v>1.033317610268718</v>
       </c>
       <c r="E22">
-        <v>1.034366206657134</v>
+        <v>1.033315536371357</v>
       </c>
       <c r="F22">
-        <v>1.041205055677922</v>
+        <v>1.0401044267922</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.053471186835887</v>
+        <v>1.052839119287724</v>
       </c>
       <c r="J22">
-        <v>1.044149171034754</v>
+        <v>1.04315824553272</v>
       </c>
       <c r="K22">
-        <v>1.049878272956267</v>
+        <v>1.048256724558952</v>
       </c>
       <c r="L22">
-        <v>1.049286279408913</v>
+        <v>1.048254688371469</v>
       </c>
       <c r="M22">
-        <v>1.056002162534333</v>
+        <v>1.054921181721854</v>
       </c>
       <c r="N22">
-        <v>1.017615450939231</v>
+        <v>1.018812333390473</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.052894241152074</v>
+        <v>1.052038731215687</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.046405967495641</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.045274810675831</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024986843157382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01570837939552</v>
+        <v>1.014499674241434</v>
       </c>
       <c r="D23">
-        <v>1.036112135897908</v>
+        <v>1.034294050837997</v>
       </c>
       <c r="E23">
-        <v>1.035765667674318</v>
+        <v>1.034551984941297</v>
       </c>
       <c r="F23">
-        <v>1.04243644092228</v>
+        <v>1.041194407883525</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.053964178993087</v>
+        <v>1.053228591034439</v>
       </c>
       <c r="J23">
-        <v>1.045132029345241</v>
+        <v>1.043972877919652</v>
       </c>
       <c r="K23">
-        <v>1.050703557581614</v>
+        <v>1.048917619365076</v>
       </c>
       <c r="L23">
-        <v>1.050363204219915</v>
+        <v>1.049170983831843</v>
       </c>
       <c r="M23">
-        <v>1.056917168611606</v>
+        <v>1.055696737425751</v>
       </c>
       <c r="N23">
-        <v>1.017965979881217</v>
+        <v>1.018857010672725</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.053618394589065</v>
+        <v>1.052652521682417</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.04697998355035</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.045731655347981</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02512919279045</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022278938505156</v>
+        <v>1.020480626445411</v>
       </c>
       <c r="D24">
-        <v>1.040561500291937</v>
+        <v>1.038167008599003</v>
       </c>
       <c r="E24">
-        <v>1.041204473144053</v>
+        <v>1.039435835325309</v>
       </c>
       <c r="F24">
-        <v>1.047226099096818</v>
+        <v>1.045501055662585</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.055868555034089</v>
+        <v>1.054781847539551</v>
       </c>
       <c r="J24">
-        <v>1.048945552717686</v>
+        <v>1.047212463386048</v>
       </c>
       <c r="K24">
-        <v>1.053911881135044</v>
+        <v>1.051555456934466</v>
       </c>
       <c r="L24">
-        <v>1.054544670227963</v>
+        <v>1.052804083938171</v>
       </c>
       <c r="M24">
-        <v>1.060471698316028</v>
+        <v>1.058773612333234</v>
       </c>
       <c r="N24">
-        <v>1.019330103282266</v>
+        <v>1.019247591552211</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.056431511308171</v>
+        <v>1.055087617784495</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.049240974246709</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.047588538817135</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.025708905558309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029643413384364</v>
+        <v>1.027407079445903</v>
       </c>
       <c r="D25">
-        <v>1.045571145792335</v>
+        <v>1.042703555068766</v>
       </c>
       <c r="E25">
-        <v>1.047330116609297</v>
+        <v>1.045141109256999</v>
       </c>
       <c r="F25">
-        <v>1.052627262930986</v>
+        <v>1.050526320908416</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.057971459161152</v>
+        <v>1.056614743628149</v>
       </c>
       <c r="J25">
-        <v>1.053212745750482</v>
+        <v>1.051046024972238</v>
       </c>
       <c r="K25">
-        <v>1.057500943143935</v>
+        <v>1.054673244029716</v>
       </c>
       <c r="L25">
-        <v>1.059235580849864</v>
+        <v>1.057076871330377</v>
       </c>
       <c r="M25">
-        <v>1.064460066336505</v>
+        <v>1.062387832452181</v>
       </c>
       <c r="N25">
-        <v>1.020854976498391</v>
+        <v>1.020275825406166</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.059587962891758</v>
+        <v>1.057947968931269</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.051775724576482</v>
+        <v>1.049789777095563</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.026409613868363</v>
       </c>
     </row>
   </sheetData>
